--- a/laue_data.xlsx
+++ b/laue_data.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,11 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>wavelength</t>
         </is>
       </c>
@@ -555,7 +560,10 @@
         <v>1.80227078986483e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.612e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.548795794095714e-10</v>
       </c>
     </row>
     <row r="3">
@@ -599,7 +607,10 @@
         <v>1.645240610569368e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>1.343333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.326721584834192e-10</v>
       </c>
     </row>
     <row r="4">
@@ -643,7 +654,10 @@
         <v>1.343333333333333e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>1.791111111111111e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.899760218787858e-10</v>
       </c>
     </row>
     <row r="5">
@@ -687,7 +701,10 @@
         <v>7.755738616113973e-11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.985185185185185e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.096827073712912e-10</v>
       </c>
     </row>
     <row r="6">
@@ -731,7 +748,10 @@
         <v>1.274397897047857e-10</v>
       </c>
       <c r="N6" t="n">
-        <v>8.06e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.80227078986483e-10</v>
       </c>
     </row>
     <row r="7">
@@ -775,7 +795,10 @@
         <v>1.07706280490707e-10</v>
       </c>
       <c r="N7" t="n">
-        <v>1.151428571428571e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.523196826227186e-10</v>
       </c>
     </row>
     <row r="8">
@@ -819,7 +842,10 @@
         <v>1.07706280490707e-10</v>
       </c>
       <c r="N8" t="n">
-        <v>5.757142857142857e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.523196826227186e-10</v>
       </c>
     </row>
     <row r="9">
@@ -863,7 +889,10 @@
         <v>6.811943293111843e-11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.302857142857142e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9.633542591235212e-11</v>
       </c>
     </row>
     <row r="10">
@@ -907,7 +936,10 @@
         <v>7.357739689152732e-11</v>
       </c>
       <c r="N10" t="n">
-        <v>5.373333333333334e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.040541525681059e-10</v>
       </c>
     </row>
     <row r="11">
@@ -951,7 +983,10 @@
         <v>1.80227078986483e-10</v>
       </c>
       <c r="N11" t="n">
-        <v>1.612e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.548795794095714e-10</v>
       </c>
     </row>
     <row r="12">
@@ -995,7 +1030,10 @@
         <v>1.645240610569368e-10</v>
       </c>
       <c r="N12" t="n">
-        <v>1.343333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.326721584834192e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1039,7 +1077,10 @@
         <v>4.345660760098568e-11</v>
       </c>
       <c r="N13" t="n">
-        <v>1.874418604651162e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.145692384403968e-11</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1124,10 @@
         <v>1.274397897047857e-10</v>
       </c>
       <c r="N14" t="n">
-        <v>8.06e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.80227078986483e-10</v>
       </c>
     </row>
     <row r="15">
@@ -1127,7 +1171,10 @@
         <v>1.645240610569368e-10</v>
       </c>
       <c r="N15" t="n">
-        <v>1.343333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.326721584834192e-10</v>
       </c>
     </row>
     <row r="16">
@@ -1171,7 +1218,10 @@
         <v>7.357739689152732e-11</v>
       </c>
       <c r="N16" t="n">
-        <v>5.373333333333334e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.040541525681059e-10</v>
       </c>
     </row>
     <row r="17">
@@ -1215,7 +1265,10 @@
         <v>4.345660760098568e-11</v>
       </c>
       <c r="N17" t="n">
-        <v>1.874418604651162e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.145692384403968e-11</v>
       </c>
     </row>
     <row r="18">
@@ -1259,7 +1312,10 @@
         <v>5.48413536856456e-11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.985185185185185e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7.755738616113973e-11</v>
       </c>
     </row>
     <row r="19">
@@ -1303,7 +1359,10 @@
         <v>9.774185688964219e-11</v>
       </c>
       <c r="N19" t="n">
-        <v>9.482352941176471e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.382278596248621e-10</v>
       </c>
     </row>
     <row r="20">
@@ -1347,7 +1406,10 @@
         <v>7.755738616113973e-11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.985185185185185e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.096827073712912e-10</v>
       </c>
     </row>
     <row r="21">
@@ -1391,7 +1453,10 @@
         <v>1.343333333333333e-10</v>
       </c>
       <c r="N21" t="n">
-        <v>1.791111111111111e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.899760218787858e-10</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1481,6 +1546,11 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>wavelength</t>
         </is>
       </c>
@@ -1526,7 +1596,10 @@
         <v>1.88e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.506666666666666e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.658721497261419e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1570,7 +1643,10 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>1.025454545454546e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.404904080491286e-10</v>
       </c>
     </row>
     <row r="4">
@@ -1614,7 +1690,10 @@
         <v>1.029718408109712e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>7.520000000000001e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.456241738173989e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1658,7 +1737,10 @@
         <v>1.783524600334966e-10</v>
       </c>
       <c r="N5" t="n">
-        <v>1.128e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.522284678619763e-10</v>
       </c>
     </row>
     <row r="6">
@@ -1702,7 +1784,10 @@
         <v>1.085418506076496e-10</v>
       </c>
       <c r="N6" t="n">
-        <v>4.177777777777778e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.535013572144125e-10</v>
       </c>
     </row>
     <row r="7">
@@ -1746,7 +1831,10 @@
         <v>1.085418506076496e-10</v>
       </c>
       <c r="N7" t="n">
-        <v>4.177777777777778e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.535013572144125e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1790,7 +1878,10 @@
         <v>1.202452040245643e-10</v>
       </c>
       <c r="N8" t="n">
-        <v>1.025454545454546e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.700523983418587e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1834,7 +1925,10 @@
         <v>1.507353404386074e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>8.057142857142858e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.131719627772042e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1878,7 +1972,10 @@
         <v>2.302520358216188e-10</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3.25625551822949e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1922,7 +2019,10 @@
         <v>1.88e-10</v>
       </c>
       <c r="N11" t="n">
-        <v>1.253333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.658721497261419e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1966,7 +2066,10 @@
         <v>1.329360748630709e-10</v>
       </c>
       <c r="N12" t="n">
-        <v>6.266666666666667e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.88e-10</v>
       </c>
     </row>
     <row r="13">
@@ -2010,7 +2113,10 @@
         <v>7.675067860720625e-11</v>
       </c>
       <c r="N13" t="n">
-        <v>4.177777777777778e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.085418506076496e-10</v>
       </c>
     </row>
     <row r="14">
@@ -2054,7 +2160,10 @@
         <v>1.029718408109712e-10</v>
       </c>
       <c r="N14" t="n">
-        <v>7.520000000000001e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.456241738173989e-10</v>
       </c>
     </row>
     <row r="15">
@@ -2098,7 +2207,10 @@
         <v>7.162807162810744e-11</v>
       </c>
       <c r="N15" t="n">
-        <v>3.638709677419354e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.012973903431011e-10</v>
       </c>
     </row>
     <row r="16">
@@ -2142,7 +2254,10 @@
         <v>1.029718408109712e-10</v>
       </c>
       <c r="N16" t="n">
-        <v>7.520000000000001e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.456241738173989e-10</v>
       </c>
     </row>
     <row r="17">
@@ -2186,7 +2301,10 @@
         <v>1.106095002179358e-10</v>
       </c>
       <c r="N17" t="n">
-        <v>4.338461538461539e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.564254553355146e-10</v>
       </c>
     </row>
     <row r="18">
@@ -2230,7 +2348,10 @@
         <v>1.783524600334966e-10</v>
       </c>
       <c r="N18" t="n">
-        <v>1.128e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.522284678619763e-10</v>
       </c>
     </row>
     <row r="19">
@@ -2274,7 +2395,10 @@
         <v>3.311922038062927e-11</v>
       </c>
       <c r="N19" t="n">
-        <v>3.889655172413793e-12</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.683765063750934e-11</v>
       </c>
     </row>
     <row r="20">
@@ -2318,7 +2442,10 @@
         <v>1.329360748630709e-10</v>
       </c>
       <c r="N20" t="n">
-        <v>6.266666666666667e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.88e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2362,7 +2489,10 @@
         <v>1.029718408109712e-10</v>
       </c>
       <c r="N21" t="n">
-        <v>7.520000000000001e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.456241738173989e-10</v>
       </c>
     </row>
     <row r="22">
@@ -2406,7 +2536,10 @@
         <v>2.302520358216188e-10</v>
       </c>
       <c r="N22" t="n">
-        <v>1.88e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.25625551822949e-10</v>
       </c>
     </row>
     <row r="23">
@@ -2450,7 +2583,10 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="N23" t="n">
-        <v>5.936842105263157e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.829857630355001e-10</v>
       </c>
     </row>
     <row r="24">
@@ -2494,7 +2630,10 @@
         <v>1.029718408109712e-10</v>
       </c>
       <c r="N24" t="n">
-        <v>7.520000000000001e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.456241738173989e-10</v>
       </c>
     </row>
     <row r="25">
@@ -2538,7 +2677,10 @@
         <v>1.106095002179358e-10</v>
       </c>
       <c r="N25" t="n">
-        <v>4.338461538461539e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.564254553355146e-10</v>
       </c>
     </row>
     <row r="26">
@@ -2582,7 +2724,10 @@
         <v>9.149288151775008e-11</v>
       </c>
       <c r="N26" t="n">
-        <v>5.936842105263157e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.293904739029968e-10</v>
       </c>
     </row>
     <row r="27">
@@ -2626,7 +2771,10 @@
         <v>1.047321707318573e-10</v>
       </c>
       <c r="N27" t="n">
-        <v>7.779310344827586e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.481136562657671e-10</v>
       </c>
     </row>
     <row r="28">
@@ -2670,7 +2818,10 @@
         <v>1.367900925204918e-10</v>
       </c>
       <c r="N28" t="n">
-        <v>1.327058823529412e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.9345040404075e-10</v>
       </c>
     </row>
     <row r="29">
@@ -2714,7 +2865,10 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="N29" t="n">
-        <v>1.025454545454546e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.404904080491286e-10</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +2882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2804,6 +2958,11 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>wavelength</t>
         </is>
       </c>
@@ -2849,7 +3008,10 @@
         <v>1.81e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.413333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.559726547895302e-10</v>
       </c>
     </row>
     <row r="3">
@@ -2893,7 +3055,10 @@
         <v>2.428369823564771e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>2.172e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.43423353894286e-10</v>
       </c>
     </row>
     <row r="4">
@@ -2937,7 +3102,10 @@
         <v>1.81e-10</v>
       </c>
       <c r="N4" t="n">
-        <v>2.413333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.559726547895302e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2981,7 +3149,10 @@
         <v>1.81e-10</v>
       </c>
       <c r="N5" t="n">
-        <v>2.413333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.559726547895302e-10</v>
       </c>
     </row>
     <row r="6">
@@ -3025,7 +3196,10 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="N6" t="n">
-        <v>9.872727272727274e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.31535977962193e-10</v>
       </c>
     </row>
     <row r="7">
@@ -3069,7 +3243,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N7" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="8">
@@ -3113,7 +3290,10 @@
         <v>1.81e-10</v>
       </c>
       <c r="N8" t="n">
-        <v>2.413333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.559726547895302e-10</v>
       </c>
     </row>
     <row r="9">
@@ -3157,7 +3337,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="10">
@@ -3201,7 +3384,10 @@
         <v>1.157679889810965e-10</v>
       </c>
       <c r="N10" t="n">
-        <v>9.872727272727274e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.637206601057256e-10</v>
       </c>
     </row>
     <row r="11">
@@ -3245,7 +3431,10 @@
         <v>9.913778290843506e-11</v>
       </c>
       <c r="N11" t="n">
-        <v>7.24e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.402019971327085e-10</v>
       </c>
     </row>
     <row r="12">
@@ -3289,7 +3478,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N12" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="13">
@@ -3333,7 +3525,10 @@
         <v>1.157679889810965e-10</v>
       </c>
       <c r="N13" t="n">
-        <v>9.872727272727274e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.637206601057256e-10</v>
       </c>
     </row>
     <row r="14">
@@ -3377,7 +3572,10 @@
         <v>1.157679889810965e-10</v>
       </c>
       <c r="N14" t="n">
-        <v>9.872727272727274e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.637206601057256e-10</v>
       </c>
     </row>
     <row r="15">
@@ -3421,7 +3619,10 @@
         <v>1.451228543584464e-10</v>
       </c>
       <c r="N15" t="n">
-        <v>1.551428571428571e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.052347088440104e-10</v>
       </c>
     </row>
     <row r="16">
@@ -3465,7 +3666,10 @@
         <v>1.81e-10</v>
       </c>
       <c r="N16" t="n">
-        <v>1.206666666666667e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.559726547895302e-10</v>
       </c>
     </row>
     <row r="17">
@@ -3509,7 +3713,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N17" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="18">
@@ -3553,7 +3760,10 @@
         <v>1.81e-10</v>
       </c>
       <c r="N18" t="n">
-        <v>1.206666666666667e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.559726547895302e-10</v>
       </c>
     </row>
     <row r="19">
@@ -3597,7 +3807,10 @@
         <v>7.38929405739592e-11</v>
       </c>
       <c r="N19" t="n">
-        <v>4.022222222222222e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.045003987233223e-10</v>
       </c>
     </row>
     <row r="20">
@@ -3641,7 +3854,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N20" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="21">
@@ -3685,7 +3901,10 @@
         <v>7.38929405739592e-11</v>
       </c>
       <c r="N21" t="n">
-        <v>4.022222222222222e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.045003987233223e-10</v>
       </c>
     </row>
     <row r="22">
@@ -3729,7 +3948,10 @@
         <v>9.913778290843506e-11</v>
       </c>
       <c r="N22" t="n">
-        <v>7.24e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.402019971327085e-10</v>
       </c>
     </row>
     <row r="23">
@@ -3773,7 +3995,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N23" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="24">
@@ -3817,7 +4042,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N24" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="25">
@@ -3861,7 +4089,10 @@
         <v>6.896106896110344e-11</v>
       </c>
       <c r="N25" t="n">
-        <v>3.503225806451612e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9.752567900053877e-11</v>
       </c>
     </row>
     <row r="26">
@@ -3905,7 +4136,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N26" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="27">
@@ -3949,7 +4183,10 @@
         <v>9.913778290843506e-11</v>
       </c>
       <c r="N27" t="n">
-        <v>7.24e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.402019971327085e-10</v>
       </c>
     </row>
     <row r="28">
@@ -3993,7 +4230,10 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="N28" t="n">
-        <v>9.872727272727274e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.31535977962193e-10</v>
       </c>
     </row>
     <row r="29">
@@ -4037,7 +4277,10 @@
         <v>2.428369823564771e-10</v>
       </c>
       <c r="N29" t="n">
-        <v>2.172e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3.43423353894286e-10</v>
       </c>
     </row>
     <row r="30">
@@ -4081,7 +4324,10 @@
         <v>1.064910613800339e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>4.176923076923078e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.506011032751497e-10</v>
       </c>
     </row>
     <row r="31">
@@ -4125,7 +4371,10 @@
         <v>1.008325686301392e-10</v>
       </c>
       <c r="N31" t="n">
-        <v>7.489655172413794e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.425987860856587e-10</v>
       </c>
     </row>
     <row r="32">
@@ -4169,7 +4418,10 @@
         <v>2.123298023220679e-11</v>
       </c>
       <c r="N32" t="n">
-        <v>3.321100917431193e-12</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3.002796861398668e-11</v>
       </c>
     </row>
     <row r="33">
@@ -4213,7 +4465,10 @@
         <v>7.38929405739592e-11</v>
       </c>
       <c r="N33" t="n">
-        <v>4.022222222222222e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.045003987233223e-10</v>
       </c>
     </row>
     <row r="34">
@@ -4257,7 +4512,10 @@
         <v>7.38929405739592e-11</v>
       </c>
       <c r="N34" t="n">
-        <v>4.022222222222222e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.045003987233223e-10</v>
       </c>
     </row>
     <row r="35">
@@ -4301,7 +4559,10 @@
         <v>9.913778290843506e-11</v>
       </c>
       <c r="N35" t="n">
-        <v>7.24e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.402019971327085e-10</v>
       </c>
     </row>
     <row r="36">
@@ -4345,7 +4606,10 @@
         <v>9.913778290843506e-11</v>
       </c>
       <c r="N36" t="n">
-        <v>7.24e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.402019971327085e-10</v>
       </c>
     </row>
     <row r="37">
@@ -4389,7 +4653,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N37" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="38">
@@ -4433,7 +4700,10 @@
         <v>9.452416718394392e-11</v>
       </c>
       <c r="N38" t="n">
-        <v>6.581818181818181e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.336773592035553e-10</v>
       </c>
     </row>
     <row r="39">
@@ -4477,7 +4747,10 @@
         <v>2.216788217218776e-10</v>
       </c>
       <c r="N39" t="n">
-        <v>1.81e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3.135011961699668e-10</v>
       </c>
     </row>
     <row r="40">
@@ -4521,7 +4794,10 @@
         <v>6.896106896110344e-11</v>
       </c>
       <c r="N40" t="n">
-        <v>3.503225806451612e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O40" t="n">
+        <v>9.752567900053877e-11</v>
       </c>
     </row>
     <row r="41">
@@ -4565,7 +4841,10 @@
         <v>7.603520856272093e-11</v>
       </c>
       <c r="N41" t="n">
-        <v>2.129411764705882e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.075300231672668e-10</v>
       </c>
     </row>
     <row r="42">
@@ -4609,7 +4888,10 @@
         <v>1.81e-10</v>
       </c>
       <c r="N42" t="n">
-        <v>1.206666666666667e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.559726547895302e-10</v>
       </c>
     </row>
     <row r="43">
@@ -4653,7 +4935,10 @@
         <v>1.045003987233223e-10</v>
       </c>
       <c r="N43" t="n">
-        <v>4.022222222222222e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.477858811479184e-10</v>
       </c>
     </row>
     <row r="44">
@@ -4697,7 +4982,10 @@
         <v>1.157679889810965e-10</v>
       </c>
       <c r="N44" t="n">
-        <v>9.872727272727274e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.637206601057256e-10</v>
       </c>
     </row>
     <row r="45">
@@ -4741,7 +5029,10 @@
         <v>1.451228543584464e-10</v>
       </c>
       <c r="N45" t="n">
-        <v>1.551428571428571e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.052347088440104e-10</v>
       </c>
     </row>
     <row r="46">
@@ -4785,7 +5076,10 @@
         <v>1.045003987233223e-10</v>
       </c>
       <c r="N46" t="n">
-        <v>4.022222222222222e-11</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.477858811479184e-10</v>
       </c>
     </row>
     <row r="47">
@@ -4829,7 +5123,10 @@
         <v>1.81e-10</v>
       </c>
       <c r="N47" t="n">
-        <v>2.413333333333333e-10</v>
+        <v>0.7853981633974483</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.559726547895302e-10</v>
       </c>
     </row>
   </sheetData>

--- a/laue_data.xlsx
+++ b/laue_data.xlsx
@@ -7,10 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="LiF" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="NaCl" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Si" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LiF" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NaCl" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Si" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,25 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,45 +456,40 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>vec_u</t>
+          <t>fct</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>vec_v</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>d_hkl</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -521,942 +497,882 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.003366</v>
+        <v>0.0001336499999999995</v>
       </c>
       <c r="B2" t="n">
         <v>0.0001140185261698691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0290565</v>
+        <v>0.025524675</v>
       </c>
       <c r="D2" t="n">
         <v>5.736165934387114e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02925081448865997</v>
+        <v>0.01242725545244501</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005080499188414289</v>
+        <v>0.01006752514621979</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.218081598682957</v>
+        <v>160.9365806998445</v>
       </c>
       <c r="H2" t="n">
-        <v>1.882557329807291</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>9.011353949324152e-11</v>
       </c>
       <c r="M2" t="n">
-        <v>1.80227078986483e-10</v>
+        <v>0.4530849511103442</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.548795794095714e-10</v>
+        <v>7.889283499073531e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.012771</v>
+        <v>-0.009271350000000001</v>
       </c>
       <c r="B3" t="n">
         <v>0.0001315979038096173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0228195</v>
+        <v>0.019287675</v>
       </c>
       <c r="D3" t="n">
         <v>6.346029855942021e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02615010556862056</v>
+        <v>0.009291164840752323</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001737097091417098</v>
+        <v>0.0001864017261054447</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9883494241722066</v>
+        <v>215.2582624761672</v>
       </c>
       <c r="H3" t="n">
-        <v>1.76600420365654</v>
+        <v>-2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>8.22620305284684e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>1.645240610569368e-10</v>
+        <v>0.4096042133834594</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.326721584834192e-10</v>
+        <v>6.55211006541786e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0062865</v>
+        <v>0.009786149999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4.241510094830842e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.022671</v>
+        <v>0.019139175</v>
       </c>
       <c r="D4" t="n">
         <v>5.932023302582455e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02352646006627431</v>
+        <v>0.009361143565997647</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002180810803550788</v>
+        <v>0.0001235231291355558</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5778721758224251</v>
+        <v>213.6491109125356</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08397997265095</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>8.22620305284684e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>1.343333333333333e-10</v>
+        <v>0.4107167708893523</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.899760218787858e-10</v>
+        <v>6.568896100243891e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.007623</v>
+        <v>-0.00412335</v>
       </c>
       <c r="B5" t="n">
         <v>2.925286195694237e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.016335</v>
+        <v>0.012803175</v>
       </c>
       <c r="D5" t="n">
         <v>4.115777990333312e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01802615749404182</v>
+        <v>0.004102350617795042</v>
       </c>
       <c r="F5" t="n">
-        <v>9.291866913261343e-05</v>
+        <v>0.000131095376696211</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.100833399976296</v>
+        <v>243.7626846574822</v>
       </c>
       <c r="H5" t="n">
-        <v>2.358928714234919</v>
+        <v>-1</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>27</v>
+        <v>1.215090718648387e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>7.755738616113973e-11</v>
+        <v>0.2960284135450137</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.096827073712912e-10</v>
+        <v>7.089414828553438e-11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0008414999999999999</v>
+        <v>0.004341149999999999</v>
       </c>
       <c r="B6" t="n">
         <v>3.638537927083059e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0161865</v>
+        <v>0.012654675</v>
       </c>
       <c r="D6" t="n">
         <v>6.267720905546297e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01620835909338141</v>
+        <v>0.004062135871076056</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001202831634783921</v>
+        <v>0.0001862756374200436</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1465218176202991</v>
+        <v>246.1759113279244</v>
       </c>
       <c r="H6" t="n">
-        <v>2.818390256578695</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>1.215090718648387e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>1.274397897047857e-10</v>
+        <v>0.2947835866809012</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.80227078986483e-10</v>
+        <v>7.060473654545982e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0227205</v>
+        <v>-0.01922085</v>
       </c>
       <c r="B7" t="n">
         <v>4.040632374658635e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0133155</v>
+        <v>0.009783675</v>
       </c>
       <c r="D7" t="n">
         <v>5.3661155638673e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02633483739270094</v>
+        <v>0.009413625604949231</v>
       </c>
       <c r="F7" t="n">
-        <v>5.120217837222837e-05</v>
+        <v>4.877213644513065e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.738573930411099</v>
+        <v>212.4579926939623</v>
       </c>
       <c r="H7" t="n">
-        <v>1.018902804532867</v>
+        <v>-4</v>
       </c>
       <c r="I7" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>14</v>
+        <v>8.22620305284684e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07706280490707e-10</v>
+        <v>0.4115461827992051</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.523196826227186e-10</v>
+        <v>6.581404804481176e-11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0156915</v>
+        <v>0.01919115</v>
       </c>
       <c r="B8" t="n">
         <v>3.354733267895349e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.012969</v>
+        <v>0.009437175000000001</v>
       </c>
       <c r="D8" t="n">
         <v>5.005577436881792e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02035726242032558</v>
+        <v>0.009280719087876324</v>
       </c>
       <c r="F8" t="n">
-        <v>5.326308137758609e-05</v>
+        <v>4.160885735084244e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>1.837839986676248</v>
+        <v>215.5005426909924</v>
       </c>
       <c r="H8" t="n">
-        <v>1.518971850186678</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>14</v>
+        <v>8.22620305284684e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07706280490707e-10</v>
+        <v>0.4094374863320299</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.523196826227186e-10</v>
+        <v>6.549593823295028e-11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.009207</v>
+        <v>0.01270665</v>
       </c>
       <c r="B9" t="n">
         <v>3.063923532920526e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0076725</v>
+        <v>0.004140675000000001</v>
       </c>
       <c r="D9" t="n">
         <v>4.111354465624559e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01198482812767876</v>
+        <v>0.004054191810953137</v>
       </c>
       <c r="F9" t="n">
-        <v>4.596255451883557e-05</v>
+        <v>3.34401713461527e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>2.776533522108964</v>
+        <v>246.6582852094758</v>
       </c>
       <c r="H9" t="n">
-        <v>2.313777935090803</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
       <c r="L9" t="n">
-        <v>35</v>
+        <v>1.215090718648387e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>6.811943293111843e-11</v>
+        <v>0.2945366406039327</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O9" t="n">
-        <v>9.633542591235212e-11</v>
+        <v>7.054731064749305e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0163845</v>
+        <v>-0.01288485</v>
       </c>
       <c r="B10" t="n">
         <v>2.594396328774964e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007969499999999999</v>
+        <v>0.004437675</v>
       </c>
       <c r="D10" t="n">
         <v>4.653756392831813e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01821990039764214</v>
+        <v>0.004201494146604357</v>
       </c>
       <c r="F10" t="n">
-        <v>3.443069141923343e-05</v>
+        <v>3.04954816559191e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.322445682625752</v>
+        <v>238.0105660288017</v>
       </c>
       <c r="H10" t="n">
-        <v>1.129648806352707</v>
+        <v>-3</v>
       </c>
       <c r="I10" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>30</v>
+        <v>1.215090718648387e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>7.357739689152732e-11</v>
+        <v>0.2990603778892723</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.040541525681059e-10</v>
+        <v>7.159859386451889e-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.029106</v>
+        <v>-0.02560635</v>
       </c>
       <c r="B11" t="n">
         <v>4.803196152841498e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003762</v>
+        <v>0.0002301750000000009</v>
       </c>
       <c r="D11" t="n">
         <v>8.974724301059221e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02934811544205181</v>
+        <v>0.01249212428963556</v>
       </c>
       <c r="F11" t="n">
-        <v>4.941260707613223e-05</v>
+        <v>4.803844089427093e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.875996670702723</v>
+        <v>160.1008726481657</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2424757601588554</v>
+        <v>-4</v>
       </c>
       <c r="I11" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>9.011353949324152e-11</v>
       </c>
       <c r="M11" t="n">
-        <v>1.80227078986483e-10</v>
+        <v>0.4538666258822426</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.548795794095714e-10</v>
+        <v>7.901947528615468e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.022473</v>
+        <v>0.02597265</v>
       </c>
       <c r="B12" t="n">
         <v>0.0002487657281243584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004059</v>
+        <v>0.0005271750000000013</v>
       </c>
       <c r="D12" t="n">
         <v>0.0002579295109592347</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02283661993378179</v>
+        <v>0.01278500360687985</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000253073590610422</v>
+        <v>0.0002488085416549259</v>
       </c>
       <c r="G12" t="n">
-        <v>2.16996188283976</v>
+        <v>156.4332761645654</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3919314413939655</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>9.011353949324152e-11</v>
       </c>
       <c r="M12" t="n">
-        <v>1.645240610569368e-10</v>
+        <v>0.4573457765441637</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.326721584834192e-10</v>
+        <v>7.958255089944541e-11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.009256499999999999</v>
+        <v>0.01275615</v>
       </c>
       <c r="B13" t="n">
         <v>3.110921788662473e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.000792</v>
+        <v>-0.004323824999999999</v>
       </c>
       <c r="D13" t="n">
         <v>3.741462737900581e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009290320567666112</v>
+        <v>0.004112544980841921</v>
       </c>
       <c r="F13" t="n">
-        <v>3.127323888696465e-05</v>
+        <v>3.359476829384165e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>4.510000531820658</v>
+        <v>243.1584346574806</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3858823984445482</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>86</v>
+        <v>1.215090718648387e-10</v>
       </c>
       <c r="M13" t="n">
-        <v>4.345660760098568e-11</v>
+        <v>0.2963425851905583</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6.145692384403968e-11</v>
+        <v>7.096717319757069e-11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.016533</v>
+        <v>-0.01303335</v>
       </c>
       <c r="B14" t="n">
         <v>3.665727327509244e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0007425</v>
+        <v>-0.004274324999999999</v>
       </c>
       <c r="D14" t="n">
         <v>5.205771462175077e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01654966450566295</v>
+        <v>0.004251558020632921</v>
       </c>
       <c r="F14" t="n">
-        <v>3.673156930269596e-05</v>
+        <v>4.043759547389283e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.774264087535741</v>
+        <v>235.2078920590932</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1245926985420243</v>
+        <v>-3</v>
       </c>
       <c r="I14" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>1.215090718648387e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>1.274397897047857e-10</v>
+        <v>0.3005718592692377</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.80227078986483e-10</v>
+        <v>7.194952550004218e-11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0230175</v>
+        <v>-0.01951785</v>
       </c>
       <c r="B15" t="n">
         <v>6.186410557084149e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.005494499999999999</v>
+        <v>-0.009026324999999998</v>
       </c>
       <c r="D15" t="n">
         <v>0.0005120253106043144</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02366421003329712</v>
+        <v>0.009367005493038018</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0001369559543945888</v>
+        <v>0.0002446575180940764</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.095589385707717</v>
+        <v>213.5154080443841</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5002374662657131</v>
+        <v>-4</v>
       </c>
       <c r="I15" t="n">
         <v>-2</v>
       </c>
       <c r="J15" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>8.22620305284684e-11</v>
       </c>
       <c r="M15" t="n">
-        <v>1.645240610569368e-10</v>
+        <v>0.4108096218007261</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.326721584834192e-10</v>
+        <v>6.570296648044749e-11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0158895</v>
+        <v>0.01938915</v>
       </c>
       <c r="B16" t="n">
         <v>5.493299364943113e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.006088499999999999</v>
+        <v>-0.009620324999999999</v>
       </c>
       <c r="D16" t="n">
         <v>8.447341120347363e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01701605249462989</v>
+        <v>0.009470150845018163</v>
       </c>
       <c r="F16" t="n">
-        <v>6.375913114799041e-05</v>
+        <v>6.909602744350183e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>2.538579669677324</v>
+        <v>211.1898778309443</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.9727267893156102</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
       <c r="L16" t="n">
-        <v>30</v>
+        <v>8.22620305284684e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>7.357739689152732e-11</v>
+        <v>0.4124347714283181</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.040541525681059e-10</v>
+        <v>6.594800953510958e-11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0007425</v>
+        <v>0.004242149999999999</v>
       </c>
       <c r="B17" t="n">
         <v>3.386220097516389e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.009454499999999999</v>
+        <v>-0.012986325</v>
       </c>
       <c r="D17" t="n">
         <v>3.629822781445155e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009483610942041011</v>
+        <v>0.004220662122000812</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0004628834155959516</v>
+        <v>0.0001161591232898214</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3478463841184211</v>
+        <v>236.9296501578165</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.429243957774561</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>-9</v>
-      </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>86</v>
+        <v>1.215090718648387e-10</v>
       </c>
       <c r="M17" t="n">
-        <v>4.345660760098568e-11</v>
+        <v>0.2996406080594229</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O17" t="n">
-        <v>6.145692384403968e-11</v>
+        <v>7.17333295147143e-11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.00792</v>
+        <v>-0.004420350000000001</v>
       </c>
       <c r="B18" t="n">
         <v>3.351981047387867e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.009503999999999999</v>
+        <v>-0.013035825</v>
       </c>
       <c r="D18" t="n">
         <v>4.087903297943348e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01237143548663614</v>
+        <v>0.004279049148455647</v>
       </c>
       <c r="F18" t="n">
-        <v>5.941263283903367e-05</v>
+        <v>0.0001251221912715207</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.251876680934667</v>
+        <v>233.6967782575973</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.7022520171216</v>
+        <v>-1</v>
       </c>
       <c r="I18" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J18" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>54</v>
+        <v>1.215090718648387e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>5.48413536856456e-11</v>
+        <v>0.3013963787614994</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7.755738616113973e-11</v>
+        <v>7.21408909540268e-11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0133155</v>
+        <v>-0.009815850000000001</v>
       </c>
       <c r="B19" t="n">
         <v>4.609945461545429e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.01584</v>
+        <v>-0.019371825</v>
       </c>
       <c r="D19" t="n">
         <v>4.81085586893235e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02069319067350417</v>
+        <v>0.009523186058640842</v>
       </c>
       <c r="F19" t="n">
-        <v>7.348677628409407e-05</v>
+        <v>0.0001055421679778126</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.516812647420891</v>
+        <v>210.0137483069865</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.804386792470948</v>
+        <v>-2</v>
       </c>
       <c r="I19" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J19" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>17</v>
+        <v>8.22620305284684e-11</v>
       </c>
       <c r="M19" t="n">
-        <v>9.774185688964219e-11</v>
+        <v>0.4132640845943523</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.382278596248621e-10</v>
+        <v>6.607298782354184e-11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.006137999999999999</v>
+        <v>0.009637649999999998</v>
       </c>
       <c r="B20" t="n">
         <v>4.313041049680617e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.015939</v>
+        <v>-0.019470825</v>
       </c>
       <c r="D20" t="n">
         <v>4.018141469036464e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01708001068500837</v>
+        <v>0.009529600805007928</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0001129023989208445</v>
+        <v>9.192363953628353e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9741776354491585</v>
+        <v>209.8723798534115</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.529719343666363</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J20" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>27</v>
+        <v>8.22620305284684e-11</v>
       </c>
       <c r="M20" t="n">
-        <v>7.755738616113973e-11</v>
+        <v>0.4133641045115671</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.096827073712912e-10</v>
+        <v>6.608805785176487e-11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.003762</v>
+        <v>-0.0002623500000000006</v>
       </c>
       <c r="B21" t="n">
         <v>8.681676208378359e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0223245</v>
+        <v>-0.025856325</v>
       </c>
       <c r="D21" t="n">
         <v>4.797132997779694e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02263925670710061</v>
+        <v>0.01268972881545708</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0002975918030679972</v>
+        <v>0.00465156519083672</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.3685269056610748</v>
+        <v>157.6077809924389</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.186916242804536</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J21" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>9.011353949324152e-11</v>
       </c>
       <c r="M21" t="n">
-        <v>1.343333333333333e-10</v>
+        <v>0.4562228872128556</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.899760218787858e-10</v>
+        <v>7.940092425676108e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1464,13 +1380,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,45 +1427,40 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>vec_u</t>
+          <t>fct</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>vec_v</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>d_hkl</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -1557,1318 +1468,1234 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005742</v>
+        <v>0.00945980357142857</v>
       </c>
       <c r="B2" t="n">
         <v>1.591493983398169e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0227205</v>
+        <v>0.01875342857142857</v>
       </c>
       <c r="D2" t="n">
         <v>1.353556107452569e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02343483911295317</v>
+        <v>0.009003085470233783</v>
       </c>
       <c r="F2" t="n">
-        <v>5.587320127302682e-05</v>
+        <v>3.119794462834247e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5312262107124393</v>
+        <v>222.1460638813713</v>
       </c>
       <c r="H2" t="n">
-        <v>2.102007161353531</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>1.151260179108094e-10</v>
       </c>
       <c r="M2" t="n">
-        <v>1.88e-10</v>
+        <v>0.404942442987216</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.658721497261419e-10</v>
+        <v>9.071144106278336e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0132165</v>
+        <v>-0.009498696428571429</v>
       </c>
       <c r="B3" t="n">
         <v>1.133673705338537e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.022473</v>
+        <v>0.01850592857142857</v>
       </c>
       <c r="D3" t="n">
         <v>1.349594734260016e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02607127924076607</v>
+        <v>0.008856448605692485</v>
       </c>
       <c r="F3" t="n">
-        <v>2.559568728073937e-05</v>
+        <v>2.863344162140546e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.027804312499757</v>
+        <v>225.8241524389922</v>
       </c>
       <c r="H3" t="n">
-        <v>1.74765227668498</v>
+        <v>-2</v>
       </c>
       <c r="I3" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
+        <v>1.151260179108094e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>1.700523983418587e-10</v>
+        <v>0.4025175167718137</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.404904080491286e-10</v>
+        <v>9.019798670987079e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.003762</v>
+        <v>-4.419642857142947e-05</v>
       </c>
       <c r="B4" t="n">
         <v>6.154802922002186e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0179685</v>
+        <v>0.01400142857142857</v>
       </c>
       <c r="D4" t="n">
         <v>7.771444706773241e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01835809457024339</v>
+        <v>0.004413970495704193</v>
       </c>
       <c r="F4" t="n">
-        <v>3.762560789081739e-05</v>
+        <v>0.002424800224281051</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5262932900364483</v>
+        <v>453.1067894419456</v>
       </c>
       <c r="H4" t="n">
-        <v>2.513742951095141</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>30</v>
+        <v>8.917623001674829e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>1.029718408109712e-10</v>
+        <v>0.305388121003082</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.456241738173989e-10</v>
+        <v>5.362405000819712e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0004455</v>
+        <v>0.00416330357142857</v>
       </c>
       <c r="B5" t="n">
         <v>7.036804750929967e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0163845</v>
+        <v>0.01241742857142857</v>
       </c>
       <c r="D5" t="n">
         <v>9.771545313711237e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01639055552749815</v>
+        <v>0.003906602204294958</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003593581756785045</v>
+        <v>2.998190220655985e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07604629536556236</v>
+        <v>255.9769200203158</v>
       </c>
       <c r="H5" t="n">
-        <v>2.796813751777905</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>1.700523983418587e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.783524600334966e-10</v>
+        <v>0.28988471829288</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.522284678619763e-10</v>
+        <v>9.7216152041162e-11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.007969499999999999</v>
+        <v>-0.004251696428571429</v>
       </c>
       <c r="B6" t="n">
         <v>6.014778238968866e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.016335</v>
+        <v>0.01236792857142857</v>
       </c>
       <c r="D6" t="n">
         <v>9.685469108409771e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01817539972737876</v>
+        <v>0.00389649722592594</v>
       </c>
       <c r="F6" t="n">
-        <v>2.074335835787191e-05</v>
+        <v>2.880924573984375e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.134464741030311</v>
+        <v>256.6407575876988</v>
       </c>
       <c r="H6" t="n">
-        <v>2.325300400869582</v>
+        <v>-1</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>27</v>
+        <v>1.700523983418587e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>1.085418506076496e-10</v>
+        <v>0.2895616822699055</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.535013572144125e-10</v>
+        <v>9.711086483125829e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0069795</v>
+        <v>0.01069730357142857</v>
       </c>
       <c r="B7" t="n">
         <v>6.137381606675251e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>0.014553</v>
+        <v>0.01058592857142857</v>
       </c>
       <c r="D7" t="n">
         <v>9.654524565068227e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01614011242990581</v>
+        <v>0.005029865908923407</v>
       </c>
       <c r="F7" t="n">
-        <v>2.104547748627761e-05</v>
+        <v>1.135545628369863e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.224418396969182</v>
+        <v>397.624914105927</v>
       </c>
       <c r="H7" t="n">
-        <v>2.553042614957019</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>27</v>
+        <v>9.4e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>1.085418506076496e-10</v>
+        <v>0.3225451867464391</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.535013572144125e-10</v>
+        <v>5.959252586083e-11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0145035</v>
+        <v>-0.01078569642857143</v>
       </c>
       <c r="B8" t="n">
         <v>6.915017017685674e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0.014454</v>
+        <v>0.01048692857142857</v>
       </c>
       <c r="D8" t="n">
         <v>1.518270957384157e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02047607453224372</v>
+        <v>0.005026124716214921</v>
       </c>
       <c r="F8" t="n">
-        <v>1.663613636666361e-05</v>
+        <v>1.630146599801054e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.681977386364779</v>
+        <v>397.9208859556836</v>
       </c>
       <c r="H8" t="n">
-        <v>1.676236849209951</v>
+        <v>-4</v>
       </c>
       <c r="I8" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>22</v>
+        <v>9.4e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>1.202452040245643e-10</v>
+        <v>0.3224458419126914</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.700523983418587e-10</v>
+        <v>5.957481187009448e-11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.014949</v>
+        <v>0.01866680357142857</v>
       </c>
       <c r="B9" t="n">
         <v>9.620499335071971e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0131175</v>
+        <v>0.00915042857142857</v>
       </c>
       <c r="D9" t="n">
         <v>1.296776415465855e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01988822282784462</v>
+        <v>0.008847528466319515</v>
       </c>
       <c r="F9" t="n">
-        <v>1.490085379332533e-05</v>
+        <v>1.153093593661215e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>1.821861550211247</v>
+        <v>226.0518299108655</v>
       </c>
       <c r="H9" t="n">
-        <v>1.59865334703967</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>14</v>
+        <v>1.151260179108094e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>1.507353404386074e-10</v>
+        <v>0.4023688429962436</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.131719627772042e-10</v>
+        <v>9.016648920861512e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0222255</v>
+        <v>-0.01850769642857143</v>
       </c>
       <c r="B10" t="n">
         <v>1.872167853533024e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01287</v>
+        <v>0.00890292857142857</v>
       </c>
       <c r="D10" t="n">
         <v>1.644976042894525e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02568286880879938</v>
+        <v>0.008667001312312295</v>
       </c>
       <c r="F10" t="n">
-        <v>2.100561009688201e-05</v>
+        <v>2.03252597087381e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.770723733933856</v>
+        <v>230.7603204304136</v>
       </c>
       <c r="H10" t="n">
-        <v>1.025363409404906</v>
+        <v>-4</v>
       </c>
       <c r="I10" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>1.151260179108094e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>2.302520358216188e-10</v>
+        <v>0.3993307442885838</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3.25625551822949e-10</v>
+        <v>8.952241284561586e-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.0105435</v>
+        <v>-0.006825696428571429</v>
       </c>
       <c r="B11" t="n">
         <v>1.02410081308216e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0104445</v>
+        <v>0.00647742857142857</v>
       </c>
       <c r="D11" t="n">
         <v>1.929597816274601e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01484092222538748</v>
+        <v>0.002103104140210081</v>
       </c>
       <c r="F11" t="n">
-        <v>2.168529618584048e-05</v>
+        <v>2.098055073360417e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.149594536517754</v>
+        <v>475.487628444357</v>
       </c>
       <c r="H11" t="n">
-        <v>2.129410550259371</v>
+        <v>-3</v>
       </c>
       <c r="I11" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>1.293904739029968e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>1.88e-10</v>
+        <v>0.2198842060876415</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.658721497261419e-10</v>
+        <v>5.644442530243987e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0028215</v>
+        <v>0.00653930357142857</v>
       </c>
       <c r="B12" t="n">
         <v>9.748877277565852e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.010395</v>
+        <v>0.006427928571428571</v>
       </c>
       <c r="D12" t="n">
         <v>1.071664539267254e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01077111355663842</v>
+        <v>0.002001835307962066</v>
       </c>
       <c r="F12" t="n">
-        <v>4.066786080568805e-05</v>
+        <v>1.435297222865673e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>1.038841941189065</v>
+        <v>499.5415936678791</v>
       </c>
       <c r="H12" t="n">
-        <v>3.827312414907084</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
       <c r="L12" t="n">
-        <v>18</v>
+        <v>1.293904739029968e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>1.329360748630709e-10</v>
+        <v>0.2149408294669114</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.88e-10</v>
+        <v>5.519528994658123e-11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0086625</v>
+        <v>0.01238030357142857</v>
       </c>
       <c r="B13" t="n">
         <v>5.725101178693285e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00792</v>
+        <v>0.003952928571428571</v>
       </c>
       <c r="D13" t="n">
         <v>8.569939022383797e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01173734664436558</v>
+        <v>0.003851573550010139</v>
       </c>
       <c r="F13" t="n">
-        <v>9.704110395801576e-06</v>
+        <v>6.345404661686055e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.715715365501915</v>
+        <v>259.6341435560454</v>
       </c>
       <c r="H13" t="n">
-        <v>2.482939762744608</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>54</v>
+        <v>1.700523983418587e-10</v>
       </c>
       <c r="M13" t="n">
-        <v>7.675067860720625e-11</v>
+        <v>0.2881183498246289</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.085418506076496e-10</v>
+        <v>9.664031549987606e-11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.016137</v>
+        <v>-0.01241919642857143</v>
       </c>
       <c r="B14" t="n">
         <v>1.429276481020409e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007870499999999999</v>
+        <v>0.00390342857142857</v>
       </c>
       <c r="D14" t="n">
         <v>1.868503363766927e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01795403963597051</v>
+        <v>0.003863637496066819</v>
       </c>
       <c r="F14" t="n">
-        <v>1.695093253119536e-05</v>
+        <v>1.545226811093116e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.346679824594298</v>
+        <v>258.8234535507017</v>
       </c>
       <c r="H14" t="n">
-        <v>1.144546294817464</v>
+        <v>-3</v>
       </c>
       <c r="I14" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>30</v>
+        <v>1.700523983418587e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>1.029718408109712e-10</v>
+        <v>0.2885071096239138</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.456241738173989e-10</v>
+        <v>9.676707722802912e-11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.010098</v>
+        <v>0.01381580357142857</v>
       </c>
       <c r="B15" t="n">
         <v>9.042745341311078e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0038115</v>
+        <v>-0.0001555714285714294</v>
       </c>
       <c r="D15" t="n">
         <v>1.066111060306437e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01079338391098917</v>
+        <v>0.004308447724889513</v>
       </c>
       <c r="F15" t="n">
-        <v>9.89768081664259e-06</v>
+        <v>9.043539473587187e-06</v>
       </c>
       <c r="G15" t="n">
-        <v>3.703549731610612</v>
+        <v>464.2043092332723</v>
       </c>
       <c r="H15" t="n">
-        <v>1.397908477127535</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>62</v>
+        <v>8.917623001674829e-11</v>
       </c>
       <c r="M15" t="n">
-        <v>7.162807162810744e-11</v>
+        <v>0.3022738707424924</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.012973903431011e-10</v>
+        <v>5.309405638821689e-11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0175725</v>
+        <v>-0.01385469642857143</v>
       </c>
       <c r="B16" t="n">
         <v>1.293757216643963e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0037125</v>
+        <v>-0.0002545714285714295</v>
       </c>
       <c r="D16" t="n">
         <v>1.262587073250147e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01796038453096147</v>
+        <v>0.004331408092013805</v>
       </c>
       <c r="F16" t="n">
-        <v>1.32096898594181e-05</v>
+        <v>1.293964663508019e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.553859263969304</v>
+        <v>461.7436079707139</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5395477318245009</v>
+        <v>-6</v>
       </c>
       <c r="I16" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>30</v>
+        <v>8.917623001674829e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>1.029718408109712e-10</v>
+        <v>0.3029561769402885</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.456241738173989e-10</v>
+        <v>5.321021778877054e-11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0084645</v>
+        <v>0.01218230357142857</v>
       </c>
       <c r="B17" t="n">
         <v>6.258712595308418e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0002475</v>
+        <v>-0.00421457142857143</v>
       </c>
       <c r="D17" t="n">
         <v>1.014126630717122e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00846811764797821</v>
+        <v>0.003794350855465083</v>
       </c>
       <c r="F17" t="n">
-        <v>6.265728688861533e-06</v>
+        <v>7.175006614364751e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>4.92447581020213</v>
+        <v>263.5496921850754</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1439905207661441</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>26</v>
+        <v>1.700523983418587e-10</v>
       </c>
       <c r="M17" t="n">
-        <v>1.106095002179358e-10</v>
+        <v>0.2862625726348201</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.564254553355146e-10</v>
+        <v>9.603500692378168e-11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.015939</v>
+        <v>-0.01222119642857143</v>
       </c>
       <c r="B18" t="n">
         <v>7.627403412110839e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0003465</v>
+        <v>-0.004313571428571429</v>
       </c>
       <c r="D18" t="n">
         <v>1.032513082645379e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01594276585947369</v>
+        <v>0.003832006642645824</v>
       </c>
       <c r="F18" t="n">
-        <v>7.630703793476006e-06</v>
+        <v>8.453309556831218e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.858099828424901</v>
+        <v>260.9598816638653</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.06213260496575872</v>
+        <v>-3</v>
       </c>
       <c r="I18" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>1.700523983418587e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>1.783524600334966e-10</v>
+        <v>0.2874859774997348</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.522284678619763e-10</v>
+        <v>9.643408858118178e-11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0026235</v>
+        <v>0.006341303571428571</v>
       </c>
       <c r="B19" t="n">
         <v>1.575266857601912e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.002574</v>
+        <v>-0.006541071428571429</v>
       </c>
       <c r="D19" t="n">
         <v>1.342410940321572e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003675354166607621</v>
+        <v>0.001977209705025938</v>
       </c>
       <c r="F19" t="n">
-        <v>2.053304999002879e-05</v>
+        <v>2.097341476470337e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>7.83364129792479</v>
+        <v>505.7632467906998</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.685836745133756</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>-3</v>
       </c>
       <c r="J19" t="n">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>290</v>
+        <v>1.293904739029968e-10</v>
       </c>
       <c r="M19" t="n">
-        <v>3.311922038062927e-11</v>
+        <v>0.213715568396251</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4.683765063750934e-11</v>
+        <v>5.488547056126151e-11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.010098</v>
+        <v>-0.00638019642857143</v>
       </c>
       <c r="B20" t="n">
         <v>1.449315187496556e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0026235</v>
+        <v>-0.006590571428571429</v>
       </c>
       <c r="D20" t="n">
         <v>1.350893316393893e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01043323325963721</v>
+        <v>0.002003239266577493</v>
       </c>
       <c r="F20" t="n">
-        <v>1.491203753929782e-05</v>
+        <v>2.011899440135758e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.947991894742965</v>
+        <v>499.191492840736</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.025703776575378</v>
+        <v>-3</v>
       </c>
       <c r="I20" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>18</v>
+        <v>1.293904739029968e-10</v>
       </c>
       <c r="M20" t="n">
-        <v>1.329360748630709e-10</v>
+        <v>0.2150104045093289</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.88e-10</v>
+        <v>5.521288020264449e-11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0146025</v>
+        <v>0.01832030357142857</v>
       </c>
       <c r="B21" t="n">
         <v>1.133144555561648e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.005346</v>
+        <v>-0.009313071428571429</v>
       </c>
       <c r="D21" t="n">
         <v>9.934271295215605e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01555032868623683</v>
+        <v>0.008676938860048711</v>
       </c>
       <c r="F21" t="n">
-        <v>1.190079930173243e-05</v>
+        <v>1.240583287444639e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>2.737614733224369</v>
+        <v>230.4960346336671</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.002245393858413</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
         <v>5</v>
       </c>
-      <c r="J21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
       <c r="L21" t="n">
-        <v>30</v>
+        <v>1.151260179108094e-10</v>
       </c>
       <c r="M21" t="n">
-        <v>1.029718408109712e-10</v>
+        <v>0.399499447510945</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.456241738173989e-10</v>
+        <v>8.95581996201965e-11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.0216315</v>
+        <v>-0.01791369642857143</v>
       </c>
       <c r="B22" t="n">
         <v>1.07289831502455e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.005247</v>
+        <v>-0.009214071428571429</v>
       </c>
       <c r="D22" t="n">
         <v>1.370319768968497e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02225876908658697</v>
+        <v>0.008386610083379611</v>
       </c>
       <c r="F22" t="n">
-        <v>1.12320638669881e-05</v>
+        <v>1.283707169353676e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.179690058228212</v>
+        <v>238.475376834742</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.5287120049706877</v>
+        <v>-4</v>
       </c>
       <c r="I22" t="n">
         <v>-2</v>
       </c>
       <c r="J22" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>1.151260179108094e-10</v>
       </c>
       <c r="M22" t="n">
-        <v>2.302520358216188e-10</v>
+        <v>0.3944984378502437</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3.25625551822949e-10</v>
+        <v>8.849626482378758e-11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.006633</v>
+        <v>0.01035080357142857</v>
       </c>
       <c r="B23" t="n">
         <v>6.035690379694812e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0065835</v>
+        <v>-0.01055057142857143</v>
       </c>
       <c r="D23" t="n">
         <v>1.031312786456999e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>0.009345542319737256</v>
+        <v>0.004868729200417261</v>
       </c>
       <c r="F23" t="n">
-        <v>1.188310881080305e-05</v>
+        <v>1.212167896627401e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>3.195456761116949</v>
+        <v>410.7848100955369</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.171610068869808</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="J23" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>9.4e-11</v>
       </c>
       <c r="M23" t="n">
-        <v>1.293904739029968e-10</v>
+        <v>0.3182148239750323</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.829857630355001e-10</v>
+        <v>5.881984349781953e-11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.0140085</v>
+        <v>-0.01029069642857143</v>
       </c>
       <c r="B24" t="n">
         <v>7.076509653977346e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0065835</v>
+        <v>-0.01055057142857143</v>
       </c>
       <c r="D24" t="n">
         <v>1.017094270627431e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01547838959646642</v>
+        <v>0.004843771663223775</v>
       </c>
       <c r="F24" t="n">
-        <v>8.53962495488474e-06</v>
+        <v>1.260221057615993e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.648144829961215</v>
+        <v>412.9013791432313</v>
       </c>
       <c r="H24" t="n">
-        <v>-1.244534496059511</v>
+        <v>-4</v>
       </c>
       <c r="I24" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J24" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>30</v>
+        <v>9.4e-11</v>
       </c>
       <c r="M24" t="n">
-        <v>1.029718408109712e-10</v>
+        <v>0.3175345174782977</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.456241738173989e-10</v>
+        <v>5.869835331539647e-11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0002475</v>
+        <v>0.00396530357142857</v>
       </c>
       <c r="B25" t="n">
         <v>6.132734963610379e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.008217</v>
+        <v>-0.01218407142857143</v>
       </c>
       <c r="D25" t="n">
         <v>1.21979489073147e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008220726564604859</v>
+        <v>0.003752373123334745</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0004045273413053258</v>
+        <v>3.797852075517707e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.152438441935902</v>
+        <v>266.4980179559801</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.060956272271947</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J25" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>26</v>
+        <v>1.700523983418587e-10</v>
       </c>
       <c r="M25" t="n">
-        <v>1.106095002179358e-10</v>
+        <v>0.2848886525598913</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.564254553355146e-10</v>
+        <v>9.558665502279966e-11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.007722</v>
+        <v>-0.00400419642857143</v>
       </c>
       <c r="B26" t="n">
         <v>7.561580306261245e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.008217</v>
+        <v>-0.01218407142857143</v>
       </c>
       <c r="D26" t="n">
         <v>9.117744936750306e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01127600873536377</v>
+        <v>0.003758896978082016</v>
       </c>
       <c r="F26" t="n">
-        <v>1.230082422224597e-05</v>
+        <v>2.875563475768795e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.609037676848581</v>
+        <v>266.0354901533513</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.776283681774772</v>
+        <v>-1</v>
       </c>
       <c r="I26" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J26" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>38</v>
+        <v>1.700523983418587e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>9.149288151775008e-11</v>
+        <v>0.2851028819278155</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.293904739029968e-10</v>
+        <v>9.565657647543631e-11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.0037125</v>
+        <v>5.303571428570599e-06</v>
       </c>
       <c r="B27" t="n">
         <v>7.789457142410311e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.009701999999999999</v>
+        <v>-0.01366907142857143</v>
       </c>
       <c r="D27" t="n">
         <v>8.516541669434918e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01038804410127335</v>
+        <v>0.004224853804455822</v>
       </c>
       <c r="F27" t="n">
-        <v>2.358023067621137e-05</v>
+        <v>0.01160313248388415</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.463405349405497</v>
+        <v>473.3891615114971</v>
       </c>
       <c r="H27" t="n">
-        <v>-3.824365979779698</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="J27" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>29</v>
+        <v>8.917623001674829e-11</v>
       </c>
       <c r="M27" t="n">
-        <v>1.047321707318573e-10</v>
+        <v>0.2997672401559702</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.481136562657671e-10</v>
+        <v>5.2667095258799e-11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.012672</v>
+        <v>-0.008954196428571429</v>
       </c>
       <c r="B28" t="n">
         <v>5.832688694750535e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.014058</v>
+        <v>-0.01802507142857143</v>
       </c>
       <c r="D28" t="n">
         <v>1.101518613701312e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01892635590915483</v>
+        <v>0.008373946389012284</v>
       </c>
       <c r="F28" t="n">
-        <v>1.354059959911961e-05</v>
+        <v>2.292818361430789e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.681627318713911</v>
+        <v>238.8360167464485</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.865555306698245</v>
+        <v>-2</v>
       </c>
       <c r="I28" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J28" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>17</v>
+        <v>1.151260179108094e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>1.367900925204918e-10</v>
+        <v>0.3942768324044045</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.9345040404075e-10</v>
+        <v>8.844915681234449e-11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.005346</v>
+        <v>0.00906380357142857</v>
       </c>
       <c r="B29" t="n">
         <v>9.132623129693361e-06</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0142065</v>
+        <v>-0.01817357142857143</v>
       </c>
       <c r="D29" t="n">
         <v>1.735741841024576e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01517907633059403</v>
+        <v>0.008503179360394676</v>
       </c>
       <c r="F29" t="n">
-        <v>4.702089614248676e-05</v>
+        <v>3.598109357567629e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>1.046623388804437</v>
+        <v>235.2061405778897</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.781304746174754</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J29" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>11</v>
+        <v>1.151260179108094e-10</v>
       </c>
       <c r="M29" t="n">
-        <v>1.700523983418587e-10</v>
+        <v>0.3965245497114112</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2.404904080491286e-10</v>
+        <v>8.89267658875418e-11</v>
       </c>
     </row>
   </sheetData>
@@ -2876,13 +2703,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2923,45 +2750,40 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>vec_u</t>
+          <t>fct</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
-        <is>
-          <t>vec_v</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>l</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>d_hkl</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -2969,686 +2791,644 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.004653</v>
+        <v>-0.0001076086956521742</v>
       </c>
       <c r="B2" t="n">
         <v>1.770897000786927e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.031482</v>
+        <v>0.02607789130434782</v>
       </c>
       <c r="D2" t="n">
         <v>1.170639963821361e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03182399618212646</v>
+        <v>0.0128643879375953</v>
       </c>
       <c r="F2" t="n">
-        <v>8.1160324275996e-05</v>
+        <v>0.00282034448421955</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2645735904181377</v>
+        <v>155.4679483938086</v>
       </c>
       <c r="H2" t="n">
-        <v>1.790093654318463</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>1.214184911782386e-10</v>
       </c>
       <c r="M2" t="n">
-        <v>1.81e-10</v>
+        <v>0.4582749423588158</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.559726547895302e-10</v>
+        <v>1.074314950240037e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0017325</v>
+        <v>0.002812891304347826</v>
       </c>
       <c r="B3" t="n">
         <v>8.625081270103621e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0251955</v>
+        <v>0.01979139130434783</v>
       </c>
       <c r="D3" t="n">
         <v>1.197784120457276e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02525499508018166</v>
+        <v>0.008277403120723274</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001744012693488939</v>
+        <v>8.471505793993755e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1418322697739325</v>
+        <v>241.6216741930579</v>
       </c>
       <c r="H3" t="n">
-        <v>2.062646437569475</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>9.913778290843506e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>2.428369823564771e-10</v>
+        <v>0.3925776249818836</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.43423353894286e-10</v>
+        <v>7.585452474750323e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.007623</v>
+        <v>-0.003077608695652174</v>
       </c>
       <c r="B4" t="n">
         <v>1.086764828870365e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.025146</v>
+        <v>0.01974189130434783</v>
       </c>
       <c r="D4" t="n">
         <v>1.389707861793058e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02627606220498041</v>
+        <v>0.008270372257121735</v>
       </c>
       <c r="F4" t="n">
-        <v>4.711279981495347e-05</v>
+        <v>8.980446093537419e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.5854082697561818</v>
+        <v>241.827083209921</v>
       </c>
       <c r="H4" t="n">
-        <v>1.931087019715197</v>
+        <v>-1</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>9</v>
+        <v>9.913778290843506e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>1.81e-10</v>
+        <v>0.3924531986742553</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.559726547895302e-10</v>
+        <v>7.583173026226983e-11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005395499999999999</v>
+        <v>0.009940891304347825</v>
       </c>
       <c r="B5" t="n">
         <v>1.114820131028215e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02475</v>
+        <v>0.01934589130434783</v>
       </c>
       <c r="D5" t="n">
         <v>1.466495364855975e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02533128343076994</v>
+        <v>0.009548008905584469</v>
       </c>
       <c r="F5" t="n">
-        <v>6.818767293104639e-05</v>
+        <v>3.063943504773628e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4395528805287802</v>
+        <v>209.4677560292423</v>
       </c>
       <c r="H5" t="n">
-        <v>2.016297617104496</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>1.108394108609388e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.81e-10</v>
+        <v>0.4136507838629954</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.559726547895302e-10</v>
+        <v>8.910488286990158e-11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.014751</v>
+        <v>-0.01020560869565217</v>
       </c>
       <c r="B6" t="n">
         <v>1.328701229555156e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.024552</v>
+        <v>0.01914789130434782</v>
       </c>
       <c r="D6" t="n">
         <v>1.470523607654389e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02864249823252155</v>
+        <v>0.00950925600979954</v>
       </c>
       <c r="F6" t="n">
-        <v>2.784977807291473e-05</v>
+        <v>3.062285187296164e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.9877381792342617</v>
+        <v>210.3213961154213</v>
       </c>
       <c r="H6" t="n">
-        <v>1.644020593624811</v>
+        <v>-2</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>1.108394108609388e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>1.637206601057256e-10</v>
+        <v>0.4130466713808814</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.31535977962193e-10</v>
+        <v>8.89822424682499e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.012771</v>
+        <v>0.01731639130434783</v>
       </c>
       <c r="B7" t="n">
         <v>0.0001149237661852445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.021681</v>
+        <v>0.01627689130434783</v>
       </c>
       <c r="D7" t="n">
         <v>0.001269061719094099</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02516275426101046</v>
+        <v>0.01106114290136225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002146942627452763</v>
+        <v>0.001195197961533601</v>
       </c>
       <c r="G7" t="n">
-        <v>1.051728149746204</v>
+        <v>180.8131418095762</v>
       </c>
       <c r="H7" t="n">
-        <v>1.785491975150533</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>1.157679889810965e-10</v>
       </c>
       <c r="M7" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.4356114873942182</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>9.770004702240844e-11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0027225</v>
+        <v>0.007267891304347825</v>
       </c>
       <c r="B8" t="n">
         <v>1.007826598840397e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0218295</v>
+        <v>0.01642539130434783</v>
       </c>
       <c r="D8" t="n">
         <v>1.74341431418262e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02199861533142484</v>
+        <v>0.006881512671588253</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001401500848777828</v>
+        <v>4.066946614544574e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2797727266651813</v>
+        <v>290.6337742074375</v>
       </c>
       <c r="H8" t="n">
-        <v>2.243268590169909</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>9.452416718394392e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>1.81e-10</v>
+        <v>0.3658753665935956</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2.559726547895302e-10</v>
+        <v>6.763522866274488e-11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.012078</v>
+        <v>-0.007532608695652173</v>
       </c>
       <c r="B9" t="n">
         <v>1.354379215077458e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0217305</v>
+        <v>0.01632639130434783</v>
       </c>
       <c r="D9" t="n">
         <v>1.774502071170995e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02486147047642194</v>
+        <v>0.006894074566426323</v>
       </c>
       <c r="F9" t="n">
-        <v>3.468043559005036e-05</v>
+        <v>4.077595604240954e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.014313156445019</v>
+        <v>290.104201909835</v>
       </c>
       <c r="H9" t="n">
-        <v>1.82493227737444</v>
+        <v>-2</v>
       </c>
       <c r="I9" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>9.452416718394392e-11</v>
       </c>
       <c r="M9" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.3661353407048782</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>6.768112101116045e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0218295</v>
+        <v>-0.01728410869565217</v>
       </c>
       <c r="B10" t="n">
         <v>1.511599478799292e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.021582</v>
+        <v>0.01617789130434782</v>
       </c>
       <c r="D10" t="n">
         <v>1.69074057793631e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03069706491262642</v>
+        <v>0.01099136299775168</v>
       </c>
       <c r="F10" t="n">
-        <v>2.253681468040984e-05</v>
+        <v>2.188453565644252e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.312062469391166</v>
+        <v>181.9610543668794</v>
       </c>
       <c r="H10" t="n">
-        <v>1.297186477674712</v>
+        <v>-3</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>22</v>
+        <v>1.157679889810965e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>0.4346633061389997</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.637206601057256e-10</v>
+        <v>9.750096724044602e-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.0047025</v>
+        <v>-0.0001571086956521743</v>
       </c>
       <c r="B11" t="n">
         <v>1.998684874892541e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0196515</v>
+        <v>0.01424739130434783</v>
       </c>
       <c r="D11" t="n">
         <v>1.860029962537658e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02020630986845446</v>
+        <v>0.004556319800032241</v>
       </c>
       <c r="F11" t="n">
-        <v>8.025755689604081e-05</v>
+        <v>0.001675186041941251</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.5577942028616457</v>
+        <v>438.9507514344905</v>
       </c>
       <c r="H11" t="n">
-        <v>2.330992616169193</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>30</v>
+        <v>8.585583847357149e-11</v>
       </c>
       <c r="M11" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>0.3095041321107141</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.402019971327085e-10</v>
+        <v>5.230103590791631e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.009998999999999999</v>
+        <v>0.01454439130434782</v>
       </c>
       <c r="B12" t="n">
         <v>1.030957666084935e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0193545</v>
+        <v>0.01395039130434783</v>
       </c>
       <c r="D12" t="n">
         <v>1.992485597579501e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02178478072531372</v>
+        <v>0.00839282895307215</v>
       </c>
       <c r="F12" t="n">
-        <v>3.992150885702744e-05</v>
+        <v>2.171453913191606e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04447369975274</v>
+        <v>238.2986727339309</v>
       </c>
       <c r="H12" t="n">
-        <v>2.021728795065948</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>1.157679889810965e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.3946071555100394</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>8.901297986779552e-11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.0193545</v>
+        <v>-0.01480910869565217</v>
       </c>
       <c r="B13" t="n">
         <v>1.677869259096421e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.019107</v>
+        <v>0.01370289130434783</v>
       </c>
       <c r="D13" t="n">
         <v>3.081605070447123e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02719695055056725</v>
+        <v>0.008409134630579861</v>
       </c>
       <c r="F13" t="n">
-        <v>3.474217248394985e-05</v>
+        <v>3.308437614101625e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.406673149719192</v>
+        <v>237.8366012510954</v>
       </c>
       <c r="H13" t="n">
-        <v>1.388685002024573</v>
+        <v>-4</v>
       </c>
       <c r="I13" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>22</v>
+        <v>1.008325686301392e-10</v>
       </c>
       <c r="M13" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>0.3948918725645431</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.637206601057256e-10</v>
+        <v>7.758226932821679e-11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0153945</v>
+        <v>0.01993989130434783</v>
       </c>
       <c r="B14" t="n">
         <v>1.203274009980124e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.014652</v>
+        <v>0.009247891304347826</v>
       </c>
       <c r="D14" t="n">
         <v>1.775394275357259e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02125257006223012</v>
+        <v>0.009717381425795882</v>
       </c>
       <c r="F14" t="n">
-        <v>2.074407409000568e-05</v>
+        <v>1.458035095670347e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>1.676337107059903</v>
+        <v>205.8167640400299</v>
       </c>
       <c r="H14" t="n">
-        <v>1.595484835015213</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>22</v>
+        <v>1.108394108609388e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>0.4162648839365153</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.637206601057256e-10</v>
+        <v>8.963519389806742e-11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.024552</v>
+        <v>-0.02000660869565217</v>
       </c>
       <c r="B15" t="n">
         <v>1.368990559192603e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0143055</v>
+        <v>0.008901391304347826</v>
       </c>
       <c r="D15" t="n">
         <v>1.6550983582267e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02841563010475045</v>
+        <v>0.009656351067757207</v>
       </c>
       <c r="F15" t="n">
-        <v>1.674552911110112e-05</v>
+        <v>1.554478877381541e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.664728261319244</v>
+        <v>207.1175732910177</v>
       </c>
       <c r="H15" t="n">
-        <v>0.969972716776737</v>
+        <v>-4</v>
       </c>
       <c r="I15" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>14</v>
+        <v>1.108394108609388e-10</v>
       </c>
       <c r="M15" t="n">
-        <v>1.451228543584464e-10</v>
+        <v>0.4153278179605042</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.052347088440104e-10</v>
+        <v>8.944516567113337e-11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.012474</v>
+        <v>0.01701939130434783</v>
       </c>
       <c r="B16" t="n">
         <v>1.556964105219311e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0120285</v>
+        <v>0.006624391304347827</v>
       </c>
       <c r="D16" t="n">
         <v>2.095703638922583e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01732874745185006</v>
+        <v>0.007083984945418013</v>
       </c>
       <c r="F16" t="n">
-        <v>2.551074713707439e-05</v>
+        <v>1.757698266999111e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>1.930090977900991</v>
+        <v>282.3269692708224</v>
       </c>
       <c r="H16" t="n">
-        <v>1.86115915726167</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -3657,1476 +3437,1380 @@
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>9</v>
+        <v>9.452416718394392e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>1.81e-10</v>
+        <v>0.3700183796666876</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.559726547895302e-10</v>
+        <v>6.836603459005128e-11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0218295</v>
+        <v>-0.01728410869565217</v>
       </c>
       <c r="B17" t="n">
         <v>1.255945707985877e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.011781</v>
+        <v>0.006376891304347827</v>
       </c>
       <c r="D17" t="n">
         <v>1.968967139292496e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02480562499212628</v>
+        <v>0.007192005371259143</v>
       </c>
       <c r="F17" t="n">
-        <v>1.645160388550063e-05</v>
+        <v>1.450901020436421e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.83996704800554</v>
+        <v>278.0865553844615</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9929980893998153</v>
+        <v>-5</v>
       </c>
       <c r="I17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>9.452416718394392e-11</v>
       </c>
       <c r="M17" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.3721883798364725</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>6.874834383074345e-11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0118305</v>
+        <v>-0.007285108695652173</v>
       </c>
       <c r="B18" t="n">
         <v>8.455840642880178e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0117315</v>
+        <v>0.006327391304347826</v>
       </c>
       <c r="D18" t="n">
         <v>1.158128287512173e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01666099704399469</v>
+        <v>0.002206050739062167</v>
       </c>
       <c r="F18" t="n">
-        <v>1.426154840879378e-05</v>
+        <v>1.314077119914189e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.9617658065117</v>
+        <v>453.2987307559021</v>
       </c>
       <c r="H18" t="n">
-        <v>1.945349356248004</v>
+        <v>-3</v>
       </c>
       <c r="I18" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>1.24572743491715e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>1.81e-10</v>
+        <v>0.2247604142831846</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.559726547895302e-10</v>
+        <v>5.552775453012985e-11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0023265</v>
+        <v>0.006871891304347826</v>
       </c>
       <c r="B19" t="n">
         <v>8.629958301381037e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.011583</v>
+        <v>0.006178891304347827</v>
       </c>
       <c r="D19" t="n">
         <v>1.144019289901041e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01181433414331929</v>
+        <v>0.002031831241404252</v>
       </c>
       <c r="F19" t="n">
-        <v>5.760693654118808e-05</v>
+        <v>1.342712770628356e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7205398875882514</v>
+        <v>492.1668589507826</v>
       </c>
       <c r="H19" t="n">
-        <v>3.587368802035124</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>7</v>
-      </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>54</v>
+        <v>1.24572743491715e-10</v>
       </c>
       <c r="M19" t="n">
-        <v>7.38929405739592e-11</v>
+        <v>0.2164208387058885</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.045003987233223e-10</v>
+        <v>5.350034044784323e-11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0180675</v>
+        <v>-0.01352210869565217</v>
       </c>
       <c r="B20" t="n">
         <v>1.569478782202061e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008959499999999999</v>
+        <v>0.003555391304347826</v>
       </c>
       <c r="D20" t="n">
         <v>1.606912111849644e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02016698283085499</v>
+        <v>0.004402627540985506</v>
       </c>
       <c r="F20" t="n">
-        <v>1.760180330822087e-05</v>
+        <v>1.625353213198871e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.150229519156177</v>
+        <v>227.1370881798816</v>
       </c>
       <c r="H20" t="n">
-        <v>1.066278199910323</v>
+        <v>-3</v>
       </c>
       <c r="I20" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>1.637206601057256e-10</v>
       </c>
       <c r="M20" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.305055980973813</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>9.834587806320177e-11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.008513999999999999</v>
+        <v>0.01305939130434782</v>
       </c>
       <c r="B21" t="n">
         <v>1.316716942986391e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009009</v>
+        <v>0.003604891304347827</v>
       </c>
       <c r="D21" t="n">
         <v>2.217907700882687e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01239557489590539</v>
+        <v>0.004156633510409478</v>
       </c>
       <c r="F21" t="n">
-        <v>2.690989896125036e-05</v>
+        <v>1.452088055820214e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>2.41205226137738</v>
+        <v>240.5793047416124</v>
       </c>
       <c r="H21" t="n">
-        <v>2.552287857969089</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>54</v>
+        <v>1.637206601057256e-10</v>
       </c>
       <c r="M21" t="n">
-        <v>7.38929405739592e-11</v>
+        <v>0.2976949134773788</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.045003987233223e-10</v>
+        <v>9.604420075510519e-11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.01584</v>
+        <v>0.02038539130434783</v>
       </c>
       <c r="B22" t="n">
         <v>1.131017800020549e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0076725</v>
+        <v>0.002268391304347827</v>
       </c>
       <c r="D22" t="n">
         <v>1.7400631659683e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01760036523058542</v>
+        <v>0.00864803270280563</v>
       </c>
       <c r="F22" t="n">
-        <v>1.410525911680533e-05</v>
+        <v>1.147471732839527e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>2.384980918198891</v>
+        <v>231.2664705061941</v>
       </c>
       <c r="H22" t="n">
-        <v>1.155225132252588</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
         <v>5</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
       <c r="L22" t="n">
-        <v>30</v>
+        <v>9.913778290843506e-11</v>
       </c>
       <c r="M22" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>0.3990082474877866</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.402019971327085e-10</v>
+        <v>7.703098651708029e-11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.0249975</v>
+        <v>-0.02045210869565217</v>
       </c>
       <c r="B23" t="n">
         <v>8.230936209555615e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007227</v>
+        <v>0.001822891304347827</v>
       </c>
       <c r="D23" t="n">
         <v>1.525997712866127e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02602123239299015</v>
+        <v>0.008663769514951066</v>
       </c>
       <c r="F23" t="n">
-        <v>9.338748136301208e-06</v>
+        <v>8.342553140713879e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.949993912106034</v>
+        <v>230.846399658786</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5637606161732297</v>
+        <v>-5</v>
       </c>
       <c r="I23" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>1.008325686301392e-10</v>
       </c>
       <c r="M23" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.3992758430282098</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>7.839757369133889e-11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.022176</v>
+        <v>0.02672139130434782</v>
       </c>
       <c r="B24" t="n">
         <v>1.124936072695727e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004801499999999999</v>
+        <v>-0.0006026086956521732</v>
       </c>
       <c r="D24" t="n">
         <v>2.343771270394549e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0226898518780974</v>
+        <v>0.01338256866210494</v>
       </c>
       <c r="F24" t="n">
-        <v>1.234100310150139e-05</v>
+        <v>1.126176679485355e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>2.16432587554882</v>
+        <v>149.4481403755727</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4686152007326687</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>1.214184911782386e-10</v>
       </c>
       <c r="M24" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.4642004603956314</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>1.087200627203342e-10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.010197</v>
+        <v>0.01474239130434783</v>
       </c>
       <c r="B25" t="n">
         <v>7.991466706546206e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0047025</v>
+        <v>-0.0007016086956521724</v>
       </c>
       <c r="D25" t="n">
         <v>1.475963770969718e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.011229083455474</v>
+        <v>0.004856193516552872</v>
       </c>
       <c r="F25" t="n">
-        <v>1.049730956743721e-05</v>
+        <v>8.022274165067397e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>3.472261994070056</v>
+        <v>411.8452020461663</v>
       </c>
       <c r="H25" t="n">
-        <v>1.601285871051725</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>62</v>
+        <v>8.585583847357149e-11</v>
       </c>
       <c r="M25" t="n">
-        <v>6.896106896110344e-11</v>
+        <v>0.3178734468528737</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O25" t="n">
-        <v>9.752567900053877e-11</v>
+        <v>5.366801264615383e-11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.0308385</v>
+        <v>-0.02629310869565217</v>
       </c>
       <c r="B26" t="n">
         <v>1.69030278069166e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0043065</v>
+        <v>-0.001097608695652173</v>
       </c>
       <c r="D26" t="n">
         <v>2.577315750276318e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03113774276501108</v>
+        <v>0.01305347651503773</v>
       </c>
       <c r="F26" t="n">
-        <v>1.728195459862666e-05</v>
+        <v>1.693722649270835e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.813223741622984</v>
+        <v>153.2158883264532</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2532110200982337</v>
+        <v>-4</v>
       </c>
       <c r="I26" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>1.214184911782386e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.4604649445660205</v>
       </c>
       <c r="N26" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>1.079081764283931e-10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.019602</v>
+        <v>-0.01505660869565217</v>
       </c>
       <c r="B27" t="n">
         <v>1.045571421113961e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0044055</v>
+        <v>-0.0009986086956521728</v>
       </c>
       <c r="D27" t="n">
         <v>1.414892638956811e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02009096399504016</v>
+        <v>0.005053915557074521</v>
       </c>
       <c r="F27" t="n">
-        <v>1.092858120128589e-05</v>
+        <v>1.049773650760873e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.347920162472039</v>
+        <v>395.7327694564228</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5276891274242713</v>
+        <v>-6</v>
       </c>
       <c r="I27" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L27" t="n">
-        <v>30</v>
+        <v>8.585583847357149e-11</v>
       </c>
       <c r="M27" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>0.3231824766688066</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.402019971327085e-10</v>
+        <v>5.453320439003443e-11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.0157905</v>
+        <v>0.02033589130434783</v>
       </c>
       <c r="B28" t="n">
         <v>9.509912968554811e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001881</v>
+        <v>-0.003523108695652173</v>
       </c>
       <c r="D28" t="n">
         <v>1.265912377317758e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01590213983242507</v>
+        <v>0.008739533225569782</v>
       </c>
       <c r="F28" t="n">
-        <v>9.628727797865333e-06</v>
+        <v>9.759522195880905e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>2.844377426164232</v>
+        <v>228.8451738072783</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3388286589161154</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>11</v>
+        <v>9.913778290843506e-11</v>
       </c>
       <c r="M28" t="n">
-        <v>1.637206601057256e-10</v>
+        <v>0.4005581251729241</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.31535977962193e-10</v>
+        <v>7.731405711952948e-11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.024849</v>
+        <v>-0.02030360869565218</v>
       </c>
       <c r="B29" t="n">
         <v>7.940393019163179e-06</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001386</v>
+        <v>-0.004018108695652172</v>
       </c>
       <c r="D29" t="n">
         <v>1.829832014784787e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02488762336985997</v>
+        <v>0.008781621280884059</v>
       </c>
       <c r="F29" t="n">
-        <v>8.005715379646075e-06</v>
+        <v>8.727158817531015e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.083258760787502</v>
+        <v>227.7483776661634</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1161976998048806</v>
+        <v>-5</v>
       </c>
       <c r="I29" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>9.913778290843506e-11</v>
       </c>
       <c r="M29" t="n">
-        <v>2.428369823564771e-10</v>
+        <v>0.4012661705123368</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3.43423353894286e-10</v>
+        <v>7.744331319019193e-11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.008513999999999999</v>
+        <v>0.01305939130434782</v>
       </c>
       <c r="B30" t="n">
         <v>8.808533288462998e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.000396</v>
+        <v>-0.005008108695652173</v>
       </c>
       <c r="D30" t="n">
         <v>1.471507438461904e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008523204327012228</v>
+        <v>0.004405508680368507</v>
       </c>
       <c r="F30" t="n">
-        <v>8.835069840332391e-06</v>
+        <v>1.046107266714402e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>4.891977572870134</v>
+        <v>226.9885437874913</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2275338405986109</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>26</v>
+        <v>1.637206601057256e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>1.064910613800339e-10</v>
+        <v>0.3051404045325796</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.506011032751497e-10</v>
+        <v>9.837224516564784e-11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.017919</v>
+        <v>-0.01337360869565217</v>
       </c>
       <c r="B31" t="n">
         <v>2.296353723445004e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.899999999999999e-05</v>
+        <v>-0.005503108695652173</v>
       </c>
       <c r="D31" t="n">
         <v>2.841192340936383e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01791927347857607</v>
+        <v>0.004680713418792941</v>
       </c>
       <c r="F31" t="n">
-        <v>2.296404486876782e-05</v>
+        <v>2.576831091919052e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.614648240738614</v>
+        <v>213.6426460088384</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.01444557039082107</v>
+        <v>-3</v>
       </c>
       <c r="I31" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>29</v>
+        <v>1.637206601057256e-10</v>
       </c>
       <c r="M31" t="n">
-        <v>1.008325686301392e-10</v>
+        <v>0.3130241240992995</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.425987860856587e-10</v>
+        <v>1.008313672472501e-10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.0023265</v>
+        <v>0.006871891304347826</v>
       </c>
       <c r="B32" t="n">
         <v>8.475334519626869e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0021285</v>
+        <v>-0.007532608695652173</v>
       </c>
       <c r="D32" t="n">
         <v>1.254354125435837e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>0.003153270445109331</v>
+        <v>0.002449122117815342</v>
       </c>
       <c r="F32" t="n">
-        <v>1.426618690107742e-05</v>
+        <v>1.615181880987375e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>9.417045983634559</v>
+        <v>408.3095704888806</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.615595261623106</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>19</v>
+        <v>-3</v>
       </c>
       <c r="J32" t="n">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>654</v>
+        <v>1.24572743491715e-10</v>
       </c>
       <c r="M32" t="n">
-        <v>2.123298023220679e-11</v>
+        <v>0.235732960824126</v>
       </c>
       <c r="N32" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O32" t="n">
-        <v>3.002796861398668e-11</v>
+        <v>5.818935803603914e-11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.0124245</v>
+        <v>0.01696989130434783</v>
       </c>
       <c r="B33" t="n">
         <v>1.004295435210087e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.002475</v>
+        <v>-0.007879108695652172</v>
       </c>
       <c r="D33" t="n">
         <v>1.273591473168321e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01266861575903224</v>
+        <v>0.00738717883826813</v>
       </c>
       <c r="F33" t="n">
-        <v>1.035844413931762e-05</v>
+        <v>1.165451382616063e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>3.381045597355111</v>
+        <v>270.7393504052334</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.6735150592340857</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="J33" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>54</v>
+        <v>9.452416718394392e-11</v>
       </c>
       <c r="M33" t="n">
-        <v>7.38929405739592e-11</v>
+        <v>0.3760405560568043</v>
       </c>
       <c r="N33" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.045003987233223e-10</v>
+        <v>6.942621919776192e-11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.011583</v>
+        <v>-0.007037608695652174</v>
       </c>
       <c r="B34" t="n">
         <v>7.9621365066785e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0026235</v>
+        <v>-0.008027608695652173</v>
       </c>
       <c r="D34" t="n">
         <v>1.300915571884626e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0118763900765342</v>
+        <v>0.002670916115667436</v>
       </c>
       <c r="F34" t="n">
-        <v>8.489846652978787e-06</v>
+        <v>1.68403148515161e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.552574591023974</v>
+        <v>374.4033719868846</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.8046429629242333</v>
+        <v>-3</v>
       </c>
       <c r="I34" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="J34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>54</v>
+        <v>1.24572743491715e-10</v>
       </c>
       <c r="M34" t="n">
-        <v>7.38929405739592e-11</v>
+        <v>0.2451543307858638</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.045003987233223e-10</v>
+        <v>6.046911551502373e-11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.021483</v>
+        <v>-0.01693760869565217</v>
       </c>
       <c r="B35" t="n">
         <v>1.555466797197884e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.00297</v>
+        <v>-0.008374108695652173</v>
       </c>
       <c r="D35" t="n">
         <v>1.844184521852993e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02168732784369711</v>
+        <v>0.007513783541592923</v>
       </c>
       <c r="F35" t="n">
-        <v>1.576222663471716e-05</v>
+        <v>1.803002765037177e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.261004616481109</v>
+        <v>266.1774842100389</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.3125812833844852</v>
+        <v>-5</v>
       </c>
       <c r="I35" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="J35" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>30</v>
+        <v>9.452416718394392e-11</v>
       </c>
       <c r="M35" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>0.378493537388184</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.402019971327085e-10</v>
+        <v>6.985733911105953e-11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0153945</v>
+        <v>0.01993989130434783</v>
       </c>
       <c r="B36" t="n">
         <v>1.121253904003157e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0050985</v>
+        <v>-0.01050260869565217</v>
       </c>
       <c r="D36" t="n">
         <v>1.360019589592787e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01621682251552381</v>
+        <v>0.0101314462753316</v>
       </c>
       <c r="F36" t="n">
-        <v>1.208342419492371e-05</v>
+        <v>1.330546255985995e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>2.678002231321831</v>
+        <v>197.4051824041815</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.8869267840069087</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
         <v>5</v>
       </c>
-      <c r="J36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2</v>
-      </c>
       <c r="L36" t="n">
-        <v>30</v>
+        <v>1.108394108609388e-10</v>
       </c>
       <c r="M36" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>0.4224818849611415</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.402019971327085e-10</v>
+        <v>9.08939423587648e-11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.0241065</v>
+        <v>-0.01956110869565218</v>
       </c>
       <c r="B37" t="n">
         <v>1.351091047759749e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.005543999999999999</v>
+        <v>-0.01094810869565217</v>
       </c>
       <c r="D37" t="n">
         <v>1.270230662081351e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02473578942039247</v>
+        <v>0.01004160544003822</v>
       </c>
       <c r="F37" t="n">
-        <v>1.382311345220518e-05</v>
+        <v>1.526718941139821e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.041239604229577</v>
+        <v>199.1713388802884</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.4694431944018739</v>
+        <v>-4</v>
       </c>
       <c r="I37" t="n">
         <v>-2</v>
       </c>
       <c r="J37" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>6</v>
+        <v>1.108394108609388e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.4211533510402809</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O37" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>9.062524925166172e-11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.0100485</v>
+        <v>0.01459389130434783</v>
       </c>
       <c r="B38" t="n">
         <v>1.621583794796605e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.009602999999999999</v>
+        <v>-0.01500710869565217</v>
       </c>
       <c r="D38" t="n">
         <v>1.765399928054193e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01389927916296381</v>
+        <v>0.008951597102858387</v>
       </c>
       <c r="F38" t="n">
-        <v>2.340070083764527e-05</v>
+        <v>2.434163577469989e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>2.307087554816038</v>
+        <v>223.4238177856964</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.204802884898085</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
         <v>5</v>
       </c>
-      <c r="J38" t="n">
-        <v>-2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2</v>
-      </c>
       <c r="L38" t="n">
-        <v>33</v>
+        <v>1.157679889810965e-10</v>
       </c>
       <c r="M38" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>0.4040950595659556</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.336773592035553e-10</v>
+        <v>9.103690559392535e-11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.0187605</v>
+        <v>-0.01421510869565217</v>
       </c>
       <c r="B39" t="n">
         <v>1.451485944228754e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.009998999999999999</v>
+        <v>-0.01540310869565217</v>
       </c>
       <c r="D39" t="n">
         <v>2.593844939037874e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02125879491528153</v>
+        <v>0.008971107550787245</v>
       </c>
       <c r="F39" t="n">
-        <v>2.004502696892894e-05</v>
+        <v>3.163283986071837e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.041859417706513</v>
+        <v>222.9379135940125</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.0882733571945</v>
+        <v>-3</v>
       </c>
       <c r="I39" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J39" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>1.157679889810965e-10</v>
       </c>
       <c r="M39" t="n">
-        <v>2.216788217218776e-10</v>
+        <v>0.404416673640947</v>
       </c>
       <c r="N39" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O39" t="n">
-        <v>3.135011961699668e-10</v>
+        <v>9.110536857890018e-11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.004356</v>
+        <v>0.0001893913043478261</v>
       </c>
       <c r="B40" t="n">
         <v>7.98740048046368e-06</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.010197</v>
+        <v>-0.01560110869565217</v>
       </c>
       <c r="D40" t="n">
         <v>1.133918066477595e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01108844195547778</v>
+        <v>0.005365931120298272</v>
       </c>
       <c r="F40" t="n">
-        <v>2.771961080800471e-05</v>
+        <v>0.0009324294494202475</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.518734424935776</v>
+        <v>372.7218920933199</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.555219222008749</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="J40" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>62</v>
+        <v>8.585583847357149e-11</v>
       </c>
       <c r="M40" t="n">
-        <v>6.896106896110344e-11</v>
+        <v>0.3312482454229975</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O40" t="n">
-        <v>9.752567900053877e-11</v>
+        <v>5.584470152938531e-11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.002871</v>
+        <v>0.007416391304347826</v>
       </c>
       <c r="B41" t="n">
         <v>1.788225726196989e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0122265</v>
+        <v>-0.01763060869565217</v>
       </c>
       <c r="D41" t="n">
         <v>1.327552887063254e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01255905821508922</v>
+        <v>0.007673836433686097</v>
       </c>
       <c r="F41" t="n">
-        <v>5.929549848849714e-05</v>
+        <v>3.627335636461426e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7939038968915372</v>
+        <v>260.6258313274092</v>
       </c>
       <c r="H41" t="n">
-        <v>-3.380935560900167</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="J41" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>51</v>
+        <v>9.452416718394392e-11</v>
       </c>
       <c r="M41" t="n">
-        <v>7.603520856272093e-11</v>
+        <v>0.3815446438688148</v>
       </c>
       <c r="N41" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.075300231672668e-10</v>
+        <v>7.03929947080228e-11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.011583</v>
+        <v>-0.007037608695652174</v>
       </c>
       <c r="B42" t="n">
         <v>1.236700366994228e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0124245</v>
+        <v>-0.01782860869565217</v>
       </c>
       <c r="D42" t="n">
         <v>1.294700414734182e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01698629121527121</v>
+        <v>0.007701754893432354</v>
       </c>
       <c r="F42" t="n">
-        <v>1.859590650844351e-05</v>
+        <v>3.505307525243677e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.856269900462265</v>
+        <v>259.6810762837302</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.991127115453113</v>
+        <v>-2</v>
       </c>
       <c r="I42" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="J42" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>9</v>
+        <v>9.452416718394392e-11</v>
       </c>
       <c r="M42" t="n">
-        <v>1.81e-10</v>
+        <v>0.382071265689686</v>
       </c>
       <c r="N42" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2.559726547895302e-10</v>
+        <v>7.048538283700339e-11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.005543999999999999</v>
+        <v>0.01008939130434782</v>
       </c>
       <c r="B43" t="n">
         <v>1.08391184356385e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.0149985</v>
+        <v>-0.02040260869565217</v>
       </c>
       <c r="D43" t="n">
         <v>2.710911149198299e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01599033890353797</v>
+        <v>0.01029954221568621</v>
       </c>
       <c r="F43" t="n">
-        <v>7.413558866756864e-05</v>
+        <v>5.588071799774835e-05</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9888587824628717</v>
+        <v>194.1833877775653</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.675216170412948</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J43" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>27</v>
+        <v>1.108394108609388e-10</v>
       </c>
       <c r="M43" t="n">
-        <v>1.045003987233223e-10</v>
+        <v>0.424938213187893</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.477858811479184e-10</v>
+        <v>9.139030655330512e-11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.014058</v>
+        <v>-0.009512608695652174</v>
       </c>
       <c r="B44" t="n">
         <v>1.547440500406349e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0151965</v>
+        <v>-0.02060060869565217</v>
       </c>
       <c r="D44" t="n">
         <v>1.454933845617551e-05</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02070171433118523</v>
+        <v>0.0102468974082959</v>
       </c>
       <c r="F44" t="n">
-        <v>2.206388525763974e-05</v>
+        <v>3.510301031044127e-05</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.600275910318497</v>
+        <v>195.1810309314503</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.729875719956967</v>
+        <v>-2</v>
       </c>
       <c r="I44" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J44" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>22</v>
+        <v>1.108394108609388e-10</v>
       </c>
       <c r="M44" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>0.4241730113412396</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.637206601057256e-10</v>
+        <v>9.123573686206995e-11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.001386</v>
+        <v>0.003159391304347826</v>
       </c>
       <c r="B45" t="n">
         <v>8.45424214930225e-06</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.015543</v>
+        <v>-0.02094710869565217</v>
       </c>
       <c r="D45" t="n">
         <v>1.609055666256098e-05</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01560467381908382</v>
+        <v>0.009133539368251422</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0001806298700223448</v>
+        <v>0.0001070152190055772</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.2582247664532191</v>
+        <v>218.9731624688767</v>
       </c>
       <c r="H45" t="n">
-        <v>-2.8958063095111</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J45" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>14</v>
+        <v>9.913778290843506e-11</v>
       </c>
       <c r="M45" t="n">
-        <v>1.451228543584464e-10</v>
+        <v>0.4070699882446259</v>
       </c>
       <c r="N45" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2.052347088440104e-10</v>
+        <v>7.850135045194107e-11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-0.007128</v>
+        <v>-0.002582608695652174</v>
       </c>
       <c r="B46" t="n">
         <v>8.713146161150334e-06</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0155925</v>
+        <v>-0.02099660869565217</v>
       </c>
       <c r="D46" t="n">
         <v>1.093867086516064e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01714451633176043</v>
+        <v>0.009112324613352239</v>
       </c>
       <c r="F46" t="n">
-        <v>2.54653286740019e-05</v>
+        <v>8.935641297029543e-05</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.123823070575811</v>
+        <v>219.4829623463382</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.458362966884586</v>
+        <v>-1</v>
       </c>
       <c r="I46" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J46" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>27</v>
+        <v>9.913778290843506e-11</v>
       </c>
       <c r="M46" t="n">
-        <v>1.045003987233223e-10</v>
+        <v>0.4067258810886694</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.477858811479184e-10</v>
+        <v>7.843869303150145e-11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.004157999999999999</v>
+        <v>0.0003873913043478264</v>
       </c>
       <c r="B47" t="n">
         <v>1.281421517415897e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.021582</v>
+        <v>-0.02698610869565217</v>
       </c>
       <c r="D47" t="n">
         <v>1.317179877693416e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02197889187379564</v>
+        <v>0.01359166763583252</v>
       </c>
       <c r="F47" t="n">
-        <v>6.955807928081306e-05</v>
+        <v>0.0009171216292716732</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.4279308934605293</v>
+        <v>147.1489778581167</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.221165113676081</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J47" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>9</v>
+        <v>1.214184911782386e-10</v>
       </c>
       <c r="M47" t="n">
-        <v>1.81e-10</v>
+        <v>0.4665253244832986</v>
       </c>
       <c r="N47" t="n">
-        <v>0.7853981633974483</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2.559726547895302e-10</v>
+        <v>1.092245892687438e-10</v>
       </c>
     </row>
   </sheetData>

--- a/laue_data.xlsx
+++ b/laue_data.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="LiF" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="NaCl" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Si" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="a0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,7 +421,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1392,7 +1392,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2711,6 +2711,2121 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>xQ</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>xQ_err</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yQ</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>yQ_err</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>zQ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>zQ_err</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>fct</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>d_hkl</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>wavelength</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.0001076086956521742</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.770897000786927e-05</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02607789130434782</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.170639963821361e-05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0128643879375953</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00282034448421955</v>
+      </c>
+      <c r="G2" t="n">
+        <v>155.4679483938086</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.214184911782386e-10</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4582749423588158</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.074314950240037e-10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.002812891304347826</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.625081270103621e-06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01979139130434783</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.197784120457276e-05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.008277403120723274</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.471505793993755e-05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>241.6216741930579</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.913778290843506e-11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3925776249818836</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.585452474750323e-11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.003077608695652174</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.086764828870365e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01974189130434783</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.389707861793058e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.008270372257121735</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.980446093537419e-05</v>
+      </c>
+      <c r="G4" t="n">
+        <v>241.827083209921</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9.913778290843506e-11</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3924531986742553</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.583173026226983e-11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.009940891304347825</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.114820131028215e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01934589130434783</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.466495364855975e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.009548008905584469</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.063943504773628e-05</v>
+      </c>
+      <c r="G5" t="n">
+        <v>209.4677560292423</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.108394108609388e-10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4136507838629954</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.910488286990158e-11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.01020560869565217</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.328701229555156e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01914789130434782</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.470523607654389e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00950925600979954</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.062285187296164e-05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>210.3213961154213</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.108394108609388e-10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4130466713808814</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.89822424682499e-11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.01731639130434783</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0001149237661852445</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01627689130434783</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001269061719094099</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01106114290136225</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001195197961533601</v>
+      </c>
+      <c r="G7" t="n">
+        <v>180.8131418095762</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.157679889810965e-10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4356114873942182</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.770004702240844e-11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.007267891304347825</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.007826598840397e-05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01642539130434783</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.74341431418262e-05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.006881512671588253</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.066946614544574e-05</v>
+      </c>
+      <c r="G8" t="n">
+        <v>290.6337742074375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9.452416718394392e-11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3658753665935956</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.763522866274488e-11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.007532608695652173</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.354379215077458e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01632639130434783</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.774502071170995e-05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.006894074566426323</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.077595604240954e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>290.104201909835</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.452416718394392e-11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3661353407048782</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.768112101116045e-11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-0.01728410869565217</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.511599478799292e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01617789130434782</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.69074057793631e-05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01099136299775168</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.188453565644252e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>181.9610543668794</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.157679889810965e-10</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4346633061389997</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.750096724044602e-11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.0001571086956521743</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.998684874892541e-05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01424739130434783</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.860029962537658e-05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.004556319800032241</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001675186041941251</v>
+      </c>
+      <c r="G11" t="n">
+        <v>438.9507514344905</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.585583847357149e-11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3095041321107141</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.230103590791631e-11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.01454439130434782</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.030957666084935e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01395039130434783</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.992485597579501e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00839282895307215</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.171453913191606e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>238.2986727339309</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.157679889810965e-10</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3946071555100394</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.901297986779552e-11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.01480910869565217</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.677869259096421e-05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01370289130434783</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.081605070447123e-05</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.008409134630579861</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.308437614101625e-05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>237.8366012510954</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.008325686301392e-10</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3948918725645431</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.758226932821679e-11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.01993989130434783</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.203274009980124e-05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.009247891304347826</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.775394275357259e-05</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.009717381425795882</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.458035095670347e-05</v>
+      </c>
+      <c r="G14" t="n">
+        <v>205.8167640400299</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.108394108609388e-10</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4162648839365153</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.963519389806742e-11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.02000660869565217</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.368990559192603e-05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.008901391304347826</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.6550983582267e-05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.009656351067757207</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.554478877381541e-05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>207.1175732910177</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.108394108609388e-10</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.4153278179605042</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.944516567113337e-11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.01701939130434783</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.556964105219311e-05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.006624391304347827</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.095703638922583e-05</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.007083984945418013</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.757698266999111e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>282.3269692708224</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>9.452416718394392e-11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3700183796666876</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.836603459005128e-11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.01728410869565217</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.255945707985877e-05</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.006376891304347827</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.968967139292496e-05</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.007192005371259143</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.450901020436421e-05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>278.0865553844615</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9.452416718394392e-11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3721883798364725</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.874834383074345e-11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.007285108695652173</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8.455840642880178e-06</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.006327391304347826</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.158128287512173e-05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002206050739062167</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.314077119914189e-05</v>
+      </c>
+      <c r="G18" t="n">
+        <v>453.2987307559021</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.24572743491715e-10</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.2247604142831846</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.552775453012985e-11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.006871891304347826</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8.629958301381037e-06</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.006178891304347827</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.144019289901041e-05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.002031831241404252</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.342712770628356e-05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>492.1668589507826</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.24572743491715e-10</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.2164208387058885</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.350034044784323e-11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.01352210869565217</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.569478782202061e-05</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003555391304347826</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.606912111849644e-05</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.004402627540985506</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.625353213198871e-05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>227.1370881798816</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.637206601057256e-10</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.305055980973813</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.834587806320177e-11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.01305939130434782</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.316716942986391e-05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003604891304347827</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.217907700882687e-05</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.004156633510409478</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.452088055820214e-05</v>
+      </c>
+      <c r="G21" t="n">
+        <v>240.5793047416124</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.637206601057256e-10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2976949134773788</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.604420075510519e-11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.02038539130434783</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.131017800020549e-05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.002268391304347827</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.7400631659683e-05</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.00864803270280563</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.147471732839527e-05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>231.2664705061941</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9.913778290843506e-11</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3990082474877866</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.703098651708029e-11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.02045210869565217</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.230936209555615e-06</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.001822891304347827</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.525997712866127e-05</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.008663769514951066</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.342553140713879e-06</v>
+      </c>
+      <c r="G23" t="n">
+        <v>230.846399658786</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.008325686301392e-10</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3992758430282098</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.839757369133889e-11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.02672139130434782</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.124936072695727e-05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.0006026086956521732</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.343771270394549e-05</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01338256866210494</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.126176679485355e-05</v>
+      </c>
+      <c r="G24" t="n">
+        <v>149.4481403755727</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.214184911782386e-10</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4642004603956314</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.087200627203342e-10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.01474239130434783</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.991466706546206e-06</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0007016086956521724</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.475963770969718e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.004856193516552872</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.022274165067397e-06</v>
+      </c>
+      <c r="G25" t="n">
+        <v>411.8452020461663</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.585583847357149e-11</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3178734468528737</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.366801264615383e-11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.02629310869565217</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.69030278069166e-05</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.001097608695652173</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.577315750276318e-05</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01305347651503773</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.693722649270835e-05</v>
+      </c>
+      <c r="G26" t="n">
+        <v>153.2158883264532</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.214184911782386e-10</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4604649445660205</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.079081764283931e-10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.01505660869565217</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.045571421113961e-05</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0009986086956521728</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.414892638956811e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.005053915557074521</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.049773650760873e-05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>395.7327694564228</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>8.585583847357149e-11</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3231824766688066</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.453320439003443e-11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.02033589130434783</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9.509912968554811e-06</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.003523108695652173</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.265912377317758e-05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.008739533225569782</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.759522195880905e-06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>228.8451738072783</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>9.913778290843506e-11</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4005581251729241</v>
+      </c>
+      <c r="N28" t="n">
+        <v>7.731405711952948e-11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.02030360869565218</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.940393019163179e-06</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.004018108695652172</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.829832014784787e-05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.008781621280884059</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.727158817531015e-06</v>
+      </c>
+      <c r="G29" t="n">
+        <v>227.7483776661634</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>9.913778290843506e-11</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4012661705123368</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.744331319019193e-11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.01305939130434782</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8.808533288462998e-06</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.005008108695652173</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.471507438461904e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.004405508680368507</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.046107266714402e-05</v>
+      </c>
+      <c r="G30" t="n">
+        <v>226.9885437874913</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.637206601057256e-10</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.3051404045325796</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9.837224516564784e-11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.01337360869565217</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.296353723445004e-05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.005503108695652173</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.841192340936383e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.004680713418792941</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.576831091919052e-05</v>
+      </c>
+      <c r="G31" t="n">
+        <v>213.6426460088384</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.637206601057256e-10</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.3130241240992995</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.008313672472501e-10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.006871891304347826</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8.475334519626869e-06</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.007532608695652173</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.254354125435837e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.002449122117815342</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.615181880987375e-05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>408.3095704888806</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.24572743491715e-10</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.235732960824126</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.818935803603914e-11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.01696989130434783</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.004295435210087e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.007879108695652172</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.273591473168321e-05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.00738717883826813</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.165451382616063e-05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>270.7393504052334</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9.452416718394392e-11</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.3760405560568043</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.942621919776192e-11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.007037608695652174</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7.9621365066785e-06</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.008027608695652173</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.300915571884626e-05</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.002670916115667436</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.68403148515161e-05</v>
+      </c>
+      <c r="G34" t="n">
+        <v>374.4033719868846</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.24572743491715e-10</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.2451543307858638</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.046911551502373e-11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.01693760869565217</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.555466797197884e-05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.008374108695652173</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.844184521852993e-05</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.007513783541592923</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.803002765037177e-05</v>
+      </c>
+      <c r="G35" t="n">
+        <v>266.1774842100389</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>9.452416718394392e-11</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.378493537388184</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.985733911105953e-11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.01993989130434783</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.121253904003157e-05</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.01050260869565217</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.360019589592787e-05</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0101314462753316</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.330546255985995e-05</v>
+      </c>
+      <c r="G36" t="n">
+        <v>197.4051824041815</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.108394108609388e-10</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.4224818849611415</v>
+      </c>
+      <c r="N36" t="n">
+        <v>9.08939423587648e-11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.01956110869565218</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.351091047759749e-05</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.01094810869565217</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.270230662081351e-05</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01004160544003822</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.526718941139821e-05</v>
+      </c>
+      <c r="G37" t="n">
+        <v>199.1713388802884</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.108394108609388e-10</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4211533510402809</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9.062524925166172e-11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.01459389130434783</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.621583794796605e-05</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.01500710869565217</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.765399928054193e-05</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.008951597102858387</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.434163577469989e-05</v>
+      </c>
+      <c r="G38" t="n">
+        <v>223.4238177856964</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.157679889810965e-10</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4040950595659556</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9.103690559392535e-11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.01421510869565217</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.451485944228754e-05</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.01540310869565217</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.593844939037874e-05</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.008971107550787245</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.163283986071837e-05</v>
+      </c>
+      <c r="G39" t="n">
+        <v>222.9379135940125</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.157679889810965e-10</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.404416673640947</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9.110536857890018e-11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.0001893913043478261</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7.98740048046368e-06</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.01560110869565217</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.133918066477595e-05</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.005365931120298272</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0009324294494202475</v>
+      </c>
+      <c r="G40" t="n">
+        <v>372.7218920933199</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.585583847357149e-11</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.3312482454229975</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.584470152938531e-11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.007416391304347826</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.788225726196989e-05</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.01763060869565217</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.327552887063254e-05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.007673836433686097</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.627335636461426e-05</v>
+      </c>
+      <c r="G41" t="n">
+        <v>260.6258313274092</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>9.452416718394392e-11</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.3815446438688148</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.03929947080228e-11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.007037608695652174</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.236700366994228e-05</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.01782860869565217</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.294700414734182e-05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.007701754893432354</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.505307525243677e-05</v>
+      </c>
+      <c r="G42" t="n">
+        <v>259.6810762837302</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>9.452416718394392e-11</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.382071265689686</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.048538283700339e-11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.01008939130434782</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.08391184356385e-05</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.02040260869565217</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.710911149198299e-05</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01029954221568621</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5.588071799774835e-05</v>
+      </c>
+      <c r="G43" t="n">
+        <v>194.1833877775653</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.108394108609388e-10</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.424938213187893</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9.139030655330512e-11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.009512608695652174</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.547440500406349e-05</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.02060060869565217</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.454933845617551e-05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0102468974082959</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3.510301031044127e-05</v>
+      </c>
+      <c r="G44" t="n">
+        <v>195.1810309314503</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.108394108609388e-10</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4241730113412396</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.123573686206995e-11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.003159391304347826</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.45424214930225e-06</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.02094710869565217</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.609055666256098e-05</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.009133539368251422</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0001070152190055772</v>
+      </c>
+      <c r="G45" t="n">
+        <v>218.9731624688767</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>9.913778290843506e-11</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.4070699882446259</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.850135045194107e-11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-0.002582608695652174</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8.713146161150334e-06</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.02099660869565217</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.093867086516064e-05</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.009112324613352239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8.935641297029543e-05</v>
+      </c>
+      <c r="G46" t="n">
+        <v>219.4829623463382</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>9.913778290843506e-11</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.4067258810886694</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7.843869303150145e-11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.0003873913043478264</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.281421517415897e-05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.02698610869565217</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.317179877693416e-05</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.01359166763583252</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0009171216292716732</v>
+      </c>
+      <c r="G47" t="n">
+        <v>147.1489778581167</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.214184911782386e-10</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.4665253244832986</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.092245892687438e-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -2720,2097 +4835,29 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>xQ</t>
+          <t>LiF</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>xQ_err</t>
+          <t>NaCl</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>yQ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>yQ_err</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>zQ</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>zQ_err</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>fct</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>d_hkl</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>wavelength</t>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0001076086956521742</v>
+        <v>382.1618714279803</v>
       </c>
       <c r="B2" t="n">
-        <v>1.770897000786927e-05</v>
+        <v>559.7043659641877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02607789130434782</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.170639963821361e-05</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0128643879375953</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.00282034448421955</v>
-      </c>
-      <c r="G2" t="n">
-        <v>155.4679483938086</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.214184911782386e-10</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.4582749423588158</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.074314950240037e-10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.002812891304347826</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.625081270103621e-06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01979139130434783</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.197784120457276e-05</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.008277403120723274</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8.471505793993755e-05</v>
-      </c>
-      <c r="G3" t="n">
-        <v>241.6216741930579</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9.913778290843506e-11</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.3925776249818836</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.585452474750323e-11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-0.003077608695652174</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.086764828870365e-05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01974189130434783</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.389707861793058e-05</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.008270372257121735</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.980446093537419e-05</v>
-      </c>
-      <c r="G4" t="n">
-        <v>241.827083209921</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.913778290843506e-11</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3924531986742553</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7.583173026226983e-11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.009940891304347825</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.114820131028215e-05</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01934589130434783</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.466495364855975e-05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.009548008905584469</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.063943504773628e-05</v>
-      </c>
-      <c r="G5" t="n">
-        <v>209.4677560292423</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.108394108609388e-10</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.4136507838629954</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.910488286990158e-11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-0.01020560869565217</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.328701229555156e-05</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01914789130434782</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.470523607654389e-05</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.00950925600979954</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.062285187296164e-05</v>
-      </c>
-      <c r="G6" t="n">
-        <v>210.3213961154213</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.108394108609388e-10</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.4130466713808814</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.89822424682499e-11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.01731639130434783</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0001149237661852445</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01627689130434783</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.001269061719094099</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01106114290136225</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001195197961533601</v>
-      </c>
-      <c r="G7" t="n">
-        <v>180.8131418095762</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.157679889810965e-10</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.4356114873942182</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.770004702240844e-11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.007267891304347825</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.007826598840397e-05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01642539130434783</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.74341431418262e-05</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.006881512671588253</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.066946614544574e-05</v>
-      </c>
-      <c r="G8" t="n">
-        <v>290.6337742074375</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9.452416718394392e-11</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.3658753665935956</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.763522866274488e-11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-0.007532608695652173</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.354379215077458e-05</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01632639130434783</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.774502071170995e-05</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.006894074566426323</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.077595604240954e-05</v>
-      </c>
-      <c r="G9" t="n">
-        <v>290.104201909835</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9.452416718394392e-11</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.3661353407048782</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.768112101116045e-11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.01728410869565217</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.511599478799292e-05</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01617789130434782</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.69074057793631e-05</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.01099136299775168</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.188453565644252e-05</v>
-      </c>
-      <c r="G10" t="n">
-        <v>181.9610543668794</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.157679889810965e-10</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.4346633061389997</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.750096724044602e-11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-0.0001571086956521743</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.998684874892541e-05</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01424739130434783</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.860029962537658e-05</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.004556319800032241</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001675186041941251</v>
-      </c>
-      <c r="G11" t="n">
-        <v>438.9507514344905</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8.585583847357149e-11</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.3095041321107141</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.230103590791631e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.01454439130434782</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.030957666084935e-05</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01395039130434783</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.992485597579501e-05</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.00839282895307215</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.171453913191606e-05</v>
-      </c>
-      <c r="G12" t="n">
-        <v>238.2986727339309</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.157679889810965e-10</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.3946071555100394</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8.901297986779552e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-0.01480910869565217</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.677869259096421e-05</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01370289130434783</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.081605070447123e-05</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.008409134630579861</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.308437614101625e-05</v>
-      </c>
-      <c r="G13" t="n">
-        <v>237.8366012510954</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.008325686301392e-10</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.3948918725645431</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.758226932821679e-11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.01993989130434783</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.203274009980124e-05</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.009247891304347826</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.775394275357259e-05</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.009717381425795882</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.458035095670347e-05</v>
-      </c>
-      <c r="G14" t="n">
-        <v>205.8167640400299</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.108394108609388e-10</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.4162648839365153</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.963519389806742e-11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>-0.02000660869565217</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.368990559192603e-05</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.008901391304347826</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.6550983582267e-05</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.009656351067757207</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.554478877381541e-05</v>
-      </c>
-      <c r="G15" t="n">
-        <v>207.1175732910177</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.108394108609388e-10</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.4153278179605042</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8.944516567113337e-11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.01701939130434783</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.556964105219311e-05</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.006624391304347827</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.095703638922583e-05</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.007083984945418013</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.757698266999111e-05</v>
-      </c>
-      <c r="G16" t="n">
-        <v>282.3269692708224</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>9.452416718394392e-11</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.3700183796666876</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.836603459005128e-11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>-0.01728410869565217</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1.255945707985877e-05</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.006376891304347827</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.968967139292496e-05</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.007192005371259143</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.450901020436421e-05</v>
-      </c>
-      <c r="G17" t="n">
-        <v>278.0865553844615</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>9.452416718394392e-11</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.3721883798364725</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.874834383074345e-11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>-0.007285108695652173</v>
-      </c>
-      <c r="B18" t="n">
-        <v>8.455840642880178e-06</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.006327391304347826</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.158128287512173e-05</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.002206050739062167</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.314077119914189e-05</v>
-      </c>
-      <c r="G18" t="n">
-        <v>453.2987307559021</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.24572743491715e-10</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.2247604142831846</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.552775453012985e-11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.006871891304347826</v>
-      </c>
-      <c r="B19" t="n">
-        <v>8.629958301381037e-06</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.006178891304347827</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.144019289901041e-05</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.002031831241404252</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.342712770628356e-05</v>
-      </c>
-      <c r="G19" t="n">
-        <v>492.1668589507826</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.24572743491715e-10</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.2164208387058885</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.350034044784323e-11</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>-0.01352210869565217</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.569478782202061e-05</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.003555391304347826</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.606912111849644e-05</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.004402627540985506</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.625353213198871e-05</v>
-      </c>
-      <c r="G20" t="n">
-        <v>227.1370881798816</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.637206601057256e-10</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.305055980973813</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.834587806320177e-11</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.01305939130434782</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.316716942986391e-05</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.003604891304347827</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.217907700882687e-05</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.004156633510409478</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.452088055820214e-05</v>
-      </c>
-      <c r="G21" t="n">
-        <v>240.5793047416124</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.637206601057256e-10</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.2976949134773788</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9.604420075510519e-11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.02038539130434783</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.131017800020549e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.002268391304347827</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.7400631659683e-05</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.00864803270280563</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.147471732839527e-05</v>
-      </c>
-      <c r="G22" t="n">
-        <v>231.2664705061941</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>9.913778290843506e-11</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.3990082474877866</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7.703098651708029e-11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>-0.02045210869565217</v>
-      </c>
-      <c r="B23" t="n">
-        <v>8.230936209555615e-06</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.001822891304347827</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.525997712866127e-05</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.008663769514951066</v>
-      </c>
-      <c r="F23" t="n">
-        <v>8.342553140713879e-06</v>
-      </c>
-      <c r="G23" t="n">
-        <v>230.846399658786</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.008325686301392e-10</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.3992758430282098</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7.839757369133889e-11</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.02672139130434782</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1.124936072695727e-05</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.0006026086956521732</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.343771270394549e-05</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01338256866210494</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.126176679485355e-05</v>
-      </c>
-      <c r="G24" t="n">
-        <v>149.4481403755727</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.214184911782386e-10</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.4642004603956314</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.087200627203342e-10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>0.01474239130434783</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7.991466706546206e-06</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-0.0007016086956521724</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.475963770969718e-05</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.004856193516552872</v>
-      </c>
-      <c r="F25" t="n">
-        <v>8.022274165067397e-06</v>
-      </c>
-      <c r="G25" t="n">
-        <v>411.8452020461663</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6</v>
-      </c>
-      <c r="L25" t="n">
-        <v>8.585583847357149e-11</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.3178734468528737</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.366801264615383e-11</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>-0.02629310869565217</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1.69030278069166e-05</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-0.001097608695652173</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.577315750276318e-05</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.01305347651503773</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.693722649270835e-05</v>
-      </c>
-      <c r="G26" t="n">
-        <v>153.2158883264532</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.214184911782386e-10</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.4604649445660205</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.079081764283931e-10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>-0.01505660869565217</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1.045571421113961e-05</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.0009986086956521728</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.414892638956811e-05</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.005053915557074521</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.049773650760873e-05</v>
-      </c>
-      <c r="G27" t="n">
-        <v>395.7327694564228</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>8.585583847357149e-11</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.3231824766688066</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.453320439003443e-11</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>0.02033589130434783</v>
-      </c>
-      <c r="B28" t="n">
-        <v>9.509912968554811e-06</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-0.003523108695652173</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.265912377317758e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.008739533225569782</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9.759522195880905e-06</v>
-      </c>
-      <c r="G28" t="n">
-        <v>228.8451738072783</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>9.913778290843506e-11</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.4005581251729241</v>
-      </c>
-      <c r="N28" t="n">
-        <v>7.731405711952948e-11</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>-0.02030360869565218</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7.940393019163179e-06</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-0.004018108695652172</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.829832014784787e-05</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.008781621280884059</v>
-      </c>
-      <c r="F29" t="n">
-        <v>8.727158817531015e-06</v>
-      </c>
-      <c r="G29" t="n">
-        <v>227.7483776661634</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>9.913778290843506e-11</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.4012661705123368</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.744331319019193e-11</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>0.01305939130434782</v>
-      </c>
-      <c r="B30" t="n">
-        <v>8.808533288462998e-06</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.005008108695652173</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.471507438461904e-05</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.004405508680368507</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.046107266714402e-05</v>
-      </c>
-      <c r="G30" t="n">
-        <v>226.9885437874913</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.637206601057256e-10</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.3051404045325796</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9.837224516564784e-11</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>-0.01337360869565217</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2.296353723445004e-05</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-0.005503108695652173</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2.841192340936383e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.004680713418792941</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2.576831091919052e-05</v>
-      </c>
-      <c r="G31" t="n">
-        <v>213.6426460088384</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.637206601057256e-10</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.3130241240992995</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.008313672472501e-10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.006871891304347826</v>
-      </c>
-      <c r="B32" t="n">
-        <v>8.475334519626869e-06</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.007532608695652173</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.254354125435837e-05</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.002449122117815342</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.615181880987375e-05</v>
-      </c>
-      <c r="G32" t="n">
-        <v>408.3095704888806</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.24572743491715e-10</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.235732960824126</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.818935803603914e-11</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.01696989130434783</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1.004295435210087e-05</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-0.007879108695652172</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.273591473168321e-05</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.00738717883826813</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.165451382616063e-05</v>
-      </c>
-      <c r="G33" t="n">
-        <v>270.7393504052334</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6</v>
-      </c>
-      <c r="L33" t="n">
-        <v>9.452416718394392e-11</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.3760405560568043</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6.942621919776192e-11</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>-0.007037608695652174</v>
-      </c>
-      <c r="B34" t="n">
-        <v>7.9621365066785e-06</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.008027608695652173</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.300915571884626e-05</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.002670916115667436</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.68403148515161e-05</v>
-      </c>
-      <c r="G34" t="n">
-        <v>374.4033719868846</v>
-      </c>
-      <c r="H34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.24572743491715e-10</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.2451543307858638</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6.046911551502373e-11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>-0.01693760869565217</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1.555466797197884e-05</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-0.008374108695652173</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1.844184521852993e-05</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.007513783541592923</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.803002765037177e-05</v>
-      </c>
-      <c r="G35" t="n">
-        <v>266.1774842100389</v>
-      </c>
-      <c r="H35" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>6</v>
-      </c>
-      <c r="L35" t="n">
-        <v>9.452416718394392e-11</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.378493537388184</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.985733911105953e-11</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>0.01993989130434783</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1.121253904003157e-05</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-0.01050260869565217</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.360019589592787e-05</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.0101314462753316</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.330546255985995e-05</v>
-      </c>
-      <c r="G36" t="n">
-        <v>197.4051824041815</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.108394108609388e-10</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.4224818849611415</v>
-      </c>
-      <c r="N36" t="n">
-        <v>9.08939423587648e-11</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>-0.01956110869565218</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1.351091047759749e-05</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-0.01094810869565217</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.270230662081351e-05</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.01004160544003822</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.526718941139821e-05</v>
-      </c>
-      <c r="G37" t="n">
-        <v>199.1713388802884</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-4</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.108394108609388e-10</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.4211533510402809</v>
-      </c>
-      <c r="N37" t="n">
-        <v>9.062524925166172e-11</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>0.01459389130434783</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.621583794796605e-05</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-0.01500710869565217</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1.765399928054193e-05</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.008951597102858387</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2.434163577469989e-05</v>
-      </c>
-      <c r="G38" t="n">
-        <v>223.4238177856964</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.157679889810965e-10</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.4040950595659556</v>
-      </c>
-      <c r="N38" t="n">
-        <v>9.103690559392535e-11</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>-0.01421510869565217</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.451485944228754e-05</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-0.01540310869565217</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.593844939037874e-05</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.008971107550787245</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3.163283986071837e-05</v>
-      </c>
-      <c r="G39" t="n">
-        <v>222.9379135940125</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.157679889810965e-10</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.404416673640947</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9.110536857890018e-11</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.0001893913043478261</v>
-      </c>
-      <c r="B40" t="n">
-        <v>7.98740048046368e-06</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-0.01560110869565217</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.133918066477595e-05</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.005365931120298272</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0009324294494202475</v>
-      </c>
-      <c r="G40" t="n">
-        <v>372.7218920933199</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" t="n">
-        <v>8.585583847357149e-11</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.3312482454229975</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.584470152938531e-11</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>0.007416391304347826</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.788225726196989e-05</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.01763060869565217</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.327552887063254e-05</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.007673836433686097</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3.627335636461426e-05</v>
-      </c>
-      <c r="G41" t="n">
-        <v>260.6258313274092</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6</v>
-      </c>
-      <c r="L41" t="n">
-        <v>9.452416718394392e-11</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.3815446438688148</v>
-      </c>
-      <c r="N41" t="n">
-        <v>7.03929947080228e-11</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>-0.007037608695652174</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1.236700366994228e-05</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-0.01782860869565217</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.294700414734182e-05</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.007701754893432354</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.505307525243677e-05</v>
-      </c>
-      <c r="G42" t="n">
-        <v>259.6810762837302</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>9.452416718394392e-11</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.382071265689686</v>
-      </c>
-      <c r="N42" t="n">
-        <v>7.048538283700339e-11</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>0.01008939130434782</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1.08391184356385e-05</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-0.02040260869565217</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2.710911149198299e-05</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.01029954221568621</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5.588071799774835e-05</v>
-      </c>
-      <c r="G43" t="n">
-        <v>194.1833877775653</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.108394108609388e-10</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.424938213187893</v>
-      </c>
-      <c r="N43" t="n">
-        <v>9.139030655330512e-11</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>-0.009512608695652174</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.547440500406349e-05</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-0.02060060869565217</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.454933845617551e-05</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.0102468974082959</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3.510301031044127e-05</v>
-      </c>
-      <c r="G44" t="n">
-        <v>195.1810309314503</v>
-      </c>
-      <c r="H44" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.108394108609388e-10</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.4241730113412396</v>
-      </c>
-      <c r="N44" t="n">
-        <v>9.123573686206995e-11</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>0.003159391304347826</v>
-      </c>
-      <c r="B45" t="n">
-        <v>8.45424214930225e-06</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-0.02094710869565217</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.609055666256098e-05</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.009133539368251422</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.0001070152190055772</v>
-      </c>
-      <c r="G45" t="n">
-        <v>218.9731624688767</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9.913778290843506e-11</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.4070699882446259</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7.850135045194107e-11</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>-0.002582608695652174</v>
-      </c>
-      <c r="B46" t="n">
-        <v>8.713146161150334e-06</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-0.02099660869565217</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.093867086516064e-05</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.009112324613352239</v>
-      </c>
-      <c r="F46" t="n">
-        <v>8.935641297029543e-05</v>
-      </c>
-      <c r="G46" t="n">
-        <v>219.4829623463382</v>
-      </c>
-      <c r="H46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>9.913778290843506e-11</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.4067258810886694</v>
-      </c>
-      <c r="N46" t="n">
-        <v>7.843869303150145e-11</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>0.0003873913043478264</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.281421517415897e-05</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-0.02698610869565217</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.317179877693416e-05</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.01359166763583252</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0009171216292716732</v>
-      </c>
-      <c r="G47" t="n">
-        <v>147.1489778581167</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.214184911782386e-10</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.4665253244832986</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.092245892687438e-10</v>
+        <v>505.1580179044858</v>
       </c>
     </row>
   </sheetData>

--- a/laue_data.xlsx
+++ b/laue_data.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,10 +486,15 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>d_hkl_err</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -533,9 +538,12 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M2" t="n">
+        <v>2.487096603048198e-10</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.4530849511103442</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>7.889283499073531e-11</v>
       </c>
     </row>
@@ -577,9 +585,12 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M3" t="n">
+        <v>7.904953439378122e-09</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.4096042133834594</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>6.55211006541786e-11</v>
       </c>
     </row>
@@ -621,9 +632,12 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M4" t="n">
+        <v>1.314996498792709e-08</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.4107167708893523</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>6.568896100243891e-11</v>
       </c>
     </row>
@@ -665,9 +679,12 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M5" t="n">
+        <v>1.176824383149351e-08</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.2960284135450137</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>7.089414828553438e-11</v>
       </c>
     </row>
@@ -709,9 +726,12 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M6" t="n">
+        <v>8.190227829307806e-09</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.2947835866809012</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>7.060473654545982e-11</v>
       </c>
     </row>
@@ -753,9 +773,12 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M7" t="n">
+        <v>2.285039032151496e-08</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.4115461827992051</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>6.581404804481176e-11</v>
       </c>
     </row>
@@ -797,9 +820,12 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M8" t="n">
+        <v>2.553765880021463e-08</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.4094374863320299</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>6.549593823295028e-11</v>
       </c>
     </row>
@@ -841,9 +867,12 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M9" t="n">
+        <v>2.668998254214873e-08</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.2945366406039327</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>7.054731064749305e-11</v>
       </c>
     </row>
@@ -885,9 +914,12 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M10" t="n">
+        <v>2.758079461611561e-08</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.2990603778892723</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>7.159859386451889e-11</v>
       </c>
     </row>
@@ -929,9 +961,12 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M11" t="n">
+        <v>2.236323070344631e-08</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.4538666258822426</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>7.901947528615468e-11</v>
       </c>
     </row>
@@ -973,9 +1008,12 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M12" t="n">
+        <v>5.905223006423473e-09</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.4573457765441637</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>7.958255089944541e-11</v>
       </c>
     </row>
@@ -1017,9 +1055,12 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M13" t="n">
+        <v>2.802945808457085e-08</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.2963425851905583</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>7.096717319757069e-11</v>
       </c>
     </row>
@@ -1061,9 +1102,12 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M14" t="n">
+        <v>2.27162530860894e-08</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.3005718592692377</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>7.194952550004218e-11</v>
       </c>
     </row>
@@ -1105,9 +1149,12 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M15" t="n">
+        <v>3.306465830160561e-09</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.4108096218007261</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>6.570296648044749e-11</v>
       </c>
     </row>
@@ -1149,9 +1196,12 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M16" t="n">
+        <v>1.561838758857293e-08</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.4124347714283181</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>6.594800953510958e-11</v>
       </c>
     </row>
@@ -1193,9 +1243,12 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M17" t="n">
+        <v>1.346504915232372e-08</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.2996406080594229</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>7.17333295147143e-11</v>
       </c>
     </row>
@@ -1237,9 +1290,12 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M18" t="n">
+        <v>1.26955453346747e-08</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.3013963787614994</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>7.21408909540268e-11</v>
       </c>
     </row>
@@ -1281,9 +1337,12 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M19" t="n">
+        <v>1.537415029769565e-08</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.4132640845943523</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>6.607298782354184e-11</v>
       </c>
     </row>
@@ -1325,9 +1384,12 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M20" t="n">
+        <v>1.758431320325539e-08</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.4133641045115671</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>6.608805785176487e-11</v>
       </c>
     </row>
@@ -1369,9 +1431,12 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M21" t="n">
+        <v>5.495782856878969e-10</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.4562228872128556</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>7.940092425676108e-11</v>
       </c>
     </row>
@@ -1386,7 +1451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1457,10 +1522,15 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>d_hkl_err</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -1504,9 +1574,12 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M2" t="n">
+        <v>6.761770452447863e-08</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.404942442987216</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>9.071144106278336e-11</v>
       </c>
     </row>
@@ -1548,9 +1621,12 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M3" t="n">
+        <v>7.427907421154451e-08</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.4025175167718137</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>9.019798670987079e-11</v>
       </c>
     </row>
@@ -1592,9 +1668,12 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M4" t="n">
+        <v>5.133327128155429e-10</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.305388121003082</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>5.362405000819712e-11</v>
       </c>
     </row>
@@ -1636,9 +1715,12 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M5" t="n">
+        <v>6.819395781180504e-08</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.28988471829288</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>9.7216152041162e-11</v>
       </c>
     </row>
@@ -1680,9 +1762,12 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M6" t="n">
+        <v>7.092955645243928e-08</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.2895616822699055</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>9.711086483125829e-11</v>
       </c>
     </row>
@@ -1724,9 +1809,12 @@
         <v>9.4e-11</v>
       </c>
       <c r="M7" t="n">
+        <v>8.799665155971034e-08</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.3225451867464391</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>5.959252586083e-11</v>
       </c>
     </row>
@@ -1768,9 +1856,12 @@
         <v>9.4e-11</v>
       </c>
       <c r="M8" t="n">
+        <v>6.076521091072238e-08</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.3224458419126914</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>5.957481187009448e-11</v>
       </c>
     </row>
@@ -1812,9 +1903,12 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M9" t="n">
+        <v>1.257476080916656e-07</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.4023688429962436</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>9.016648920861512e-11</v>
       </c>
     </row>
@@ -1856,9 +1950,12 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M10" t="n">
+        <v>7.599992686400249e-08</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.3993307442885838</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>8.952241284561586e-11</v>
       </c>
     </row>
@@ -1900,9 +1997,12 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M11" t="n">
+        <v>3.916168193331695e-08</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.2198842060876415</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>5.644442530243987e-11</v>
       </c>
     </row>
@@ -1944,9 +2044,12 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M12" t="n">
+        <v>5.536249412041013e-08</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.2149408294669114</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>5.519528994658123e-11</v>
       </c>
     </row>
@@ -1988,9 +2091,12 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M13" t="n">
+        <v>1.794820496012845e-07</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.2881183498246289</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>9.664031549987606e-11</v>
       </c>
     </row>
@@ -2032,9 +2138,12 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M14" t="n">
+        <v>7.7421546202379e-08</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.2885071096239138</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>9.676707722802912e-11</v>
       </c>
     </row>
@@ -2076,9 +2185,12 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M15" t="n">
+        <v>7.297274595555555e-08</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.3022738707424924</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>5.309405638821689e-11</v>
       </c>
     </row>
@@ -2120,9 +2232,12 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M16" t="n">
+        <v>5.494328335662269e-08</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.3029561769402885</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>5.321021778877054e-11</v>
       </c>
     </row>
@@ -2164,9 +2279,12 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M17" t="n">
+        <v>1.538434206508402e-07</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.2862625726348201</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>9.603500692378168e-11</v>
       </c>
     </row>
@@ -2208,9 +2326,12 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M18" t="n">
+        <v>1.406128192729954e-07</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.2874859774997348</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>9.643408858118178e-11</v>
       </c>
     </row>
@@ -2252,9 +2373,12 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M19" t="n">
+        <v>3.784535565319375e-08</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.213715568396251</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>5.488547056126151e-11</v>
       </c>
     </row>
@@ -2296,9 +2420,12 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M20" t="n">
+        <v>4.001257566613208e-08</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.2150104045093289</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>5.521288020264449e-11</v>
       </c>
     </row>
@@ -2340,9 +2467,12 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M21" t="n">
+        <v>1.253589610338033e-07</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.399499447510945</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>8.95581996201965e-11</v>
       </c>
     </row>
@@ -2384,9 +2514,12 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M22" t="n">
+        <v>1.093607730938802e-07</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.3944984378502437</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>8.849626482378758e-11</v>
       </c>
     </row>
@@ -2428,9 +2561,12 @@
         <v>9.4e-11</v>
       </c>
       <c r="M23" t="n">
+        <v>8.066247492574736e-08</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.3182148239750323</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>5.881984349781953e-11</v>
       </c>
     </row>
@@ -2472,9 +2608,12 @@
         <v>9.4e-11</v>
       </c>
       <c r="M24" t="n">
+        <v>7.728913167918977e-08</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.3175345174782977</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>5.869835331539647e-11</v>
       </c>
     </row>
@@ -2516,9 +2655,12 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M25" t="n">
+        <v>5.243912646486033e-08</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.2848886525598913</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>9.558665502279966e-11</v>
       </c>
     </row>
@@ -2560,9 +2702,12 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M26" t="n">
+        <v>6.816822554729181e-08</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.2851028819278155</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>9.565657647543631e-11</v>
       </c>
     </row>
@@ -2604,9 +2749,12 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M27" t="n">
+        <v>1.026798741732015e-10</v>
+      </c>
+      <c r="N27" t="n">
         <v>0.2997672401559702</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>5.2667095258799e-11</v>
       </c>
     </row>
@@ -2648,9 +2796,12 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M28" t="n">
+        <v>9.048733822835796e-08</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.3942768324044045</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>8.844915681234449e-11</v>
       </c>
     </row>
@@ -2692,9 +2843,12 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M29" t="n">
+        <v>5.851446210637957e-08</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.3965245497114112</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>8.89267658875418e-11</v>
       </c>
     </row>
@@ -2709,7 +2863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2780,10 +2934,15 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>d_hkl_err</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -2827,9 +2986,12 @@
         <v>1.214184911782386e-10</v>
       </c>
       <c r="M2" t="n">
+        <v>1.238353120041168e-09</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.4582749423588158</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1.074314950240037e-10</v>
       </c>
     </row>
@@ -2853,28 +3015,31 @@
         <v>8.471505793993755e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>241.6216741930579</v>
+        <v>362.4325112895869</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M3" t="n">
+        <v>1.742281091314542e-08</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.3925776249818836</v>
       </c>
-      <c r="N3" t="n">
-        <v>7.585452474750323e-11</v>
+      <c r="O3" t="n">
+        <v>5.408989186876199e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2897,28 +3062,31 @@
         <v>8.980446093537419e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>241.827083209921</v>
+        <v>362.7406248148815</v>
       </c>
       <c r="H4" t="n">
         <v>-1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M4" t="n">
+        <v>1.635623471035825e-08</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.3924531986742553</v>
       </c>
-      <c r="N4" t="n">
-        <v>7.583173026226983e-11</v>
+      <c r="O4" t="n">
+        <v>5.407363771325072e-11</v>
       </c>
     </row>
     <row r="5">
@@ -2959,9 +3127,12 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M5" t="n">
+        <v>7.250987113905776e-08</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.4136507838629954</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>8.910488286990158e-11</v>
       </c>
     </row>
@@ -3003,9 +3174,12 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M6" t="n">
+        <v>7.077846602355977e-08</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.4130466713808814</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>8.89822424682499e-11</v>
       </c>
     </row>
@@ -3029,28 +3203,31 @@
         <v>0.001195197961533601</v>
       </c>
       <c r="G7" t="n">
-        <v>180.8131418095762</v>
+        <v>361.6262836191524</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>5.788399449054823e-11</v>
       </c>
       <c r="M7" t="n">
+        <v>8.594719167626934e-10</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.4356114873942182</v>
       </c>
-      <c r="N7" t="n">
-        <v>9.770004702240844e-11</v>
+      <c r="O7" t="n">
+        <v>4.885002351120422e-11</v>
       </c>
     </row>
     <row r="8">
@@ -3073,28 +3250,31 @@
         <v>4.066946614544574e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>290.6337742074375</v>
+        <v>435.9506613111562</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>6.633800828547373e-11</v>
       </c>
       <c r="M8" t="n">
+        <v>2.744598495526943e-08</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.3658753665935956</v>
       </c>
-      <c r="N8" t="n">
-        <v>6.763522866274488e-11</v>
+      <c r="O8" t="n">
+        <v>4.74670816267315e-11</v>
       </c>
     </row>
     <row r="9">
@@ -3117,28 +3297,31 @@
         <v>4.077595604240954e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>290.104201909835</v>
+        <v>435.1563028647525</v>
       </c>
       <c r="H9" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>6.633800828547373e-11</v>
       </c>
       <c r="M9" t="n">
+        <v>2.684276830767982e-08</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.3661353407048782</v>
       </c>
-      <c r="N9" t="n">
-        <v>6.768112101116045e-11</v>
+      <c r="O9" t="n">
+        <v>4.749928933699364e-11</v>
       </c>
     </row>
     <row r="10">
@@ -3161,28 +3344,31 @@
         <v>2.188453565644252e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>181.9610543668794</v>
+        <v>363.9221087337588</v>
       </c>
       <c r="H10" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>5.788399449054823e-11</v>
       </c>
       <c r="M10" t="n">
+        <v>4.734281828423929e-08</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.4346633061389997</v>
       </c>
-      <c r="N10" t="n">
-        <v>9.750096724044602e-11</v>
+      <c r="O10" t="n">
+        <v>4.875048362022301e-11</v>
       </c>
     </row>
     <row r="11">
@@ -3223,9 +3409,12 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M11" t="n">
+        <v>7.383517562485437e-10</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.3095041321107141</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>5.230103590791631e-11</v>
       </c>
     </row>
@@ -3249,28 +3438,31 @@
         <v>2.171453913191606e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>238.2986727339309</v>
+        <v>357.4480091008963</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M12" t="n">
+        <v>4.865498028187469e-08</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.3946071555100394</v>
       </c>
-      <c r="N12" t="n">
-        <v>8.901297986779552e-11</v>
+      <c r="O12" t="n">
+        <v>5.435489669189072e-11</v>
       </c>
     </row>
     <row r="13">
@@ -3293,28 +3485,31 @@
         <v>3.308437614101625e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>237.8366012510954</v>
+        <v>356.7549018766431</v>
       </c>
       <c r="H13" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.008325686301392e-10</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M13" t="n">
+        <v>3.156096577527741e-08</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.3948918725645431</v>
       </c>
-      <c r="N13" t="n">
-        <v>7.758226932821679e-11</v>
+      <c r="O13" t="n">
+        <v>5.439205558101466e-11</v>
       </c>
     </row>
     <row r="14">
@@ -3355,9 +3550,12 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M14" t="n">
+        <v>1.017298528931193e-07</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.4162648839365153</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>8.963519389806742e-11</v>
       </c>
     </row>
@@ -3399,9 +3597,12 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M15" t="n">
+        <v>9.888003383875648e-08</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.4153278179605042</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>8.944516567113337e-11</v>
       </c>
     </row>
@@ -3425,28 +3626,31 @@
         <v>1.757698266999111e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>282.3269692708224</v>
+        <v>423.4904539062337</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>6.633800828547373e-11</v>
       </c>
       <c r="M16" t="n">
+        <v>4.073948180479201e-08</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.3700183796666876</v>
       </c>
-      <c r="N16" t="n">
-        <v>6.836603459005128e-11</v>
+      <c r="O16" t="n">
+        <v>4.797996855401203e-11</v>
       </c>
     </row>
     <row r="17">
@@ -3469,28 +3673,31 @@
         <v>1.450901020436421e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>278.0865553844615</v>
+        <v>417.1298330766922</v>
       </c>
       <c r="H17" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L17" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>6.633800828547373e-11</v>
       </c>
       <c r="M17" t="n">
+        <v>4.73463489973722e-08</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.3721883798364725</v>
       </c>
-      <c r="N17" t="n">
-        <v>6.874834383074345e-11</v>
+      <c r="O17" t="n">
+        <v>4.824827701239069e-11</v>
       </c>
     </row>
     <row r="18">
@@ -3531,9 +3738,12 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M18" t="n">
+        <v>6.15875617365737e-08</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.2247604142831846</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>5.552775453012985e-11</v>
       </c>
     </row>
@@ -3575,9 +3785,12 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M19" t="n">
+        <v>5.618175828782802e-08</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.2164208387058885</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>5.350034044784323e-11</v>
       </c>
     </row>
@@ -3619,9 +3832,12 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M20" t="n">
+        <v>8.62238863069858e-08</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.305055980973813</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>9.834587806320177e-11</v>
       </c>
     </row>
@@ -3663,9 +3879,12 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M21" t="n">
+        <v>7.625254948022033e-08</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.2976949134773788</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>9.604420075510519e-11</v>
       </c>
     </row>
@@ -3689,28 +3908,31 @@
         <v>1.147471732839527e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>231.2664705061941</v>
+        <v>346.8997057592911</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M22" t="n">
+        <v>6.600614124858839e-08</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.3990082474877866</v>
       </c>
-      <c r="N22" t="n">
-        <v>7.703098651708029e-11</v>
+      <c r="O22" t="n">
+        <v>5.492879620724378e-11</v>
       </c>
     </row>
     <row r="23">
@@ -3733,28 +3955,31 @@
         <v>8.342553140713879e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>230.846399658786</v>
+        <v>346.2695994881789</v>
       </c>
       <c r="H23" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.008325686301392e-10</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M23" t="n">
+        <v>8.150033512093078e-08</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.3992758430282098</v>
       </c>
-      <c r="N23" t="n">
-        <v>7.839757369133889e-11</v>
+      <c r="O23" t="n">
+        <v>5.496365629105282e-11</v>
       </c>
     </row>
     <row r="24">
@@ -3795,9 +4020,12 @@
         <v>1.214184911782386e-10</v>
       </c>
       <c r="M24" t="n">
+        <v>1.282425582104064e-07</v>
+      </c>
+      <c r="N24" t="n">
         <v>0.4642004603956314</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>1.087200627203342e-10</v>
       </c>
     </row>
@@ -3839,9 +4067,12 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M25" t="n">
+        <v>7.0873767361628e-08</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.3178734468528737</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>5.366801264615383e-11</v>
       </c>
     </row>
@@ -3883,9 +4114,12 @@
         <v>1.214184911782386e-10</v>
       </c>
       <c r="M26" t="n">
+        <v>1.007719539935691e-07</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.4604649445660205</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>1.079081764283931e-10</v>
       </c>
     </row>
@@ -3927,9 +4161,12 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M27" t="n">
+        <v>6.697608661600877e-08</v>
+      </c>
+      <c r="N27" t="n">
         <v>0.3231824766688066</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>5.453320439003443e-11</v>
       </c>
     </row>
@@ -3953,28 +4190,31 @@
         <v>9.759522195880905e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>228.8451738072783</v>
+        <v>343.2677607109174</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
         <v>-1</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M28" t="n">
+        <v>8.504843740225248e-08</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.4005581251729241</v>
       </c>
-      <c r="N28" t="n">
-        <v>7.731405711952948e-11</v>
+      <c r="O28" t="n">
+        <v>5.513064650330283e-11</v>
       </c>
     </row>
     <row r="29">
@@ -3997,28 +4237,31 @@
         <v>8.727158817531015e-06</v>
       </c>
       <c r="G29" t="n">
-        <v>227.7483776661634</v>
+        <v>341.6225664992451</v>
       </c>
       <c r="H29" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="I29" t="n">
         <v>-1</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M29" t="n">
+        <v>7.300372529177956e-08</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.4012661705123368</v>
       </c>
-      <c r="N29" t="n">
-        <v>7.744331319019193e-11</v>
+      <c r="O29" t="n">
+        <v>5.522281565087558e-11</v>
       </c>
     </row>
     <row r="30">
@@ -4059,9 +4302,12 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M30" t="n">
+        <v>1.190811620784668e-07</v>
+      </c>
+      <c r="N30" t="n">
         <v>0.3051404045325796</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>9.837224516564784e-11</v>
       </c>
     </row>
@@ -4103,9 +4349,12 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M31" t="n">
+        <v>5.68528832836058e-08</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.3130241240992995</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>1.008313672472501e-10</v>
       </c>
     </row>
@@ -4147,9 +4396,12 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M32" t="n">
+        <v>6.00743050800168e-08</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.235732960824126</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>5.818935803603914e-11</v>
       </c>
     </row>
@@ -4173,28 +4425,31 @@
         <v>1.165451382616063e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>270.7393504052334</v>
+        <v>406.1090256078501</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I33" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>6.633800828547373e-11</v>
       </c>
       <c r="M33" t="n">
+        <v>6.694674156133268e-08</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.3760405560568043</v>
       </c>
-      <c r="N33" t="n">
-        <v>6.942621919776192e-11</v>
+      <c r="O33" t="n">
+        <v>4.872401674174774e-11</v>
       </c>
     </row>
     <row r="34">
@@ -4235,9 +4490,12 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M34" t="n">
+        <v>6.383200374533407e-08</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.2451543307858638</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>6.046911551502373e-11</v>
       </c>
     </row>
@@ -4261,28 +4519,31 @@
         <v>1.803002765037177e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>266.1774842100389</v>
+        <v>399.2662263150582</v>
       </c>
       <c r="H35" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="I35" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>6.633800828547373e-11</v>
       </c>
       <c r="M35" t="n">
+        <v>4.515461990475858e-08</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.378493537388184</v>
       </c>
-      <c r="N35" t="n">
-        <v>6.985733911105953e-11</v>
+      <c r="O35" t="n">
+        <v>4.902658101956586e-11</v>
       </c>
     </row>
     <row r="36">
@@ -4323,9 +4584,12 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M36" t="n">
+        <v>1.245533012637507e-07</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.4224818849611415</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>9.08939423587648e-11</v>
       </c>
     </row>
@@ -4367,9 +4631,12 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M37" t="n">
+        <v>1.134991132884192e-07</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.4211533510402809</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>9.062524925166172e-11</v>
       </c>
     </row>
@@ -4393,28 +4660,31 @@
         <v>2.434163577469989e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>223.4238177856964</v>
+        <v>335.1357266785446</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M38" t="n">
+        <v>4.742627918379872e-08</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.4040950595659556</v>
       </c>
-      <c r="N38" t="n">
-        <v>9.103690559392535e-11</v>
+      <c r="O38" t="n">
+        <v>5.55907869397988e-11</v>
       </c>
     </row>
     <row r="39">
@@ -4437,28 +4707,31 @@
         <v>3.163283986071837e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9379135940125</v>
+        <v>334.4068703910188</v>
       </c>
       <c r="H39" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I39" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.157679889810965e-10</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M39" t="n">
+        <v>3.740849698869372e-08</v>
+      </c>
+      <c r="N39" t="n">
         <v>0.404416673640947</v>
       </c>
-      <c r="N39" t="n">
-        <v>9.110536857890018e-11</v>
+      <c r="O39" t="n">
+        <v>5.563259318514697e-11</v>
       </c>
     </row>
     <row r="40">
@@ -4499,9 +4772,12 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M40" t="n">
+        <v>1.562251331576555e-09</v>
+      </c>
+      <c r="N40" t="n">
         <v>0.3312482454229975</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>5.584470152938531e-11</v>
       </c>
     </row>
@@ -4525,28 +4801,31 @@
         <v>3.627335636461426e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>260.6258313274092</v>
+        <v>390.9387469911138</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>6.633800828547373e-11</v>
       </c>
       <c r="M41" t="n">
+        <v>3.263168050642311e-08</v>
+      </c>
+      <c r="N41" t="n">
         <v>0.3815446438688148</v>
       </c>
-      <c r="N41" t="n">
-        <v>7.03929947080228e-11</v>
+      <c r="O41" t="n">
+        <v>4.940250948831777e-11</v>
       </c>
     </row>
     <row r="42">
@@ -4569,28 +4848,31 @@
         <v>3.505307525243677e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>259.6810762837302</v>
+        <v>389.5216144255954</v>
       </c>
       <c r="H42" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I42" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L42" t="n">
-        <v>9.452416718394392e-11</v>
+        <v>6.633800828547373e-11</v>
       </c>
       <c r="M42" t="n">
+        <v>3.541624396013623e-08</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.382071265689686</v>
       </c>
-      <c r="N42" t="n">
-        <v>7.048538283700339e-11</v>
+      <c r="O42" t="n">
+        <v>4.946734840357494e-11</v>
       </c>
     </row>
     <row r="43">
@@ -4631,9 +4913,12 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M43" t="n">
+        <v>4.43523594191466e-08</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.424938213187893</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>9.139030655330512e-11</v>
       </c>
     </row>
@@ -4675,9 +4960,12 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M44" t="n">
+        <v>6.780683745554831e-08</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.4241730113412396</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>9.123573686206995e-11</v>
       </c>
     </row>
@@ -4701,28 +4989,31 @@
         <v>0.0001070152190055772</v>
       </c>
       <c r="G45" t="n">
-        <v>218.9731624688767</v>
+        <v>328.459743703315</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M45" t="n">
+        <v>1.522987801772394e-08</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.4070699882446259</v>
       </c>
-      <c r="N45" t="n">
-        <v>7.850135045194107e-11</v>
+      <c r="O45" t="n">
+        <v>5.597727454797671e-11</v>
       </c>
     </row>
     <row r="46">
@@ -4745,28 +5036,31 @@
         <v>8.935641297029543e-05</v>
       </c>
       <c r="G46" t="n">
-        <v>219.4829623463382</v>
+        <v>329.2244435195072</v>
       </c>
       <c r="H46" t="n">
         <v>-1</v>
       </c>
       <c r="I46" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>9.913778290843506e-11</v>
+        <v>7.069257866258737e-11</v>
       </c>
       <c r="M46" t="n">
+        <v>1.823590565315959e-08</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.4067258810886694</v>
       </c>
-      <c r="N46" t="n">
-        <v>7.843869303150145e-11</v>
+      <c r="O46" t="n">
+        <v>5.593259516849821e-11</v>
       </c>
     </row>
     <row r="47">
@@ -4807,9 +5101,12 @@
         <v>1.214184911782386e-10</v>
       </c>
       <c r="M47" t="n">
+        <v>4.022800342512592e-09</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.4665253244832986</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>1.092245892687438e-10</v>
       </c>
     </row>
@@ -4857,7 +5154,7 @@
         <v>559.7043659641877</v>
       </c>
       <c r="C2" t="n">
-        <v>505.1580179044858</v>
+        <v>519.2053353140492</v>
       </c>
     </row>
   </sheetData>

--- a/laue_data.xlsx
+++ b/laue_data.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="LiF" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="a0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,7 +53,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -415,13 +416,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -486,15 +487,10 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>d_hkl_err</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -538,12 +534,9 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M2" t="n">
-        <v>2.487096603048198e-10</v>
+        <v>0.4530849511103442</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4530849511103442</v>
-      </c>
-      <c r="O2" t="n">
         <v>7.889283499073531e-11</v>
       </c>
     </row>
@@ -585,12 +578,9 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>7.904953439378122e-09</v>
+        <v>0.4096042133834594</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4096042133834594</v>
-      </c>
-      <c r="O3" t="n">
         <v>6.55211006541786e-11</v>
       </c>
     </row>
@@ -632,12 +622,9 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>1.314996498792709e-08</v>
+        <v>0.4107167708893523</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4107167708893523</v>
-      </c>
-      <c r="O4" t="n">
         <v>6.568896100243891e-11</v>
       </c>
     </row>
@@ -679,12 +666,9 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.176824383149351e-08</v>
+        <v>0.2960284135450137</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2960284135450137</v>
-      </c>
-      <c r="O5" t="n">
         <v>7.089414828553438e-11</v>
       </c>
     </row>
@@ -726,12 +710,9 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>8.190227829307806e-09</v>
+        <v>0.2947835866809012</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2947835866809012</v>
-      </c>
-      <c r="O6" t="n">
         <v>7.060473654545982e-11</v>
       </c>
     </row>
@@ -773,12 +754,9 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>2.285039032151496e-08</v>
+        <v>0.4115461827992051</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4115461827992051</v>
-      </c>
-      <c r="O7" t="n">
         <v>6.581404804481176e-11</v>
       </c>
     </row>
@@ -820,12 +798,9 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>2.553765880021463e-08</v>
+        <v>0.4094374863320299</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4094374863320299</v>
-      </c>
-      <c r="O8" t="n">
         <v>6.549593823295028e-11</v>
       </c>
     </row>
@@ -867,12 +842,9 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>2.668998254214873e-08</v>
+        <v>0.2945366406039327</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2945366406039327</v>
-      </c>
-      <c r="O9" t="n">
         <v>7.054731064749305e-11</v>
       </c>
     </row>
@@ -914,12 +886,9 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>2.758079461611561e-08</v>
+        <v>0.2990603778892723</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2990603778892723</v>
-      </c>
-      <c r="O10" t="n">
         <v>7.159859386451889e-11</v>
       </c>
     </row>
@@ -961,12 +930,9 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M11" t="n">
-        <v>2.236323070344631e-08</v>
+        <v>0.4538666258822426</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4538666258822426</v>
-      </c>
-      <c r="O11" t="n">
         <v>7.901947528615468e-11</v>
       </c>
     </row>
@@ -1008,12 +974,9 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M12" t="n">
-        <v>5.905223006423473e-09</v>
+        <v>0.4573457765441637</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4573457765441637</v>
-      </c>
-      <c r="O12" t="n">
         <v>7.958255089944541e-11</v>
       </c>
     </row>
@@ -1055,12 +1018,9 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M13" t="n">
-        <v>2.802945808457085e-08</v>
+        <v>0.2963425851905583</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2963425851905583</v>
-      </c>
-      <c r="O13" t="n">
         <v>7.096717319757069e-11</v>
       </c>
     </row>
@@ -1102,12 +1062,9 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>2.27162530860894e-08</v>
+        <v>0.3005718592692377</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3005718592692377</v>
-      </c>
-      <c r="O14" t="n">
         <v>7.194952550004218e-11</v>
       </c>
     </row>
@@ -1149,12 +1106,9 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M15" t="n">
-        <v>3.306465830160561e-09</v>
+        <v>0.4108096218007261</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4108096218007261</v>
-      </c>
-      <c r="O15" t="n">
         <v>6.570296648044749e-11</v>
       </c>
     </row>
@@ -1196,12 +1150,9 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>1.561838758857293e-08</v>
+        <v>0.4124347714283181</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4124347714283181</v>
-      </c>
-      <c r="O16" t="n">
         <v>6.594800953510958e-11</v>
       </c>
     </row>
@@ -1243,12 +1194,9 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M17" t="n">
-        <v>1.346504915232372e-08</v>
+        <v>0.2996406080594229</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2996406080594229</v>
-      </c>
-      <c r="O17" t="n">
         <v>7.17333295147143e-11</v>
       </c>
     </row>
@@ -1290,12 +1238,9 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>1.26955453346747e-08</v>
+        <v>0.3013963787614994</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3013963787614994</v>
-      </c>
-      <c r="O18" t="n">
         <v>7.21408909540268e-11</v>
       </c>
     </row>
@@ -1337,12 +1282,9 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M19" t="n">
-        <v>1.537415029769565e-08</v>
+        <v>0.4132640845943523</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4132640845943523</v>
-      </c>
-      <c r="O19" t="n">
         <v>6.607298782354184e-11</v>
       </c>
     </row>
@@ -1384,12 +1326,9 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M20" t="n">
-        <v>1.758431320325539e-08</v>
+        <v>0.4133641045115671</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4133641045115671</v>
-      </c>
-      <c r="O20" t="n">
         <v>6.608805785176487e-11</v>
       </c>
     </row>
@@ -1431,12 +1370,9 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M21" t="n">
-        <v>5.495782856878969e-10</v>
+        <v>0.4562228872128556</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4562228872128556</v>
-      </c>
-      <c r="O21" t="n">
         <v>7.940092425676108e-11</v>
       </c>
     </row>
@@ -1451,13 +1387,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1522,15 +1458,10 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>d_hkl_err</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -1574,12 +1505,9 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M2" t="n">
-        <v>6.761770452447863e-08</v>
+        <v>0.404942442987216</v>
       </c>
       <c r="N2" t="n">
-        <v>0.404942442987216</v>
-      </c>
-      <c r="O2" t="n">
         <v>9.071144106278336e-11</v>
       </c>
     </row>
@@ -1621,12 +1549,9 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>7.427907421154451e-08</v>
+        <v>0.4025175167718137</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4025175167718137</v>
-      </c>
-      <c r="O3" t="n">
         <v>9.019798670987079e-11</v>
       </c>
     </row>
@@ -1668,12 +1593,9 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>5.133327128155429e-10</v>
+        <v>0.305388121003082</v>
       </c>
       <c r="N4" t="n">
-        <v>0.305388121003082</v>
-      </c>
-      <c r="O4" t="n">
         <v>5.362405000819712e-11</v>
       </c>
     </row>
@@ -1715,12 +1637,9 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>6.819395781180504e-08</v>
+        <v>0.28988471829288</v>
       </c>
       <c r="N5" t="n">
-        <v>0.28988471829288</v>
-      </c>
-      <c r="O5" t="n">
         <v>9.7216152041162e-11</v>
       </c>
     </row>
@@ -1762,12 +1681,9 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>7.092955645243928e-08</v>
+        <v>0.2895616822699055</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2895616822699055</v>
-      </c>
-      <c r="O6" t="n">
         <v>9.711086483125829e-11</v>
       </c>
     </row>
@@ -1809,12 +1725,9 @@
         <v>9.4e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>8.799665155971034e-08</v>
+        <v>0.3225451867464391</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3225451867464391</v>
-      </c>
-      <c r="O7" t="n">
         <v>5.959252586083e-11</v>
       </c>
     </row>
@@ -1856,12 +1769,9 @@
         <v>9.4e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>6.076521091072238e-08</v>
+        <v>0.3224458419126914</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3224458419126914</v>
-      </c>
-      <c r="O8" t="n">
         <v>5.957481187009448e-11</v>
       </c>
     </row>
@@ -1903,12 +1813,9 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>1.257476080916656e-07</v>
+        <v>0.4023688429962436</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4023688429962436</v>
-      </c>
-      <c r="O9" t="n">
         <v>9.016648920861512e-11</v>
       </c>
     </row>
@@ -1950,12 +1857,9 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>7.599992686400249e-08</v>
+        <v>0.3993307442885838</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3993307442885838</v>
-      </c>
-      <c r="O10" t="n">
         <v>8.952241284561586e-11</v>
       </c>
     </row>
@@ -1997,12 +1901,9 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>3.916168193331695e-08</v>
+        <v>0.2198842060876415</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2198842060876415</v>
-      </c>
-      <c r="O11" t="n">
         <v>5.644442530243987e-11</v>
       </c>
     </row>
@@ -2044,12 +1945,9 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>5.536249412041013e-08</v>
+        <v>0.2149408294669114</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2149408294669114</v>
-      </c>
-      <c r="O12" t="n">
         <v>5.519528994658123e-11</v>
       </c>
     </row>
@@ -2091,12 +1989,9 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M13" t="n">
-        <v>1.794820496012845e-07</v>
+        <v>0.2881183498246289</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2881183498246289</v>
-      </c>
-      <c r="O13" t="n">
         <v>9.664031549987606e-11</v>
       </c>
     </row>
@@ -2138,12 +2033,9 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>7.7421546202379e-08</v>
+        <v>0.2885071096239138</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2885071096239138</v>
-      </c>
-      <c r="O14" t="n">
         <v>9.676707722802912e-11</v>
       </c>
     </row>
@@ -2185,12 +2077,9 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M15" t="n">
-        <v>7.297274595555555e-08</v>
+        <v>0.3022738707424924</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3022738707424924</v>
-      </c>
-      <c r="O15" t="n">
         <v>5.309405638821689e-11</v>
       </c>
     </row>
@@ -2232,12 +2121,9 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>5.494328335662269e-08</v>
+        <v>0.3029561769402885</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3029561769402885</v>
-      </c>
-      <c r="O16" t="n">
         <v>5.321021778877054e-11</v>
       </c>
     </row>
@@ -2279,12 +2165,9 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M17" t="n">
-        <v>1.538434206508402e-07</v>
+        <v>0.2862625726348201</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2862625726348201</v>
-      </c>
-      <c r="O17" t="n">
         <v>9.603500692378168e-11</v>
       </c>
     </row>
@@ -2326,12 +2209,9 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>1.406128192729954e-07</v>
+        <v>0.2874859774997348</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2874859774997348</v>
-      </c>
-      <c r="O18" t="n">
         <v>9.643408858118178e-11</v>
       </c>
     </row>
@@ -2373,12 +2253,9 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M19" t="n">
-        <v>3.784535565319375e-08</v>
+        <v>0.213715568396251</v>
       </c>
       <c r="N19" t="n">
-        <v>0.213715568396251</v>
-      </c>
-      <c r="O19" t="n">
         <v>5.488547056126151e-11</v>
       </c>
     </row>
@@ -2420,12 +2297,9 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M20" t="n">
-        <v>4.001257566613208e-08</v>
+        <v>0.2150104045093289</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2150104045093289</v>
-      </c>
-      <c r="O20" t="n">
         <v>5.521288020264449e-11</v>
       </c>
     </row>
@@ -2467,12 +2341,9 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M21" t="n">
-        <v>1.253589610338033e-07</v>
+        <v>0.399499447510945</v>
       </c>
       <c r="N21" t="n">
-        <v>0.399499447510945</v>
-      </c>
-      <c r="O21" t="n">
         <v>8.95581996201965e-11</v>
       </c>
     </row>
@@ -2514,12 +2385,9 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M22" t="n">
-        <v>1.093607730938802e-07</v>
+        <v>0.3944984378502437</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3944984378502437</v>
-      </c>
-      <c r="O22" t="n">
         <v>8.849626482378758e-11</v>
       </c>
     </row>
@@ -2561,12 +2429,9 @@
         <v>9.4e-11</v>
       </c>
       <c r="M23" t="n">
-        <v>8.066247492574736e-08</v>
+        <v>0.3182148239750323</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3182148239750323</v>
-      </c>
-      <c r="O23" t="n">
         <v>5.881984349781953e-11</v>
       </c>
     </row>
@@ -2608,12 +2473,9 @@
         <v>9.4e-11</v>
       </c>
       <c r="M24" t="n">
-        <v>7.728913167918977e-08</v>
+        <v>0.3175345174782977</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3175345174782977</v>
-      </c>
-      <c r="O24" t="n">
         <v>5.869835331539647e-11</v>
       </c>
     </row>
@@ -2655,12 +2517,9 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M25" t="n">
-        <v>5.243912646486033e-08</v>
+        <v>0.2848886525598913</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2848886525598913</v>
-      </c>
-      <c r="O25" t="n">
         <v>9.558665502279966e-11</v>
       </c>
     </row>
@@ -2702,12 +2561,9 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>6.816822554729181e-08</v>
+        <v>0.2851028819278155</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2851028819278155</v>
-      </c>
-      <c r="O26" t="n">
         <v>9.565657647543631e-11</v>
       </c>
     </row>
@@ -2749,12 +2605,9 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M27" t="n">
-        <v>1.026798741732015e-10</v>
+        <v>0.2997672401559702</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2997672401559702</v>
-      </c>
-      <c r="O27" t="n">
         <v>5.2667095258799e-11</v>
       </c>
     </row>
@@ -2796,12 +2649,9 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>9.048733822835796e-08</v>
+        <v>0.3942768324044045</v>
       </c>
       <c r="N28" t="n">
-        <v>0.3942768324044045</v>
-      </c>
-      <c r="O28" t="n">
         <v>8.844915681234449e-11</v>
       </c>
     </row>
@@ -2843,12 +2693,9 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M29" t="n">
-        <v>5.851446210637957e-08</v>
+        <v>0.3965245497114112</v>
       </c>
       <c r="N29" t="n">
-        <v>0.3965245497114112</v>
-      </c>
-      <c r="O29" t="n">
         <v>8.89267658875418e-11</v>
       </c>
     </row>
@@ -2863,13 +2710,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2934,15 +2781,10 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>d_hkl_err</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>wavelength</t>
         </is>
@@ -2986,12 +2828,9 @@
         <v>1.214184911782386e-10</v>
       </c>
       <c r="M2" t="n">
-        <v>1.238353120041168e-09</v>
+        <v>0.4582749423588158</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4582749423588158</v>
-      </c>
-      <c r="O2" t="n">
         <v>1.074314950240037e-10</v>
       </c>
     </row>
@@ -3033,12 +2872,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>1.742281091314542e-08</v>
+        <v>0.3925776249818836</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3925776249818836</v>
-      </c>
-      <c r="O3" t="n">
         <v>5.408989186876199e-11</v>
       </c>
     </row>
@@ -3080,12 +2916,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>1.635623471035825e-08</v>
+        <v>0.3924531986742553</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3924531986742553</v>
-      </c>
-      <c r="O4" t="n">
         <v>5.407363771325072e-11</v>
       </c>
     </row>
@@ -3127,12 +2960,9 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>7.250987113905776e-08</v>
+        <v>0.4136507838629954</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4136507838629954</v>
-      </c>
-      <c r="O5" t="n">
         <v>8.910488286990158e-11</v>
       </c>
     </row>
@@ -3174,12 +3004,9 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>7.077846602355977e-08</v>
+        <v>0.4130466713808814</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4130466713808814</v>
-      </c>
-      <c r="O6" t="n">
         <v>8.89822424682499e-11</v>
       </c>
     </row>
@@ -3221,12 +3048,9 @@
         <v>5.788399449054823e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>8.594719167626934e-10</v>
+        <v>0.4356114873942182</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4356114873942182</v>
-      </c>
-      <c r="O7" t="n">
         <v>4.885002351120422e-11</v>
       </c>
     </row>
@@ -3268,12 +3092,9 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>2.744598495526943e-08</v>
+        <v>0.3658753665935956</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3658753665935956</v>
-      </c>
-      <c r="O8" t="n">
         <v>4.74670816267315e-11</v>
       </c>
     </row>
@@ -3315,12 +3136,9 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M9" t="n">
-        <v>2.684276830767982e-08</v>
+        <v>0.3661353407048782</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3661353407048782</v>
-      </c>
-      <c r="O9" t="n">
         <v>4.749928933699364e-11</v>
       </c>
     </row>
@@ -3362,12 +3180,9 @@
         <v>5.788399449054823e-11</v>
       </c>
       <c r="M10" t="n">
-        <v>4.734281828423929e-08</v>
+        <v>0.4346633061389997</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4346633061389997</v>
-      </c>
-      <c r="O10" t="n">
         <v>4.875048362022301e-11</v>
       </c>
     </row>
@@ -3409,12 +3224,9 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M11" t="n">
-        <v>7.383517562485437e-10</v>
+        <v>0.3095041321107141</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3095041321107141</v>
-      </c>
-      <c r="O11" t="n">
         <v>5.230103590791631e-11</v>
       </c>
     </row>
@@ -3456,12 +3268,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M12" t="n">
-        <v>4.865498028187469e-08</v>
+        <v>0.3946071555100394</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3946071555100394</v>
-      </c>
-      <c r="O12" t="n">
         <v>5.435489669189072e-11</v>
       </c>
     </row>
@@ -3503,12 +3312,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M13" t="n">
-        <v>3.156096577527741e-08</v>
+        <v>0.3948918725645431</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3948918725645431</v>
-      </c>
-      <c r="O13" t="n">
         <v>5.439205558101466e-11</v>
       </c>
     </row>
@@ -3550,12 +3356,9 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>1.017298528931193e-07</v>
+        <v>0.4162648839365153</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4162648839365153</v>
-      </c>
-      <c r="O14" t="n">
         <v>8.963519389806742e-11</v>
       </c>
     </row>
@@ -3597,12 +3400,9 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M15" t="n">
-        <v>9.888003383875648e-08</v>
+        <v>0.4153278179605042</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4153278179605042</v>
-      </c>
-      <c r="O15" t="n">
         <v>8.944516567113337e-11</v>
       </c>
     </row>
@@ -3644,12 +3444,9 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>4.073948180479201e-08</v>
+        <v>0.3700183796666876</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3700183796666876</v>
-      </c>
-      <c r="O16" t="n">
         <v>4.797996855401203e-11</v>
       </c>
     </row>
@@ -3691,12 +3488,9 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M17" t="n">
-        <v>4.73463489973722e-08</v>
+        <v>0.3721883798364725</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3721883798364725</v>
-      </c>
-      <c r="O17" t="n">
         <v>4.824827701239069e-11</v>
       </c>
     </row>
@@ -3738,12 +3532,9 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>6.15875617365737e-08</v>
+        <v>0.2247604142831846</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2247604142831846</v>
-      </c>
-      <c r="O18" t="n">
         <v>5.552775453012985e-11</v>
       </c>
     </row>
@@ -3785,12 +3576,9 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M19" t="n">
-        <v>5.618175828782802e-08</v>
+        <v>0.2164208387058885</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2164208387058885</v>
-      </c>
-      <c r="O19" t="n">
         <v>5.350034044784323e-11</v>
       </c>
     </row>
@@ -3832,12 +3620,9 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M20" t="n">
-        <v>8.62238863069858e-08</v>
+        <v>0.305055980973813</v>
       </c>
       <c r="N20" t="n">
-        <v>0.305055980973813</v>
-      </c>
-      <c r="O20" t="n">
         <v>9.834587806320177e-11</v>
       </c>
     </row>
@@ -3879,12 +3664,9 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M21" t="n">
-        <v>7.625254948022033e-08</v>
+        <v>0.2976949134773788</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2976949134773788</v>
-      </c>
-      <c r="O21" t="n">
         <v>9.604420075510519e-11</v>
       </c>
     </row>
@@ -3926,12 +3708,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M22" t="n">
-        <v>6.600614124858839e-08</v>
+        <v>0.3990082474877866</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3990082474877866</v>
-      </c>
-      <c r="O22" t="n">
         <v>5.492879620724378e-11</v>
       </c>
     </row>
@@ -3973,12 +3752,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M23" t="n">
-        <v>8.150033512093078e-08</v>
+        <v>0.3992758430282098</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3992758430282098</v>
-      </c>
-      <c r="O23" t="n">
         <v>5.496365629105282e-11</v>
       </c>
     </row>
@@ -4020,12 +3796,9 @@
         <v>1.214184911782386e-10</v>
       </c>
       <c r="M24" t="n">
-        <v>1.282425582104064e-07</v>
+        <v>0.4642004603956314</v>
       </c>
       <c r="N24" t="n">
-        <v>0.4642004603956314</v>
-      </c>
-      <c r="O24" t="n">
         <v>1.087200627203342e-10</v>
       </c>
     </row>
@@ -4067,12 +3840,9 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M25" t="n">
-        <v>7.0873767361628e-08</v>
+        <v>0.3178734468528737</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3178734468528737</v>
-      </c>
-      <c r="O25" t="n">
         <v>5.366801264615383e-11</v>
       </c>
     </row>
@@ -4114,12 +3884,9 @@
         <v>1.214184911782386e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>1.007719539935691e-07</v>
+        <v>0.4604649445660205</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4604649445660205</v>
-      </c>
-      <c r="O26" t="n">
         <v>1.079081764283931e-10</v>
       </c>
     </row>
@@ -4161,12 +3928,9 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M27" t="n">
-        <v>6.697608661600877e-08</v>
+        <v>0.3231824766688066</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3231824766688066</v>
-      </c>
-      <c r="O27" t="n">
         <v>5.453320439003443e-11</v>
       </c>
     </row>
@@ -4208,12 +3972,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M28" t="n">
-        <v>8.504843740225248e-08</v>
+        <v>0.4005581251729241</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4005581251729241</v>
-      </c>
-      <c r="O28" t="n">
         <v>5.513064650330283e-11</v>
       </c>
     </row>
@@ -4255,12 +4016,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M29" t="n">
-        <v>7.300372529177956e-08</v>
+        <v>0.4012661705123368</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4012661705123368</v>
-      </c>
-      <c r="O29" t="n">
         <v>5.522281565087558e-11</v>
       </c>
     </row>
@@ -4302,12 +4060,9 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>1.190811620784668e-07</v>
+        <v>0.3051404045325796</v>
       </c>
       <c r="N30" t="n">
-        <v>0.3051404045325796</v>
-      </c>
-      <c r="O30" t="n">
         <v>9.837224516564784e-11</v>
       </c>
     </row>
@@ -4349,12 +4104,9 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M31" t="n">
-        <v>5.68528832836058e-08</v>
+        <v>0.3130241240992995</v>
       </c>
       <c r="N31" t="n">
-        <v>0.3130241240992995</v>
-      </c>
-      <c r="O31" t="n">
         <v>1.008313672472501e-10</v>
       </c>
     </row>
@@ -4396,12 +4148,9 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M32" t="n">
-        <v>6.00743050800168e-08</v>
+        <v>0.235732960824126</v>
       </c>
       <c r="N32" t="n">
-        <v>0.235732960824126</v>
-      </c>
-      <c r="O32" t="n">
         <v>5.818935803603914e-11</v>
       </c>
     </row>
@@ -4443,12 +4192,9 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M33" t="n">
-        <v>6.694674156133268e-08</v>
+        <v>0.3760405560568043</v>
       </c>
       <c r="N33" t="n">
-        <v>0.3760405560568043</v>
-      </c>
-      <c r="O33" t="n">
         <v>4.872401674174774e-11</v>
       </c>
     </row>
@@ -4490,12 +4236,9 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M34" t="n">
-        <v>6.383200374533407e-08</v>
+        <v>0.2451543307858638</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2451543307858638</v>
-      </c>
-      <c r="O34" t="n">
         <v>6.046911551502373e-11</v>
       </c>
     </row>
@@ -4537,12 +4280,9 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M35" t="n">
-        <v>4.515461990475858e-08</v>
+        <v>0.378493537388184</v>
       </c>
       <c r="N35" t="n">
-        <v>0.378493537388184</v>
-      </c>
-      <c r="O35" t="n">
         <v>4.902658101956586e-11</v>
       </c>
     </row>
@@ -4584,12 +4324,9 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M36" t="n">
-        <v>1.245533012637507e-07</v>
+        <v>0.4224818849611415</v>
       </c>
       <c r="N36" t="n">
-        <v>0.4224818849611415</v>
-      </c>
-      <c r="O36" t="n">
         <v>9.08939423587648e-11</v>
       </c>
     </row>
@@ -4631,12 +4368,9 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>1.134991132884192e-07</v>
+        <v>0.4211533510402809</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4211533510402809</v>
-      </c>
-      <c r="O37" t="n">
         <v>9.062524925166172e-11</v>
       </c>
     </row>
@@ -4678,12 +4412,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M38" t="n">
-        <v>4.742627918379872e-08</v>
+        <v>0.4040950595659556</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4040950595659556</v>
-      </c>
-      <c r="O38" t="n">
         <v>5.55907869397988e-11</v>
       </c>
     </row>
@@ -4725,12 +4456,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M39" t="n">
-        <v>3.740849698869372e-08</v>
+        <v>0.404416673640947</v>
       </c>
       <c r="N39" t="n">
-        <v>0.404416673640947</v>
-      </c>
-      <c r="O39" t="n">
         <v>5.563259318514697e-11</v>
       </c>
     </row>
@@ -4772,12 +4500,9 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M40" t="n">
-        <v>1.562251331576555e-09</v>
+        <v>0.3312482454229975</v>
       </c>
       <c r="N40" t="n">
-        <v>0.3312482454229975</v>
-      </c>
-      <c r="O40" t="n">
         <v>5.584470152938531e-11</v>
       </c>
     </row>
@@ -4819,12 +4544,9 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M41" t="n">
-        <v>3.263168050642311e-08</v>
+        <v>0.3815446438688148</v>
       </c>
       <c r="N41" t="n">
-        <v>0.3815446438688148</v>
-      </c>
-      <c r="O41" t="n">
         <v>4.940250948831777e-11</v>
       </c>
     </row>
@@ -4866,12 +4588,9 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M42" t="n">
-        <v>3.541624396013623e-08</v>
+        <v>0.382071265689686</v>
       </c>
       <c r="N42" t="n">
-        <v>0.382071265689686</v>
-      </c>
-      <c r="O42" t="n">
         <v>4.946734840357494e-11</v>
       </c>
     </row>
@@ -4913,12 +4632,9 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M43" t="n">
-        <v>4.43523594191466e-08</v>
+        <v>0.424938213187893</v>
       </c>
       <c r="N43" t="n">
-        <v>0.424938213187893</v>
-      </c>
-      <c r="O43" t="n">
         <v>9.139030655330512e-11</v>
       </c>
     </row>
@@ -4960,12 +4676,9 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M44" t="n">
-        <v>6.780683745554831e-08</v>
+        <v>0.4241730113412396</v>
       </c>
       <c r="N44" t="n">
-        <v>0.4241730113412396</v>
-      </c>
-      <c r="O44" t="n">
         <v>9.123573686206995e-11</v>
       </c>
     </row>
@@ -5007,12 +4720,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M45" t="n">
-        <v>1.522987801772394e-08</v>
+        <v>0.4070699882446259</v>
       </c>
       <c r="N45" t="n">
-        <v>0.4070699882446259</v>
-      </c>
-      <c r="O45" t="n">
         <v>5.597727454797671e-11</v>
       </c>
     </row>
@@ -5054,12 +4764,9 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M46" t="n">
-        <v>1.823590565315959e-08</v>
+        <v>0.4067258810886694</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4067258810886694</v>
-      </c>
-      <c r="O46" t="n">
         <v>5.593259516849821e-11</v>
       </c>
     </row>
@@ -5101,12 +4808,9 @@
         <v>1.214184911782386e-10</v>
       </c>
       <c r="M47" t="n">
-        <v>4.022800342512592e-09</v>
+        <v>0.4665253244832986</v>
       </c>
       <c r="N47" t="n">
-        <v>0.4665253244832986</v>
-      </c>
-      <c r="O47" t="n">
         <v>1.092245892687438e-10</v>
       </c>
     </row>

--- a/laue_data.xlsx
+++ b/laue_data.xlsx
@@ -2810,28 +2810,28 @@
         <v>0.00282034448421955</v>
       </c>
       <c r="G2" t="n">
-        <v>155.4679483938086</v>
+        <v>310.9358967876172</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.214184911782386e-10</v>
+        <v>6.070924558911929e-11</v>
       </c>
       <c r="M2" t="n">
         <v>0.4582749423588158</v>
       </c>
       <c r="N2" t="n">
-        <v>1.074314950240037e-10</v>
+        <v>5.371574751200187e-11</v>
       </c>
     </row>
     <row r="3">
@@ -3778,28 +3778,28 @@
         <v>1.126176679485355e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>149.4481403755727</v>
+        <v>298.8962807511455</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.214184911782386e-10</v>
+        <v>6.070924558911929e-11</v>
       </c>
       <c r="M24" t="n">
         <v>0.4642004603956314</v>
       </c>
       <c r="N24" t="n">
-        <v>1.087200627203342e-10</v>
+        <v>5.436003136016712e-11</v>
       </c>
     </row>
     <row r="25">
@@ -3866,28 +3866,28 @@
         <v>1.693722649270835e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>153.2158883264532</v>
+        <v>306.4317766529063</v>
       </c>
       <c r="H26" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.214184911782386e-10</v>
+        <v>6.070924558911929e-11</v>
       </c>
       <c r="M26" t="n">
         <v>0.4604649445660205</v>
       </c>
       <c r="N26" t="n">
-        <v>1.079081764283931e-10</v>
+        <v>5.395408821419656e-11</v>
       </c>
     </row>
     <row r="27">
@@ -4790,28 +4790,28 @@
         <v>0.0009171216292716732</v>
       </c>
       <c r="G47" t="n">
-        <v>147.1489778581167</v>
+        <v>294.2979557162333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.214184911782386e-10</v>
+        <v>6.070924558911929e-11</v>
       </c>
       <c r="M47" t="n">
         <v>0.4665253244832986</v>
       </c>
       <c r="N47" t="n">
-        <v>1.092245892687438e-10</v>
+        <v>5.461229463437192e-11</v>
       </c>
     </row>
   </sheetData>
@@ -4858,7 +4858,7 @@
         <v>559.7043659641877</v>
       </c>
       <c r="C2" t="n">
-        <v>519.2053353140492</v>
+        <v>536.0127337198446</v>
       </c>
     </row>
   </sheetData>

--- a/laue_data.xlsx
+++ b/laue_data.xlsx
@@ -11,6 +11,8 @@
     <sheet name="NaCl" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Si" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="a0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="a0_exp" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="a0_theo" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +494,12 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>wavelength</t>
+          <t>wavelength_exp</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>wavelength_theo</t>
         </is>
       </c>
     </row>
@@ -539,6 +546,9 @@
       <c r="N2" t="n">
         <v>7.889283499073531e-11</v>
       </c>
+      <c r="O2" t="n">
+        <v>8.06e-11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -583,6 +593,9 @@
       <c r="N3" t="n">
         <v>6.55211006541786e-11</v>
       </c>
+      <c r="O3" t="n">
+        <v>6.716666666666668e-11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -627,6 +640,9 @@
       <c r="N4" t="n">
         <v>6.568896100243891e-11</v>
       </c>
+      <c r="O4" t="n">
+        <v>6.716666666666668e-11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -671,6 +687,9 @@
       <c r="N5" t="n">
         <v>7.089414828553438e-11</v>
       </c>
+      <c r="O5" t="n">
+        <v>7.327272727272728e-11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -715,6 +734,9 @@
       <c r="N6" t="n">
         <v>7.060473654545982e-11</v>
       </c>
+      <c r="O6" t="n">
+        <v>7.327272727272728e-11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -759,6 +781,9 @@
       <c r="N7" t="n">
         <v>6.581404804481176e-11</v>
       </c>
+      <c r="O7" t="n">
+        <v>6.716666666666668e-11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -803,6 +828,9 @@
       <c r="N8" t="n">
         <v>6.549593823295028e-11</v>
       </c>
+      <c r="O8" t="n">
+        <v>6.716666666666668e-11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -847,6 +875,9 @@
       <c r="N9" t="n">
         <v>7.054731064749305e-11</v>
       </c>
+      <c r="O9" t="n">
+        <v>7.327272727272728e-11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -891,6 +922,9 @@
       <c r="N10" t="n">
         <v>7.159859386451889e-11</v>
       </c>
+      <c r="O10" t="n">
+        <v>7.327272727272728e-11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -935,6 +969,9 @@
       <c r="N11" t="n">
         <v>7.901947528615468e-11</v>
       </c>
+      <c r="O11" t="n">
+        <v>8.06e-11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -979,6 +1016,9 @@
       <c r="N12" t="n">
         <v>7.958255089944541e-11</v>
       </c>
+      <c r="O12" t="n">
+        <v>8.06e-11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1023,6 +1063,9 @@
       <c r="N13" t="n">
         <v>7.096717319757069e-11</v>
       </c>
+      <c r="O13" t="n">
+        <v>7.327272727272728e-11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1067,6 +1110,9 @@
       <c r="N14" t="n">
         <v>7.194952550004218e-11</v>
       </c>
+      <c r="O14" t="n">
+        <v>7.327272727272728e-11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1111,6 +1157,9 @@
       <c r="N15" t="n">
         <v>6.570296648044749e-11</v>
       </c>
+      <c r="O15" t="n">
+        <v>6.716666666666668e-11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1155,6 +1204,9 @@
       <c r="N16" t="n">
         <v>6.594800953510958e-11</v>
       </c>
+      <c r="O16" t="n">
+        <v>6.716666666666668e-11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1199,6 +1251,9 @@
       <c r="N17" t="n">
         <v>7.17333295147143e-11</v>
       </c>
+      <c r="O17" t="n">
+        <v>7.327272727272728e-11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1243,6 +1298,9 @@
       <c r="N18" t="n">
         <v>7.21408909540268e-11</v>
       </c>
+      <c r="O18" t="n">
+        <v>7.327272727272728e-11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1287,6 +1345,9 @@
       <c r="N19" t="n">
         <v>6.607298782354184e-11</v>
       </c>
+      <c r="O19" t="n">
+        <v>6.716666666666668e-11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1331,6 +1392,9 @@
       <c r="N20" t="n">
         <v>6.608805785176487e-11</v>
       </c>
+      <c r="O20" t="n">
+        <v>6.716666666666668e-11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1374,6 +1438,9 @@
       </c>
       <c r="N21" t="n">
         <v>7.940092425676108e-11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.06e-11</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,7 +1530,12 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>wavelength</t>
+          <t>wavelength_exp</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>wavelength_theo</t>
         </is>
       </c>
     </row>
@@ -1510,6 +1582,9 @@
       <c r="N2" t="n">
         <v>9.071144106278336e-11</v>
       </c>
+      <c r="O2" t="n">
+        <v>9.400000000000002e-11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1554,6 +1629,9 @@
       <c r="N3" t="n">
         <v>9.019798670987079e-11</v>
       </c>
+      <c r="O3" t="n">
+        <v>9.400000000000002e-11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1598,6 +1676,9 @@
       <c r="N4" t="n">
         <v>5.362405000819712e-11</v>
       </c>
+      <c r="O4" t="n">
+        <v>5.639999999999999e-11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1642,6 +1723,9 @@
       <c r="N5" t="n">
         <v>9.7216152041162e-11</v>
       </c>
+      <c r="O5" t="n">
+        <v>1.025454545454546e-10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1686,6 +1770,9 @@
       <c r="N6" t="n">
         <v>9.711086483125829e-11</v>
       </c>
+      <c r="O6" t="n">
+        <v>1.025454545454546e-10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1730,6 +1817,9 @@
       <c r="N7" t="n">
         <v>5.959252586083e-11</v>
       </c>
+      <c r="O7" t="n">
+        <v>6.266666666666667e-11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1774,6 +1864,9 @@
       <c r="N8" t="n">
         <v>5.957481187009448e-11</v>
       </c>
+      <c r="O8" t="n">
+        <v>6.266666666666667e-11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1818,6 +1911,9 @@
       <c r="N9" t="n">
         <v>9.016648920861512e-11</v>
       </c>
+      <c r="O9" t="n">
+        <v>9.400000000000002e-11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1862,6 +1958,9 @@
       <c r="N10" t="n">
         <v>8.952241284561586e-11</v>
       </c>
+      <c r="O10" t="n">
+        <v>9.400000000000002e-11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +2005,9 @@
       <c r="N11" t="n">
         <v>5.644442530243987e-11</v>
       </c>
+      <c r="O11" t="n">
+        <v>5.936842105263156e-11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1950,6 +2052,9 @@
       <c r="N12" t="n">
         <v>5.519528994658123e-11</v>
       </c>
+      <c r="O12" t="n">
+        <v>5.936842105263156e-11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1994,6 +2099,9 @@
       <c r="N13" t="n">
         <v>9.664031549987606e-11</v>
       </c>
+      <c r="O13" t="n">
+        <v>1.025454545454546e-10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2038,6 +2146,9 @@
       <c r="N14" t="n">
         <v>9.676707722802912e-11</v>
       </c>
+      <c r="O14" t="n">
+        <v>1.025454545454546e-10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2193,9 @@
       <c r="N15" t="n">
         <v>5.309405638821689e-11</v>
       </c>
+      <c r="O15" t="n">
+        <v>5.639999999999999e-11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2126,6 +2240,9 @@
       <c r="N16" t="n">
         <v>5.321021778877054e-11</v>
       </c>
+      <c r="O16" t="n">
+        <v>5.639999999999999e-11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2170,6 +2287,9 @@
       <c r="N17" t="n">
         <v>9.603500692378168e-11</v>
       </c>
+      <c r="O17" t="n">
+        <v>1.025454545454546e-10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2214,6 +2334,9 @@
       <c r="N18" t="n">
         <v>9.643408858118178e-11</v>
       </c>
+      <c r="O18" t="n">
+        <v>1.025454545454546e-10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2258,6 +2381,9 @@
       <c r="N19" t="n">
         <v>5.488547056126151e-11</v>
       </c>
+      <c r="O19" t="n">
+        <v>5.936842105263156e-11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2302,6 +2428,9 @@
       <c r="N20" t="n">
         <v>5.521288020264449e-11</v>
       </c>
+      <c r="O20" t="n">
+        <v>5.936842105263156e-11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2346,6 +2475,9 @@
       <c r="N21" t="n">
         <v>8.95581996201965e-11</v>
       </c>
+      <c r="O21" t="n">
+        <v>9.400000000000002e-11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2522,9 @@
       <c r="N22" t="n">
         <v>8.849626482378758e-11</v>
       </c>
+      <c r="O22" t="n">
+        <v>9.400000000000002e-11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2434,6 +2569,9 @@
       <c r="N23" t="n">
         <v>5.881984349781953e-11</v>
       </c>
+      <c r="O23" t="n">
+        <v>6.266666666666667e-11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2478,6 +2616,9 @@
       <c r="N24" t="n">
         <v>5.869835331539647e-11</v>
       </c>
+      <c r="O24" t="n">
+        <v>6.266666666666667e-11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2522,6 +2663,9 @@
       <c r="N25" t="n">
         <v>9.558665502279966e-11</v>
       </c>
+      <c r="O25" t="n">
+        <v>1.025454545454546e-10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2566,6 +2710,9 @@
       <c r="N26" t="n">
         <v>9.565657647543631e-11</v>
       </c>
+      <c r="O26" t="n">
+        <v>1.025454545454546e-10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2610,6 +2757,9 @@
       <c r="N27" t="n">
         <v>5.2667095258799e-11</v>
       </c>
+      <c r="O27" t="n">
+        <v>5.639999999999999e-11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2654,6 +2804,9 @@
       <c r="N28" t="n">
         <v>8.844915681234449e-11</v>
       </c>
+      <c r="O28" t="n">
+        <v>9.400000000000002e-11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2697,6 +2850,9 @@
       </c>
       <c r="N29" t="n">
         <v>8.89267658875418e-11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>9.400000000000002e-11</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2786,7 +2942,12 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>wavelength</t>
+          <t>wavelength_exp</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>wavelength_theo</t>
         </is>
       </c>
     </row>
@@ -2833,6 +2994,9 @@
       <c r="N2" t="n">
         <v>5.371574751200187e-11</v>
       </c>
+      <c r="O2" t="n">
+        <v>5.43e-11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2877,6 +3041,9 @@
       <c r="N3" t="n">
         <v>5.408989186876199e-11</v>
       </c>
+      <c r="O3" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2921,6 +3088,9 @@
       <c r="N4" t="n">
         <v>5.407363771325072e-11</v>
       </c>
+      <c r="O4" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2965,6 +3135,9 @@
       <c r="N5" t="n">
         <v>8.910488286990158e-11</v>
       </c>
+      <c r="O5" t="n">
+        <v>9.050000000000002e-11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3009,6 +3182,9 @@
       <c r="N6" t="n">
         <v>8.89822424682499e-11</v>
       </c>
+      <c r="O6" t="n">
+        <v>9.050000000000002e-11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3053,6 +3229,9 @@
       <c r="N7" t="n">
         <v>4.885002351120422e-11</v>
       </c>
+      <c r="O7" t="n">
+        <v>4.936363636363636e-11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3097,6 +3276,9 @@
       <c r="N8" t="n">
         <v>4.74670816267315e-11</v>
       </c>
+      <c r="O8" t="n">
+        <v>4.862686567164179e-11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3141,6 +3323,9 @@
       <c r="N9" t="n">
         <v>4.749928933699364e-11</v>
       </c>
+      <c r="O9" t="n">
+        <v>4.862686567164179e-11</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3185,6 +3370,9 @@
       <c r="N10" t="n">
         <v>4.875048362022301e-11</v>
       </c>
+      <c r="O10" t="n">
+        <v>4.936363636363636e-11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3229,6 +3417,9 @@
       <c r="N11" t="n">
         <v>5.230103590791631e-11</v>
       </c>
+      <c r="O11" t="n">
+        <v>5.429999999999999e-11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3273,6 +3464,9 @@
       <c r="N12" t="n">
         <v>5.435489669189072e-11</v>
       </c>
+      <c r="O12" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3317,6 +3511,9 @@
       <c r="N13" t="n">
         <v>5.439205558101466e-11</v>
       </c>
+      <c r="O13" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3361,6 +3558,9 @@
       <c r="N14" t="n">
         <v>8.963519389806742e-11</v>
       </c>
+      <c r="O14" t="n">
+        <v>9.050000000000002e-11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3405,6 +3605,9 @@
       <c r="N15" t="n">
         <v>8.944516567113337e-11</v>
       </c>
+      <c r="O15" t="n">
+        <v>9.050000000000002e-11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3449,6 +3652,9 @@
       <c r="N16" t="n">
         <v>4.797996855401203e-11</v>
       </c>
+      <c r="O16" t="n">
+        <v>4.862686567164179e-11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3493,6 +3699,9 @@
       <c r="N17" t="n">
         <v>4.824827701239069e-11</v>
       </c>
+      <c r="O17" t="n">
+        <v>4.862686567164179e-11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3537,6 +3746,9 @@
       <c r="N18" t="n">
         <v>5.552775453012985e-11</v>
       </c>
+      <c r="O18" t="n">
+        <v>5.71578947368421e-11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3581,6 +3793,9 @@
       <c r="N19" t="n">
         <v>5.350034044784323e-11</v>
       </c>
+      <c r="O19" t="n">
+        <v>5.71578947368421e-11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3625,6 +3840,9 @@
       <c r="N20" t="n">
         <v>9.834587806320177e-11</v>
       </c>
+      <c r="O20" t="n">
+        <v>9.872727272727272e-11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3669,6 +3887,9 @@
       <c r="N21" t="n">
         <v>9.604420075510519e-11</v>
       </c>
+      <c r="O21" t="n">
+        <v>9.872727272727272e-11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3713,6 +3934,9 @@
       <c r="N22" t="n">
         <v>5.492879620724378e-11</v>
       </c>
+      <c r="O22" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3757,6 +3981,9 @@
       <c r="N23" t="n">
         <v>5.496365629105282e-11</v>
       </c>
+      <c r="O23" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3801,6 +4028,9 @@
       <c r="N24" t="n">
         <v>5.436003136016712e-11</v>
       </c>
+      <c r="O24" t="n">
+        <v>5.43e-11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3845,6 +4075,9 @@
       <c r="N25" t="n">
         <v>5.366801264615383e-11</v>
       </c>
+      <c r="O25" t="n">
+        <v>5.429999999999999e-11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3889,6 +4122,9 @@
       <c r="N26" t="n">
         <v>5.395408821419656e-11</v>
       </c>
+      <c r="O26" t="n">
+        <v>5.43e-11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3933,6 +4169,9 @@
       <c r="N27" t="n">
         <v>5.453320439003443e-11</v>
       </c>
+      <c r="O27" t="n">
+        <v>5.429999999999999e-11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3977,6 +4216,9 @@
       <c r="N28" t="n">
         <v>5.513064650330283e-11</v>
       </c>
+      <c r="O28" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4021,6 +4263,9 @@
       <c r="N29" t="n">
         <v>5.522281565087558e-11</v>
       </c>
+      <c r="O29" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4065,6 +4310,9 @@
       <c r="N30" t="n">
         <v>9.837224516564784e-11</v>
       </c>
+      <c r="O30" t="n">
+        <v>9.872727272727272e-11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4109,6 +4357,9 @@
       <c r="N31" t="n">
         <v>1.008313672472501e-10</v>
       </c>
+      <c r="O31" t="n">
+        <v>9.872727272727272e-11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4153,6 +4404,9 @@
       <c r="N32" t="n">
         <v>5.818935803603914e-11</v>
       </c>
+      <c r="O32" t="n">
+        <v>5.71578947368421e-11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4197,6 +4451,9 @@
       <c r="N33" t="n">
         <v>4.872401674174774e-11</v>
       </c>
+      <c r="O33" t="n">
+        <v>4.862686567164179e-11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4241,6 +4498,9 @@
       <c r="N34" t="n">
         <v>6.046911551502373e-11</v>
       </c>
+      <c r="O34" t="n">
+        <v>5.71578947368421e-11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4285,6 +4545,9 @@
       <c r="N35" t="n">
         <v>4.902658101956586e-11</v>
       </c>
+      <c r="O35" t="n">
+        <v>4.862686567164179e-11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4329,6 +4592,9 @@
       <c r="N36" t="n">
         <v>9.08939423587648e-11</v>
       </c>
+      <c r="O36" t="n">
+        <v>9.050000000000002e-11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4373,6 +4639,9 @@
       <c r="N37" t="n">
         <v>9.062524925166172e-11</v>
       </c>
+      <c r="O37" t="n">
+        <v>9.050000000000002e-11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4417,6 +4686,9 @@
       <c r="N38" t="n">
         <v>5.55907869397988e-11</v>
       </c>
+      <c r="O38" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4461,6 +4733,9 @@
       <c r="N39" t="n">
         <v>5.563259318514697e-11</v>
       </c>
+      <c r="O39" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4505,6 +4780,9 @@
       <c r="N40" t="n">
         <v>5.584470152938531e-11</v>
       </c>
+      <c r="O40" t="n">
+        <v>5.429999999999999e-11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4549,6 +4827,9 @@
       <c r="N41" t="n">
         <v>4.940250948831777e-11</v>
       </c>
+      <c r="O41" t="n">
+        <v>4.862686567164179e-11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4593,6 +4874,9 @@
       <c r="N42" t="n">
         <v>4.946734840357494e-11</v>
       </c>
+      <c r="O42" t="n">
+        <v>4.862686567164179e-11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4637,6 +4921,9 @@
       <c r="N43" t="n">
         <v>9.139030655330512e-11</v>
       </c>
+      <c r="O43" t="n">
+        <v>9.050000000000002e-11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4681,6 +4968,9 @@
       <c r="N44" t="n">
         <v>9.123573686206995e-11</v>
       </c>
+      <c r="O44" t="n">
+        <v>9.050000000000002e-11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4725,6 +5015,9 @@
       <c r="N45" t="n">
         <v>5.597727454797671e-11</v>
       </c>
+      <c r="O45" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4769,6 +5062,9 @@
       <c r="N46" t="n">
         <v>5.593259516849821e-11</v>
       </c>
+      <c r="O46" t="n">
+        <v>5.522033898305086e-11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4812,6 +5108,9 @@
       </c>
       <c r="N47" t="n">
         <v>5.461229463437192e-11</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5.43e-11</v>
       </c>
     </row>
   </sheetData>
@@ -4864,4 +5163,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LiF</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>NaCl</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>382.1618714279803</v>
+      </c>
+      <c r="B2" t="n">
+        <v>559.7043659641877</v>
+      </c>
+      <c r="C2" t="n">
+        <v>536.0127337198446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>LiF</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>NaCl</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>380.8385409238463</v>
+      </c>
+      <c r="B2" t="n">
+        <v>559.2488042841732</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533.8422823685667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/laue_data.xlsx
+++ b/laue_data.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,22 +484,37 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>d_hkl</t>
+          <t>d_hkl_theo</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>d_hkl_exp</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>d_hkl_err</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>wavelength_theo</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>wavelength_exp</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>wavelength_theo</t>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>wavelength_err</t>
         </is>
       </c>
     </row>
@@ -541,13 +556,22 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4530849511103442</v>
+        <v>9.03768588582719e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>7.889283499073531e-11</v>
+        <v>0.05661724119029467</v>
       </c>
       <c r="O2" t="n">
+        <v>0.4636476090008061</v>
+      </c>
+      <c r="P2" t="n">
         <v>8.06e-11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>8.083552e-11</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.05063999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -588,13 +612,22 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4096042133834594</v>
+        <v>8.250240712189353e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>6.55211006541786e-11</v>
+        <v>0.05168423357272506</v>
       </c>
       <c r="O3" t="n">
-        <v>6.716666666666668e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.716666666666667e-11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.736293333333333e-11</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0422</v>
       </c>
     </row>
     <row r="4">
@@ -635,13 +668,22 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4107167708893523</v>
+        <v>8.250240712189353e-11</v>
       </c>
       <c r="N4" t="n">
-        <v>6.568896100243891e-11</v>
+        <v>0.05168423357272506</v>
       </c>
       <c r="O4" t="n">
-        <v>6.716666666666668e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.716666666666667e-11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.736293333333333e-11</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0422</v>
       </c>
     </row>
     <row r="5">
@@ -682,13 +724,22 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2960284135450137</v>
+        <v>1.218641316242135e-10</v>
       </c>
       <c r="N5" t="n">
-        <v>7.089414828553438e-11</v>
+        <v>0.07634267244708974</v>
       </c>
       <c r="O5" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P5" t="n">
         <v>7.327272727272728e-11</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.348683636363637e-11</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.04603636363636363</v>
       </c>
     </row>
     <row r="6">
@@ -729,13 +780,22 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2947835866809012</v>
+        <v>1.218641316242135e-10</v>
       </c>
       <c r="N6" t="n">
-        <v>7.060473654545982e-11</v>
+        <v>0.07634267244708974</v>
       </c>
       <c r="O6" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P6" t="n">
         <v>7.327272727272728e-11</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.348683636363637e-11</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.04603636363636363</v>
       </c>
     </row>
     <row r="7">
@@ -776,13 +836,22 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4115461827992051</v>
+        <v>8.250240712189353e-11</v>
       </c>
       <c r="N7" t="n">
-        <v>6.581404804481176e-11</v>
+        <v>0.05168423357272506</v>
       </c>
       <c r="O7" t="n">
-        <v>6.716666666666668e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.716666666666667e-11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.736293333333333e-11</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0422</v>
       </c>
     </row>
     <row r="8">
@@ -823,13 +892,22 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4094374863320299</v>
+        <v>8.250240712189353e-11</v>
       </c>
       <c r="N8" t="n">
-        <v>6.549593823295028e-11</v>
+        <v>0.05168423357272506</v>
       </c>
       <c r="O8" t="n">
-        <v>6.716666666666668e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.716666666666667e-11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.736293333333333e-11</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0422</v>
       </c>
     </row>
     <row r="9">
@@ -870,13 +948,22 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2945366406039327</v>
+        <v>1.218641316242135e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>7.054731064749305e-11</v>
+        <v>0.07634267244708974</v>
       </c>
       <c r="O9" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P9" t="n">
         <v>7.327272727272728e-11</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.348683636363637e-11</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.04603636363636363</v>
       </c>
     </row>
     <row r="10">
@@ -917,13 +1004,22 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2990603778892723</v>
+        <v>1.218641316242135e-10</v>
       </c>
       <c r="N10" t="n">
-        <v>7.159859386451889e-11</v>
+        <v>0.07634267244708974</v>
       </c>
       <c r="O10" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P10" t="n">
         <v>7.327272727272728e-11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.348683636363637e-11</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.04603636363636363</v>
       </c>
     </row>
     <row r="11">
@@ -964,13 +1060,22 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4538666258822426</v>
+        <v>9.03768588582719e-11</v>
       </c>
       <c r="N11" t="n">
-        <v>7.901947528615468e-11</v>
+        <v>0.05661724119029467</v>
       </c>
       <c r="O11" t="n">
+        <v>0.4636476090008061</v>
+      </c>
+      <c r="P11" t="n">
         <v>8.06e-11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>8.083552e-11</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.05063999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1011,13 +1116,22 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4573457765441637</v>
+        <v>9.03768588582719e-11</v>
       </c>
       <c r="N12" t="n">
-        <v>7.958255089944541e-11</v>
+        <v>0.05661724119029467</v>
       </c>
       <c r="O12" t="n">
+        <v>0.4636476090008061</v>
+      </c>
+      <c r="P12" t="n">
         <v>8.06e-11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8.083552e-11</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.05063999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1058,13 +1172,22 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2963425851905583</v>
+        <v>1.218641316242135e-10</v>
       </c>
       <c r="N13" t="n">
-        <v>7.096717319757069e-11</v>
+        <v>0.07634267244708974</v>
       </c>
       <c r="O13" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P13" t="n">
         <v>7.327272727272728e-11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.348683636363637e-11</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.04603636363636363</v>
       </c>
     </row>
     <row r="14">
@@ -1105,13 +1228,22 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3005718592692377</v>
+        <v>1.218641316242135e-10</v>
       </c>
       <c r="N14" t="n">
-        <v>7.194952550004218e-11</v>
+        <v>0.07634267244708974</v>
       </c>
       <c r="O14" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P14" t="n">
         <v>7.327272727272728e-11</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.348683636363637e-11</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.04603636363636363</v>
       </c>
     </row>
     <row r="15">
@@ -1152,13 +1284,22 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4108096218007261</v>
+        <v>8.250240712189353e-11</v>
       </c>
       <c r="N15" t="n">
-        <v>6.570296648044749e-11</v>
+        <v>0.05168423357272506</v>
       </c>
       <c r="O15" t="n">
-        <v>6.716666666666668e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6.716666666666667e-11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6.736293333333333e-11</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0422</v>
       </c>
     </row>
     <row r="16">
@@ -1199,13 +1340,22 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4124347714283181</v>
+        <v>8.250240712189353e-11</v>
       </c>
       <c r="N16" t="n">
-        <v>6.594800953510958e-11</v>
+        <v>0.05168423357272506</v>
       </c>
       <c r="O16" t="n">
-        <v>6.716666666666668e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6.716666666666667e-11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.736293333333333e-11</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0422</v>
       </c>
     </row>
     <row r="17">
@@ -1246,13 +1396,22 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2996406080594229</v>
+        <v>1.218641316242135e-10</v>
       </c>
       <c r="N17" t="n">
-        <v>7.17333295147143e-11</v>
+        <v>0.07634267244708974</v>
       </c>
       <c r="O17" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P17" t="n">
         <v>7.327272727272728e-11</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7.348683636363637e-11</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.04603636363636363</v>
       </c>
     </row>
     <row r="18">
@@ -1293,13 +1452,22 @@
         <v>1.215090718648387e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3013963787614994</v>
+        <v>1.218641316242135e-10</v>
       </c>
       <c r="N18" t="n">
-        <v>7.21408909540268e-11</v>
+        <v>0.07634267244708974</v>
       </c>
       <c r="O18" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P18" t="n">
         <v>7.327272727272728e-11</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>7.348683636363637e-11</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.04603636363636363</v>
       </c>
     </row>
     <row r="19">
@@ -1340,13 +1508,22 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4132640845943523</v>
+        <v>8.250240712189353e-11</v>
       </c>
       <c r="N19" t="n">
-        <v>6.607298782354184e-11</v>
+        <v>0.05168423357272506</v>
       </c>
       <c r="O19" t="n">
-        <v>6.716666666666668e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6.716666666666667e-11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>6.736293333333333e-11</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0422</v>
       </c>
     </row>
     <row r="20">
@@ -1387,13 +1564,22 @@
         <v>8.22620305284684e-11</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4133641045115671</v>
+        <v>8.250240712189353e-11</v>
       </c>
       <c r="N20" t="n">
-        <v>6.608805785176487e-11</v>
+        <v>0.05168423357272506</v>
       </c>
       <c r="O20" t="n">
-        <v>6.716666666666668e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6.716666666666667e-11</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6.736293333333333e-11</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0422</v>
       </c>
     </row>
     <row r="21">
@@ -1434,13 +1620,22 @@
         <v>9.011353949324152e-11</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4562228872128556</v>
+        <v>9.03768588582719e-11</v>
       </c>
       <c r="N21" t="n">
-        <v>7.940092425676108e-11</v>
+        <v>0.05661724119029467</v>
       </c>
       <c r="O21" t="n">
+        <v>0.4636476090008061</v>
+      </c>
+      <c r="P21" t="n">
         <v>8.06e-11</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>8.083552e-11</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.05063999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,22 +1715,37 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>d_hkl</t>
+          <t>d_hkl_theo</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>d_hkl_exp</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>d_hkl_err</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>wavelength_theo</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>wavelength_exp</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>wavelength_theo</t>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>wavelength_err</t>
         </is>
       </c>
     </row>
@@ -1577,13 +1787,22 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M2" t="n">
-        <v>0.404942442987216</v>
+        <v>1.152650060412978e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>9.071144106278336e-11</v>
+        <v>0.04153926355469807</v>
       </c>
       <c r="O2" t="n">
-        <v>9.400000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.400000000000001e-11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.411348333333335e-11</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.03391666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -1624,13 +1843,22 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4025175167718137</v>
+        <v>1.152650060412978e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>9.019798670987079e-11</v>
+        <v>0.04153926355469807</v>
       </c>
       <c r="O3" t="n">
-        <v>9.400000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.400000000000001e-11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9.411348333333335e-11</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.03391666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -1671,13 +1899,22 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>0.305388121003082</v>
+        <v>8.928388975968873e-11</v>
       </c>
       <c r="N4" t="n">
-        <v>5.362405000819712e-11</v>
+        <v>0.03217617519221325</v>
       </c>
       <c r="O4" t="n">
-        <v>5.639999999999999e-11</v>
+        <v>0.3217505543966422</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.64e-11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5.646809e-11</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.02035</v>
       </c>
     </row>
     <row r="5">
@@ -1718,13 +1955,22 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>0.28988471829288</v>
+        <v>1.702576974163817e-10</v>
       </c>
       <c r="N5" t="n">
-        <v>9.7216152041162e-11</v>
+        <v>0.0613575586215749</v>
       </c>
       <c r="O5" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.025454545454546e-10</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.026692545454546e-10</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="6">
@@ -1765,13 +2011,22 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2895616822699055</v>
+        <v>1.702576974163817e-10</v>
       </c>
       <c r="N6" t="n">
-        <v>9.711086483125829e-11</v>
+        <v>0.0613575586215749</v>
       </c>
       <c r="O6" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.025454545454546e-10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.026692545454546e-10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="7">
@@ -1812,13 +2067,22 @@
         <v>9.4e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3225451867464391</v>
+        <v>9.411348333333334e-11</v>
       </c>
       <c r="N7" t="n">
-        <v>5.959252586083e-11</v>
+        <v>0.03391666666666666</v>
       </c>
       <c r="O7" t="n">
-        <v>6.266666666666667e-11</v>
+        <v>0.3398369094541219</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.266666666666666e-11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.274232222222222e-11</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.02261111111111111</v>
       </c>
     </row>
     <row r="8">
@@ -1859,13 +2123,22 @@
         <v>9.4e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3224458419126914</v>
+        <v>9.411348333333334e-11</v>
       </c>
       <c r="N8" t="n">
-        <v>5.957481187009448e-11</v>
+        <v>0.03391666666666666</v>
       </c>
       <c r="O8" t="n">
-        <v>6.266666666666667e-11</v>
+        <v>0.3398369094541219</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.266666666666666e-11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.274232222222222e-11</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.02261111111111111</v>
       </c>
     </row>
     <row r="9">
@@ -1906,13 +2179,22 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4023688429962436</v>
+        <v>1.152650060412978e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>9.016648920861512e-11</v>
+        <v>0.04153926355469807</v>
       </c>
       <c r="O9" t="n">
-        <v>9.400000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.400000000000001e-11</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9.411348333333335e-11</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.03391666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -1953,13 +2235,22 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3993307442885838</v>
+        <v>1.152650060412978e-10</v>
       </c>
       <c r="N10" t="n">
-        <v>8.952241284561586e-11</v>
+        <v>0.04153926355469807</v>
       </c>
       <c r="O10" t="n">
-        <v>9.400000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.400000000000001e-11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9.411348333333335e-11</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.03391666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -2000,13 +2291,22 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2198842060876415</v>
+        <v>1.295466830761893e-10</v>
       </c>
       <c r="N11" t="n">
-        <v>5.644442530243987e-11</v>
+        <v>0.04668610184265931</v>
       </c>
       <c r="O11" t="n">
-        <v>5.936842105263156e-11</v>
+        <v>0.2314773639701784</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.936842105263157e-11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5.94400947368421e-11</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.02142105263157894</v>
       </c>
     </row>
     <row r="12">
@@ -2047,13 +2347,22 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2149408294669114</v>
+        <v>1.295466830761893e-10</v>
       </c>
       <c r="N12" t="n">
-        <v>5.519528994658123e-11</v>
+        <v>0.04668610184265931</v>
       </c>
       <c r="O12" t="n">
-        <v>5.936842105263156e-11</v>
+        <v>0.2314773639701784</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.936842105263157e-11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5.94400947368421e-11</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.02142105263157894</v>
       </c>
     </row>
     <row r="13">
@@ -2094,13 +2403,22 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2881183498246289</v>
+        <v>1.702576974163817e-10</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664031549987606e-11</v>
+        <v>0.0613575586215749</v>
       </c>
       <c r="O13" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.025454545454546e-10</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.026692545454546e-10</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="14">
@@ -2141,13 +2459,22 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2885071096239138</v>
+        <v>1.702576974163817e-10</v>
       </c>
       <c r="N14" t="n">
-        <v>9.676707722802912e-11</v>
+        <v>0.0613575586215749</v>
       </c>
       <c r="O14" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.025454545454546e-10</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.026692545454546e-10</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="15">
@@ -2188,13 +2515,22 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3022738707424924</v>
+        <v>8.928388975968873e-11</v>
       </c>
       <c r="N15" t="n">
-        <v>5.309405638821689e-11</v>
+        <v>0.03217617519221325</v>
       </c>
       <c r="O15" t="n">
-        <v>5.639999999999999e-11</v>
+        <v>0.3217505543966422</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.64e-11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.646809e-11</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.02035</v>
       </c>
     </row>
     <row r="16">
@@ -2235,13 +2571,22 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3029561769402885</v>
+        <v>8.928388975968873e-11</v>
       </c>
       <c r="N16" t="n">
-        <v>5.321021778877054e-11</v>
+        <v>0.03217617519221325</v>
       </c>
       <c r="O16" t="n">
-        <v>5.639999999999999e-11</v>
+        <v>0.3217505543966422</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5.64e-11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5.646809e-11</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.02035</v>
       </c>
     </row>
     <row r="17">
@@ -2282,13 +2627,22 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2862625726348201</v>
+        <v>1.702576974163817e-10</v>
       </c>
       <c r="N17" t="n">
-        <v>9.603500692378168e-11</v>
+        <v>0.0613575586215749</v>
       </c>
       <c r="O17" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.025454545454546e-10</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.026692545454546e-10</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="18">
@@ -2329,13 +2683,22 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2874859774997348</v>
+        <v>1.702576974163817e-10</v>
       </c>
       <c r="N18" t="n">
-        <v>9.643408858118178e-11</v>
+        <v>0.0613575586215749</v>
       </c>
       <c r="O18" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.025454545454546e-10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.026692545454546e-10</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="19">
@@ -2376,13 +2739,22 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M19" t="n">
-        <v>0.213715568396251</v>
+        <v>1.295466830761893e-10</v>
       </c>
       <c r="N19" t="n">
-        <v>5.488547056126151e-11</v>
+        <v>0.04668610184265931</v>
       </c>
       <c r="O19" t="n">
-        <v>5.936842105263156e-11</v>
+        <v>0.2314773639701784</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.936842105263157e-11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5.94400947368421e-11</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.02142105263157894</v>
       </c>
     </row>
     <row r="20">
@@ -2423,13 +2795,22 @@
         <v>1.293904739029968e-10</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2150104045093289</v>
+        <v>1.295466830761893e-10</v>
       </c>
       <c r="N20" t="n">
-        <v>5.521288020264449e-11</v>
+        <v>0.04668610184265931</v>
       </c>
       <c r="O20" t="n">
-        <v>5.936842105263156e-11</v>
+        <v>0.2314773639701784</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.936842105263157e-11</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5.94400947368421e-11</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.02142105263157894</v>
       </c>
     </row>
     <row r="21">
@@ -2470,13 +2851,22 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M21" t="n">
-        <v>0.399499447510945</v>
+        <v>1.152650060412978e-10</v>
       </c>
       <c r="N21" t="n">
-        <v>8.95581996201965e-11</v>
+        <v>0.04153926355469807</v>
       </c>
       <c r="O21" t="n">
-        <v>9.400000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.400000000000001e-11</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9.411348333333335e-11</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.03391666666666667</v>
       </c>
     </row>
     <row r="22">
@@ -2517,13 +2907,22 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3944984378502437</v>
+        <v>1.152650060412978e-10</v>
       </c>
       <c r="N22" t="n">
-        <v>8.849626482378758e-11</v>
+        <v>0.04153926355469807</v>
       </c>
       <c r="O22" t="n">
-        <v>9.400000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P22" t="n">
+        <v>9.400000000000001e-11</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>9.411348333333335e-11</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.03391666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -2564,13 +2963,22 @@
         <v>9.4e-11</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3182148239750323</v>
+        <v>9.411348333333334e-11</v>
       </c>
       <c r="N23" t="n">
-        <v>5.881984349781953e-11</v>
+        <v>0.03391666666666666</v>
       </c>
       <c r="O23" t="n">
-        <v>6.266666666666667e-11</v>
+        <v>0.3398369094541219</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.266666666666666e-11</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6.274232222222222e-11</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.02261111111111111</v>
       </c>
     </row>
     <row r="24">
@@ -2611,13 +3019,22 @@
         <v>9.4e-11</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3175345174782977</v>
+        <v>9.411348333333334e-11</v>
       </c>
       <c r="N24" t="n">
-        <v>5.869835331539647e-11</v>
+        <v>0.03391666666666666</v>
       </c>
       <c r="O24" t="n">
-        <v>6.266666666666667e-11</v>
+        <v>0.3398369094541219</v>
+      </c>
+      <c r="P24" t="n">
+        <v>6.266666666666666e-11</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6.274232222222222e-11</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.02261111111111111</v>
       </c>
     </row>
     <row r="25">
@@ -2658,13 +3075,22 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2848886525598913</v>
+        <v>1.702576974163817e-10</v>
       </c>
       <c r="N25" t="n">
-        <v>9.558665502279966e-11</v>
+        <v>0.0613575586215749</v>
       </c>
       <c r="O25" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P25" t="n">
         <v>1.025454545454546e-10</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.026692545454546e-10</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="26">
@@ -2705,13 +3131,22 @@
         <v>1.700523983418587e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2851028819278155</v>
+        <v>1.702576974163817e-10</v>
       </c>
       <c r="N26" t="n">
-        <v>9.565657647543631e-11</v>
+        <v>0.0613575586215749</v>
       </c>
       <c r="O26" t="n">
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.025454545454546e-10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.026692545454546e-10</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.037</v>
       </c>
     </row>
     <row r="27">
@@ -2752,13 +3187,22 @@
         <v>8.917623001674829e-11</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2997672401559702</v>
+        <v>8.928388975968873e-11</v>
       </c>
       <c r="N27" t="n">
-        <v>5.2667095258799e-11</v>
+        <v>0.03217617519221325</v>
       </c>
       <c r="O27" t="n">
-        <v>5.639999999999999e-11</v>
+        <v>0.3217505543966422</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.64e-11</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5.646809e-11</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.02035</v>
       </c>
     </row>
     <row r="28">
@@ -2799,13 +3243,22 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3942768324044045</v>
+        <v>1.152650060412978e-10</v>
       </c>
       <c r="N28" t="n">
-        <v>8.844915681234449e-11</v>
+        <v>0.04153926355469807</v>
       </c>
       <c r="O28" t="n">
-        <v>9.400000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9.400000000000001e-11</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9.411348333333335e-11</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.03391666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -2846,13 +3299,22 @@
         <v>1.151260179108094e-10</v>
       </c>
       <c r="M29" t="n">
-        <v>0.3965245497114112</v>
+        <v>1.152650060412978e-10</v>
       </c>
       <c r="N29" t="n">
-        <v>8.89267658875418e-11</v>
+        <v>0.04153926355469807</v>
       </c>
       <c r="O29" t="n">
-        <v>9.400000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9.400000000000001e-11</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.411348333333335e-11</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.03391666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +3328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2932,22 +3394,37 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>d_hkl</t>
+          <t>d_hkl_theo</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>d_hkl_exp</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>d_hkl_err</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>wavelength_theo</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
         <is>
           <t>wavelength_exp</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>wavelength_theo</t>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>wavelength_err</t>
         </is>
       </c>
     </row>
@@ -2989,13 +3466,22 @@
         <v>6.070924558911929e-11</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4582749423588158</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.371574751200187e-11</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0.4636476090008061</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.43e-11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3036,13 +3522,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3925776249818836</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.408989186876199e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3083,13 +3578,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3924531986742553</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.407363771325072e-11</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3130,13 +3634,22 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4136507838629954</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>8.910488286990158e-11</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.050000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.050000000000001e-11</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3177,13 +3690,22 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4130466713808814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>8.89822424682499e-11</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9.050000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.050000000000001e-11</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3224,13 +3746,22 @@
         <v>5.788399449054823e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4356114873942182</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4.885002351120422e-11</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4.936363636363636e-11</v>
+        <v>0.4405106630046985</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.936363636363637e-11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3271,13 +3802,22 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3658753665935956</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.74670816267315e-11</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0.3752534269916867</v>
+      </c>
+      <c r="P8" t="n">
         <v>4.862686567164179e-11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3318,13 +3858,22 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3661353407048782</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4.749928933699364e-11</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0.3752534269916867</v>
+      </c>
+      <c r="P9" t="n">
         <v>4.862686567164179e-11</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3365,13 +3914,22 @@
         <v>5.788399449054823e-11</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4346633061389997</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.875048362022301e-11</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>4.936363636363636e-11</v>
+        <v>0.4405106630046985</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.936363636363637e-11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3412,13 +3970,22 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3095041321107141</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5.230103590791631e-11</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5.429999999999999e-11</v>
+        <v>0.3217505543966422</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.43e-11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3459,13 +4026,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3946071555100394</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>5.435489669189072e-11</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3506,13 +4082,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3948918725645431</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5.439205558101466e-11</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3553,13 +4138,22 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4162648839365153</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>8.963519389806742e-11</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.050000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9.050000000000001e-11</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3600,13 +4194,22 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4153278179605042</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>8.944516567113337e-11</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>9.050000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9.050000000000001e-11</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3647,13 +4250,22 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3700183796666876</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.797996855401203e-11</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>0.3752534269916867</v>
+      </c>
+      <c r="P16" t="n">
         <v>4.862686567164179e-11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3694,13 +4306,22 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3721883798364725</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.824827701239069e-11</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
+        <v>0.3752534269916867</v>
+      </c>
+      <c r="P17" t="n">
         <v>4.862686567164179e-11</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3741,13 +4362,22 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2247604142831846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>5.552775453012985e-11</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>0.2314773639701784</v>
+      </c>
+      <c r="P18" t="n">
         <v>5.71578947368421e-11</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3788,13 +4418,22 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2164208387058885</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.350034044784323e-11</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
+        <v>0.2314773639701784</v>
+      </c>
+      <c r="P19" t="n">
         <v>5.71578947368421e-11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3835,13 +4474,22 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M20" t="n">
-        <v>0.305055980973813</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.834587806320177e-11</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.872727272727272e-11</v>
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.872727272727274e-11</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3882,13 +4530,22 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2976949134773788</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9.604420075510519e-11</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>9.872727272727272e-11</v>
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.872727272727274e-11</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3929,13 +4586,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3990082474877866</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.492879620724378e-11</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3976,13 +4642,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3992758430282098</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>5.496365629105282e-11</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4023,13 +4698,22 @@
         <v>6.070924558911929e-11</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4642004603956314</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>5.436003136016712e-11</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
+        <v>0.4636476090008061</v>
+      </c>
+      <c r="P24" t="n">
         <v>5.43e-11</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4070,13 +4754,22 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3178734468528737</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.366801264615383e-11</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.429999999999999e-11</v>
+        <v>0.3217505543966422</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.43e-11</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4117,13 +4810,22 @@
         <v>6.070924558911929e-11</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4604649445660205</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>5.395408821419656e-11</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>0.4636476090008061</v>
+      </c>
+      <c r="P26" t="n">
         <v>5.43e-11</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4164,13 +4866,22 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3231824766688066</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>5.453320439003443e-11</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>5.429999999999999e-11</v>
+        <v>0.3217505543966422</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.43e-11</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4211,13 +4922,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4005581251729241</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>5.513064650330283e-11</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4258,13 +4978,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4012661705123368</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>5.522281565087558e-11</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4305,13 +5034,22 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3051404045325796</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>9.837224516564784e-11</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>9.872727272727272e-11</v>
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9.872727272727274e-11</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4352,13 +5090,22 @@
         <v>1.637206601057256e-10</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3130241240992995</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.008313672472501e-10</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>9.872727272727272e-11</v>
+        <v>0.3062773691696695</v>
+      </c>
+      <c r="P31" t="n">
+        <v>9.872727272727274e-11</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4399,13 +5146,22 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M32" t="n">
-        <v>0.235732960824126</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>5.818935803603914e-11</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
+        <v>0.2314773639701784</v>
+      </c>
+      <c r="P32" t="n">
         <v>5.71578947368421e-11</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4446,13 +5202,22 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3760405560568043</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4.872401674174774e-11</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
+        <v>0.3752534269916867</v>
+      </c>
+      <c r="P33" t="n">
         <v>4.862686567164179e-11</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4493,13 +5258,22 @@
         <v>1.24572743491715e-10</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2451543307858638</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>6.046911551502373e-11</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>0.2314773639701784</v>
+      </c>
+      <c r="P34" t="n">
         <v>5.71578947368421e-11</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4540,13 +5314,22 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M35" t="n">
-        <v>0.378493537388184</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.902658101956586e-11</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>0.3752534269916867</v>
+      </c>
+      <c r="P35" t="n">
         <v>4.862686567164179e-11</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4587,13 +5370,22 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M36" t="n">
-        <v>0.4224818849611415</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>9.08939423587648e-11</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>9.050000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P36" t="n">
+        <v>9.050000000000001e-11</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4634,13 +5426,22 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4211533510402809</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>9.062524925166172e-11</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>9.050000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P37" t="n">
+        <v>9.050000000000001e-11</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4681,13 +5482,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4040950595659556</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>5.55907869397988e-11</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4728,13 +5538,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M39" t="n">
-        <v>0.404416673640947</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>5.563259318514697e-11</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4775,13 +5594,22 @@
         <v>8.585583847357149e-11</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3312482454229975</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5.584470152938531e-11</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.429999999999999e-11</v>
+        <v>0.3217505543966422</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5.43e-11</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4822,13 +5650,22 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3815446438688148</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>4.940250948831777e-11</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>0.3752534269916867</v>
+      </c>
+      <c r="P41" t="n">
         <v>4.862686567164179e-11</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4869,13 +5706,22 @@
         <v>6.633800828547373e-11</v>
       </c>
       <c r="M42" t="n">
-        <v>0.382071265689686</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>4.946734840357494e-11</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>0.3752534269916867</v>
+      </c>
+      <c r="P42" t="n">
         <v>4.862686567164179e-11</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4916,13 +5762,22 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M43" t="n">
-        <v>0.424938213187893</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9.139030655330512e-11</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>9.050000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P43" t="n">
+        <v>9.050000000000001e-11</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4963,13 +5818,22 @@
         <v>1.108394108609388e-10</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4241730113412396</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>9.123573686206995e-11</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.050000000000002e-11</v>
+        <v>0.4205343352839651</v>
+      </c>
+      <c r="P44" t="n">
+        <v>9.050000000000001e-11</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5010,13 +5874,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M45" t="n">
-        <v>0.4070699882446259</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>5.597727454797671e-11</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5057,13 +5930,22 @@
         <v>7.069257866258737e-11</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4067258810886694</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.593259516849821e-11</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.522033898305086e-11</v>
+        <v>0.4012471419183609</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5.522033898305085e-11</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5104,13 +5986,22 @@
         <v>6.070924558911929e-11</v>
       </c>
       <c r="M47" t="n">
-        <v>0.4665253244832986</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>5.461229463437192e-11</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
+        <v>0.4636476090008061</v>
+      </c>
+      <c r="P47" t="n">
         <v>5.43e-11</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
